--- a/Document/일정.xlsx
+++ b/Document/일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\Gorilla-box\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="147">
   <si>
     <t>3月</t>
   </si>
@@ -234,18 +234,6 @@
   </si>
   <si>
     <t xml:space="preserve">레벨 디자인 내용 수정 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">추가 기믹 기획 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1스테이지 보스 기획 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이벤트 시스템 기획 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -430,31 +418,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">감지 형태 드론 원화 작업 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감지 형태 드론 모델링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP 형태 드론 원화 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP 형태 드론 모델링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어 캐릭터 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어 원화 작업 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">레벨 더미 제작 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥 필드 더미 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">더미 라이팅 작업 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">예시용 필드 제작 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드럼통 더미 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨테이너 박스 (박스형) 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">컨테이너 박스 (직사각형) 제작 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어 기본(걷기, 점프, 더블 점프) 애니메이션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">계단 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기본 이동 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어 체력 감소 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">체크 포인트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로비 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기본 도안 제작  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 애니메이션 동작 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기본 동작 데이터 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기본 UI 구현 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>추적 형태 드론 모델링</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">감지 형태 드론 원화 작업 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감지 형태 드론 모델링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMP 형태 드론 원화 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMP 형태 드론 모델링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">플레이어 캐릭터 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">플레이어 원화 작업 </t>
+    <t xml:space="preserve">드론 애니메이션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기능 구현 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">게임 오버 구현 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -462,63 +530,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">기본 도안 제작  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">레벨 더미 제작 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바닥 필드 더미 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">더미 라이팅 작업 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">예시용 필드 제작 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드럼통 더미 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨테이너 박스 (박스형) 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">컨테이너 박스 (직사각형) 제작 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">플레이어 기본(걷기, 점프, 더블 점프) 애니메이션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">계단 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">기본 이동 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">플레이어 체력 감소 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">체크 포인트 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">기능 구현 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로비 디자인</t>
+    <t xml:space="preserve">이전 일정 연장 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 레벨 테스트 및 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">라운드 테이블 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문 시스템 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문시스템 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">등대 재 모델링 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등대 재 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씬 전환 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간 (알파 버전 발표)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전 형태 기둥 기믹 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">레벨1 
+기믹 추가 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이벤트 구현 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 몬스터 원화 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 몬스터 모델링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스몬스터 패턴 기획</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +656,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,8 +734,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1028,6 +1127,373 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1037,7 +1503,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1050,9 +1516,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1170,9 +1633,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1242,16 +1702,145 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="46" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1260,25 +1849,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1337,15 +1980,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1628,10 +2262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:CB76"/>
+  <dimension ref="A2:CB102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:H39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69:H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1642,100 +2276,97 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:80" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
-        <v>62</v>
+      <c r="B2" s="44" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="45"/>
+      <c r="B3" s="43"/>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:80" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:80" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="1">
-        <v>14</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="86">
         <v>15</v>
       </c>
-      <c r="K8" s="1">
+      <c r="J8" s="85">
         <v>16</v>
       </c>
-      <c r="L8" s="1">
+      <c r="K8" s="85">
         <v>17</v>
       </c>
-      <c r="M8" s="1">
+      <c r="L8" s="85">
         <v>18</v>
       </c>
-      <c r="N8" s="1">
+      <c r="M8" s="85">
         <v>19</v>
       </c>
-      <c r="O8" s="42">
+      <c r="N8" s="87">
         <v>20</v>
       </c>
-      <c r="P8" s="1">
+      <c r="O8" s="85">
         <v>21</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="P8" s="85">
         <v>22</v>
       </c>
-      <c r="R8" s="1">
+      <c r="Q8" s="85">
         <v>23</v>
       </c>
-      <c r="S8" s="1">
+      <c r="R8" s="85">
         <v>24</v>
       </c>
-      <c r="T8" s="42">
+      <c r="S8" s="87">
         <v>25</v>
       </c>
-      <c r="U8" s="1">
+      <c r="T8" s="85">
         <v>26</v>
       </c>
-      <c r="V8" s="1">
+      <c r="U8" s="85">
         <v>27</v>
       </c>
-      <c r="W8" s="1">
+      <c r="V8" s="85">
         <v>28</v>
       </c>
-      <c r="X8" s="42">
+      <c r="W8" s="87">
         <v>29</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="X8" s="85">
         <v>30</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Y8" s="88">
         <v>31</v>
       </c>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="37" t="s">
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="AF8" s="35"/>
+      <c r="AF8" s="34"/>
       <c r="AX8" s="1">
         <v>1</v>
       </c>
@@ -1831,41 +2462,40 @@
       </c>
     </row>
     <row r="9" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A9" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="37" t="s">
+      <c r="A9" s="127" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="76"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="AF9" s="35"/>
+      <c r="AF9" s="34"/>
       <c r="AX9" s="1"/>
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
@@ -1899,37 +2529,36 @@
       <c r="CB9" s="1"/>
     </row>
     <row r="10" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A10" s="75"/>
-      <c r="B10" s="72" t="s">
+      <c r="A10" s="128"/>
+      <c r="B10" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AB10" s="102"/>
+      <c r="Y10" s="77"/>
+      <c r="AB10" s="66"/>
       <c r="AC10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
@@ -1964,34 +2593,33 @@
       <c r="CB10" s="1"/>
     </row>
     <row r="11" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A11" s="75"/>
-      <c r="B11" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
+      <c r="A11" s="128"/>
+      <c r="B11" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="77"/>
       <c r="AX11" s="2"/>
       <c r="AY11" s="2"/>
       <c r="AZ11" s="2"/>
@@ -2025,34 +2653,33 @@
       <c r="CB11" s="1"/>
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A12" s="75"/>
-      <c r="B12" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
+      <c r="A12" s="128"/>
+      <c r="B12" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="67"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
+      <c r="Y12" s="77"/>
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
@@ -2085,35 +2712,34 @@
       <c r="CA12" s="1"/>
       <c r="CB12" s="1"/>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A13" s="76"/>
-      <c r="B13" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+    <row r="13" spans="1:80" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="129"/>
+      <c r="B13" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="83"/>
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
@@ -2147,36 +2773,35 @@
       <c r="CB13" s="1"/>
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A14" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
+      <c r="A14" s="130" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="117" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="76"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
@@ -2210,34 +2835,33 @@
       <c r="CB14" s="1"/>
     </row>
     <row r="15" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A15" s="75"/>
-      <c r="B15" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
+      <c r="A15" s="128"/>
+      <c r="B15" s="105" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
+      <c r="Y15" s="77"/>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
@@ -2253,335 +2877,332 @@
       <c r="BJ15" s="1"/>
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A16" s="75"/>
-      <c r="B16" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AX16" s="24"/>
-      <c r="AY16" s="24"/>
-      <c r="AZ16" s="24"/>
-      <c r="BA16" s="24"/>
-      <c r="BB16" s="24"/>
-      <c r="BC16" s="24"/>
-      <c r="BD16" s="24"/>
-      <c r="BE16" s="24"/>
-      <c r="BF16" s="24"/>
-      <c r="BG16" s="24"/>
-      <c r="BH16" s="24"/>
-      <c r="BI16" s="24"/>
-      <c r="BJ16" s="24"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="78"/>
+      <c r="AX16" s="23"/>
+      <c r="AY16" s="23"/>
+      <c r="AZ16" s="23"/>
+      <c r="BA16" s="23"/>
+      <c r="BB16" s="23"/>
+      <c r="BC16" s="23"/>
+      <c r="BD16" s="23"/>
+      <c r="BE16" s="23"/>
+      <c r="BF16" s="23"/>
+      <c r="BG16" s="23"/>
+      <c r="BH16" s="23"/>
+      <c r="BI16" s="23"/>
+      <c r="BJ16" s="23"/>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A17" s="75"/>
-      <c r="B17" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AX17" s="24"/>
-      <c r="AY17" s="24"/>
-      <c r="AZ17" s="24"/>
-      <c r="BA17" s="24"/>
-      <c r="BB17" s="24"/>
-      <c r="BC17" s="24"/>
-      <c r="BD17" s="24"/>
-      <c r="BE17" s="24"/>
-      <c r="BF17" s="24"/>
-      <c r="BG17" s="24"/>
-      <c r="BH17" s="24"/>
-      <c r="BI17" s="24"/>
-      <c r="BJ17" s="24"/>
+      <c r="A17" s="128"/>
+      <c r="B17" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="78"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="70"/>
+      <c r="AX17" s="23"/>
+      <c r="AY17" s="23"/>
+      <c r="AZ17" s="23"/>
+      <c r="BA17" s="23"/>
+      <c r="BB17" s="23"/>
+      <c r="BC17" s="23"/>
+      <c r="BD17" s="23"/>
+      <c r="BE17" s="23"/>
+      <c r="BF17" s="23"/>
+      <c r="BG17" s="23"/>
+      <c r="BH17" s="23"/>
+      <c r="BI17" s="23"/>
+      <c r="BJ17" s="23"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A18" s="75"/>
-      <c r="B18" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AX18" s="24"/>
-      <c r="AY18" s="24"/>
-      <c r="AZ18" s="24"/>
-      <c r="BA18" s="24"/>
-      <c r="BB18" s="24"/>
-      <c r="BC18" s="24"/>
-      <c r="BD18" s="24"/>
-      <c r="BE18" s="24"/>
-      <c r="BF18" s="24"/>
-      <c r="BG18" s="24"/>
-      <c r="BH18" s="24"/>
-      <c r="BI18" s="24"/>
-      <c r="BJ18" s="24"/>
+      <c r="A18" s="128"/>
+      <c r="B18" s="109" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="78"/>
+      <c r="AX18" s="23"/>
+      <c r="AY18" s="23"/>
+      <c r="AZ18" s="23"/>
+      <c r="BA18" s="23"/>
+      <c r="BB18" s="23"/>
+      <c r="BC18" s="23"/>
+      <c r="BD18" s="23"/>
+      <c r="BE18" s="23"/>
+      <c r="BF18" s="23"/>
+      <c r="BG18" s="23"/>
+      <c r="BH18" s="23"/>
+      <c r="BI18" s="23"/>
+      <c r="BJ18" s="23"/>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A19" s="75"/>
-      <c r="B19" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AX19" s="24"/>
-      <c r="AY19" s="24"/>
-      <c r="AZ19" s="24"/>
-      <c r="BA19" s="24"/>
-      <c r="BB19" s="24"/>
-      <c r="BC19" s="24"/>
-      <c r="BD19" s="24"/>
-      <c r="BE19" s="24"/>
-      <c r="BF19" s="24"/>
-      <c r="BG19" s="24"/>
-      <c r="BH19" s="24"/>
-      <c r="BI19" s="24"/>
-      <c r="BJ19" s="24"/>
+      <c r="A19" s="128"/>
+      <c r="B19" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="78"/>
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="23"/>
+      <c r="AZ19" s="23"/>
+      <c r="BA19" s="23"/>
+      <c r="BB19" s="23"/>
+      <c r="BC19" s="23"/>
+      <c r="BD19" s="23"/>
+      <c r="BE19" s="23"/>
+      <c r="BF19" s="23"/>
+      <c r="BG19" s="23"/>
+      <c r="BH19" s="23"/>
+      <c r="BI19" s="23"/>
+      <c r="BJ19" s="23"/>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A20" s="75"/>
-      <c r="B20" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AX20" s="24"/>
-      <c r="AY20" s="24"/>
-      <c r="AZ20" s="24"/>
-      <c r="BA20" s="24"/>
-      <c r="BB20" s="24"/>
-      <c r="BC20" s="24"/>
-      <c r="BD20" s="24"/>
-      <c r="BE20" s="24"/>
-      <c r="BF20" s="24"/>
-      <c r="BG20" s="24"/>
-      <c r="BH20" s="24"/>
-      <c r="BI20" s="24"/>
-      <c r="BJ20" s="24"/>
+      <c r="A20" s="128"/>
+      <c r="B20" s="109" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="78"/>
+      <c r="AX20" s="23"/>
+      <c r="AY20" s="23"/>
+      <c r="AZ20" s="23"/>
+      <c r="BA20" s="23"/>
+      <c r="BB20" s="23"/>
+      <c r="BC20" s="23"/>
+      <c r="BD20" s="23"/>
+      <c r="BE20" s="23"/>
+      <c r="BF20" s="23"/>
+      <c r="BG20" s="23"/>
+      <c r="BH20" s="23"/>
+      <c r="BI20" s="23"/>
+      <c r="BJ20" s="23"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A21" s="75"/>
-      <c r="B21" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AX21" s="24"/>
-      <c r="AY21" s="24"/>
-      <c r="AZ21" s="24"/>
-      <c r="BA21" s="24"/>
-      <c r="BB21" s="24"/>
-      <c r="BC21" s="24"/>
-      <c r="BD21" s="24"/>
-      <c r="BE21" s="24"/>
-      <c r="BF21" s="24"/>
-      <c r="BG21" s="24"/>
-      <c r="BH21" s="24"/>
-      <c r="BI21" s="24"/>
-      <c r="BJ21" s="24"/>
+      <c r="A21" s="128"/>
+      <c r="B21" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="78"/>
+      <c r="AX21" s="23"/>
+      <c r="AY21" s="23"/>
+      <c r="AZ21" s="23"/>
+      <c r="BA21" s="23"/>
+      <c r="BB21" s="23"/>
+      <c r="BC21" s="23"/>
+      <c r="BD21" s="23"/>
+      <c r="BE21" s="23"/>
+      <c r="BF21" s="23"/>
+      <c r="BG21" s="23"/>
+      <c r="BH21" s="23"/>
+      <c r="BI21" s="23"/>
+      <c r="BJ21" s="23"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A22" s="75"/>
-      <c r="B22" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AX22" s="24"/>
-      <c r="AY22" s="24"/>
-      <c r="AZ22" s="24"/>
-      <c r="BA22" s="24"/>
-      <c r="BB22" s="24"/>
-      <c r="BC22" s="24"/>
-      <c r="BD22" s="24"/>
-      <c r="BE22" s="24"/>
-      <c r="BF22" s="24"/>
-      <c r="BG22" s="24"/>
-      <c r="BH22" s="24"/>
-      <c r="BI22" s="24"/>
-      <c r="BJ22" s="24"/>
-    </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A23" s="76"/>
-      <c r="B23" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
+      <c r="A22" s="128"/>
+      <c r="B22" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="78"/>
+      <c r="AX22" s="23"/>
+      <c r="AY22" s="23"/>
+      <c r="AZ22" s="23"/>
+      <c r="BA22" s="23"/>
+      <c r="BB22" s="23"/>
+      <c r="BC22" s="23"/>
+      <c r="BD22" s="23"/>
+      <c r="BE22" s="23"/>
+      <c r="BF22" s="23"/>
+      <c r="BG22" s="23"/>
+      <c r="BH22" s="23"/>
+      <c r="BI22" s="23"/>
+      <c r="BJ22" s="23"/>
+    </row>
+    <row r="23" spans="1:62" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="128"/>
+      <c r="B23" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="95"/>
       <c r="AX23" s="1"/>
       <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
@@ -2597,36 +3218,35 @@
       <c r="BJ23" s="1"/>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A24" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
+      <c r="A24" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="121" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="76"/>
       <c r="AX24" s="1"/>
       <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
@@ -2642,34 +3262,33 @@
       <c r="BJ24" s="1"/>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A25" s="75"/>
-      <c r="B25" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="70"/>
+      <c r="A25" s="132"/>
+      <c r="B25" s="106" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="69"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="99"/>
       <c r="AX25" s="1"/>
       <c r="AY25" s="1"/>
       <c r="AZ25" s="1"/>
@@ -2685,16 +3304,16 @@
       <c r="BJ25" s="1"/>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A26" s="75"/>
-      <c r="B26" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="70"/>
+      <c r="A26" s="132"/>
+      <c r="B26" s="106" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2706,13 +3325,12 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="99"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
@@ -2728,22 +3346,22 @@
       <c r="BJ26" s="1"/>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A27" s="75"/>
-      <c r="B27" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="A27" s="132"/>
+      <c r="B27" s="106" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -2753,9 +3371,8 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="99"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
@@ -2771,34 +3388,33 @@
       <c r="BJ27" s="1"/>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A28" s="75"/>
-      <c r="B28" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="70"/>
+      <c r="A28" s="132"/>
+      <c r="B28" s="106" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="99"/>
       <c r="AX28" s="1"/>
       <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
@@ -2814,16 +3430,16 @@
       <c r="BJ28" s="1"/>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A29" s="76"/>
-      <c r="B29" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="70"/>
+      <c r="A29" s="132"/>
+      <c r="B29" s="106" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2834,14 +3450,13 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="99"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
@@ -2857,24 +3472,22 @@
       <c r="BJ29" s="1"/>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A30" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="A30" s="132"/>
+      <c r="B30" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -2884,9 +3497,8 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="99"/>
       <c r="AX30" s="1"/>
       <c r="AY30" s="1"/>
       <c r="AZ30" s="1"/>
@@ -2902,34 +3514,33 @@
       <c r="BJ30" s="1"/>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A31" s="75"/>
-      <c r="B31" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="70"/>
+      <c r="A31" s="132"/>
+      <c r="B31" s="106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="99"/>
       <c r="AX31" s="1"/>
       <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
@@ -2944,35 +3555,34 @@
       <c r="BI31" s="1"/>
       <c r="BJ31" s="1"/>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A32" s="75"/>
-      <c r="B32" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
+    <row r="32" spans="1:62" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="133"/>
+      <c r="B32" s="123" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="79"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="98"/>
+      <c r="T32" s="98"/>
+      <c r="U32" s="98"/>
+      <c r="V32" s="98"/>
+      <c r="W32" s="98"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="100"/>
       <c r="AX32" s="1"/>
       <c r="AY32" s="1"/>
       <c r="AZ32" s="1"/>
@@ -2988,32 +3598,35 @@
       <c r="BJ32" s="1"/>
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A33" s="75"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
+      <c r="A33" s="128" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="137" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="138"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="73"/>
+      <c r="W33" s="73"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="97"/>
       <c r="AX33" s="1"/>
       <c r="AY33" s="1"/>
       <c r="AZ33" s="1"/>
@@ -3029,21 +3642,23 @@
       <c r="BJ33" s="1"/>
     </row>
     <row r="34" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A34" s="76"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="70"/>
+      <c r="A34" s="128"/>
+      <c r="B34" s="109" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="105"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="101"/>
+      <c r="O34" s="101"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -3053,8 +3668,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
+      <c r="Y34" s="77"/>
       <c r="AX34" s="1"/>
       <c r="AY34" s="1"/>
       <c r="AZ34" s="1"/>
@@ -3070,36 +3684,33 @@
       <c r="BJ34" s="1"/>
     </row>
     <row r="35" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A35" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
+      <c r="A35" s="128"/>
+      <c r="B35" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="105"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
+      <c r="O35" s="101"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="101"/>
+      <c r="R35" s="101"/>
+      <c r="S35" s="101"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
+      <c r="Y35" s="77"/>
       <c r="AX35" s="1"/>
       <c r="AY35" s="1"/>
       <c r="AZ35" s="1"/>
@@ -3114,35 +3725,34 @@
       <c r="BI35" s="1"/>
       <c r="BJ35" s="1"/>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A36" s="75"/>
-      <c r="B36" s="70" t="s">
+    <row r="36" spans="1:62" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="128"/>
+      <c r="B36" s="113" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="104"/>
+      <c r="T36" s="104"/>
+      <c r="U36" s="104"/>
+      <c r="V36" s="104"/>
+      <c r="W36" s="104"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="81"/>
       <c r="AX36" s="1"/>
       <c r="AY36" s="1"/>
       <c r="AZ36" s="1"/>
@@ -3158,34 +3768,35 @@
       <c r="BJ36" s="1"/>
     </row>
     <row r="37" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A37" s="75"/>
-      <c r="B37" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
+      <c r="A37" s="127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="92"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="76"/>
       <c r="AX37" s="1"/>
       <c r="AY37" s="1"/>
       <c r="AZ37" s="1"/>
@@ -3200,35 +3811,34 @@
       <c r="BI37" s="1"/>
       <c r="BJ37" s="1"/>
     </row>
-    <row r="38" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="76"/>
-      <c r="B38" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="70"/>
+    <row r="38" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A38" s="128"/>
+      <c r="B38" s="109" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="105"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
+      <c r="Y38" s="77"/>
       <c r="AX38" s="1"/>
       <c r="AY38" s="1"/>
       <c r="AZ38" s="1"/>
@@ -3243,37 +3853,34 @@
       <c r="BI38" s="1"/>
       <c r="BJ38" s="1"/>
     </row>
-    <row r="39" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="70"/>
+    <row r="39" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A39" s="128"/>
+      <c r="B39" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="105"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
+      <c r="S39" s="101"/>
+      <c r="T39" s="101"/>
+      <c r="U39" s="101"/>
+      <c r="V39" s="101"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
+      <c r="Y39" s="77"/>
       <c r="AX39" s="1"/>
       <c r="AY39" s="1"/>
       <c r="AZ39" s="1"/>
@@ -3288,35 +3895,34 @@
       <c r="BI39" s="1"/>
       <c r="BJ39" s="1"/>
     </row>
-    <row r="40" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="75"/>
-      <c r="B40" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
+    <row r="40" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A40" s="128"/>
+      <c r="B40" s="105" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="93"/>
+      <c r="R40" s="93"/>
+      <c r="S40" s="93"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="81"/>
       <c r="AX40" s="1"/>
       <c r="AY40" s="1"/>
       <c r="AZ40" s="1"/>
@@ -3331,33 +3937,34 @@
       <c r="BI40" s="1"/>
       <c r="BJ40" s="1"/>
     </row>
-    <row r="41" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="75"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
+    <row r="41" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A41" s="128"/>
+      <c r="B41" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="93"/>
+      <c r="T41" s="93"/>
+      <c r="U41" s="93"/>
+      <c r="V41" s="93"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="81"/>
       <c r="AX41" s="1"/>
       <c r="AY41" s="1"/>
       <c r="AZ41" s="1"/>
@@ -3372,33 +3979,34 @@
       <c r="BI41" s="1"/>
       <c r="BJ41" s="1"/>
     </row>
-    <row r="42" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="76"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
+    <row r="42" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A42" s="128"/>
+      <c r="B42" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="93"/>
+      <c r="W42" s="93"/>
+      <c r="X42" s="93"/>
+      <c r="Y42" s="93"/>
       <c r="AX42" s="1"/>
       <c r="AY42" s="1"/>
       <c r="AZ42" s="1"/>
@@ -3413,546 +4021,551 @@
       <c r="BI42" s="1"/>
       <c r="BJ42" s="1"/>
     </row>
-    <row r="43" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="36"/>
-      <c r="U43" s="36"/>
-      <c r="V43" s="36"/>
-      <c r="W43" s="36"/>
-      <c r="X43" s="36"/>
-      <c r="Y43" s="36"/>
-      <c r="Z43" s="36"/>
-      <c r="AA43" s="36"/>
-      <c r="AB43" s="36"/>
-      <c r="AC43" s="36"/>
-      <c r="AD43" s="36"/>
-      <c r="AE43" s="36"/>
-      <c r="AF43" s="36"/>
-      <c r="AG43" s="36"/>
-      <c r="AH43" s="36"/>
-      <c r="AI43" s="36"/>
-      <c r="AJ43" s="36"/>
-      <c r="AK43" s="36"/>
-      <c r="AL43" s="36"/>
-      <c r="AM43" s="36"/>
-    </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="36"/>
-      <c r="Y44" s="36"/>
-      <c r="Z44" s="36"/>
-      <c r="AA44" s="36"/>
-      <c r="AB44" s="36"/>
-      <c r="AC44" s="36"/>
-      <c r="AD44" s="36"/>
-      <c r="AE44" s="36"/>
-      <c r="AF44" s="36"/>
-      <c r="AG44" s="36"/>
-      <c r="AH44" s="36"/>
-      <c r="AI44" s="36"/>
-      <c r="AJ44" s="36"/>
-      <c r="AK44" s="36"/>
-      <c r="AL44" s="36"/>
-      <c r="AM44" s="36"/>
-      <c r="AX44" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY44" s="69"/>
-      <c r="AZ44" s="69"/>
-      <c r="BA44" s="69"/>
-      <c r="BB44" s="69"/>
-      <c r="BC44" s="69"/>
-      <c r="BD44" s="70"/>
-    </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="36"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="36"/>
-      <c r="W45" s="36"/>
-      <c r="X45" s="36"/>
-      <c r="Y45" s="36"/>
-      <c r="Z45" s="36"/>
-      <c r="AA45" s="36"/>
-      <c r="AB45" s="36"/>
-      <c r="AC45" s="36"/>
-      <c r="AD45" s="36"/>
-      <c r="AE45" s="36"/>
-      <c r="AF45" s="36"/>
-      <c r="AG45" s="36"/>
-      <c r="AH45" s="36"/>
-      <c r="AI45" s="36"/>
-      <c r="AJ45" s="36"/>
-      <c r="AK45" s="36"/>
-      <c r="AL45" s="36"/>
-      <c r="AM45" s="36"/>
-      <c r="AX45" s="68" t="s">
+    <row r="43" spans="1:62" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="129"/>
+      <c r="B43" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
+      <c r="O43" s="79"/>
+      <c r="P43" s="79"/>
+      <c r="Q43" s="79"/>
+      <c r="R43" s="79"/>
+      <c r="S43" s="79"/>
+      <c r="T43" s="79"/>
+      <c r="U43" s="79"/>
+      <c r="V43" s="79"/>
+      <c r="W43" s="79"/>
+      <c r="X43" s="79"/>
+      <c r="Y43" s="83"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="1"/>
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="1"/>
+      <c r="BH43" s="1"/>
+      <c r="BI43" s="1"/>
+      <c r="BJ43" s="1"/>
+    </row>
+    <row r="44" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="134" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="135"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="135"/>
+      <c r="F44" s="135"/>
+      <c r="G44" s="135"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="75"/>
+      <c r="O44" s="75"/>
+      <c r="P44" s="75"/>
+      <c r="Q44" s="75"/>
+      <c r="R44" s="75"/>
+      <c r="S44" s="75"/>
+      <c r="T44" s="75"/>
+      <c r="U44" s="74"/>
+      <c r="V44" s="74"/>
+      <c r="W44" s="74"/>
+      <c r="X44" s="74"/>
+      <c r="Y44" s="76"/>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1"/>
+      <c r="AZ44" s="1"/>
+      <c r="BA44" s="1"/>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="1"/>
+      <c r="BE44" s="1"/>
+      <c r="BF44" s="1"/>
+      <c r="BG44" s="1"/>
+      <c r="BH44" s="1"/>
+      <c r="BI44" s="1"/>
+      <c r="BJ44" s="1"/>
+    </row>
+    <row r="45" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="128"/>
+      <c r="B45" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="70"/>
+      <c r="V45" s="70"/>
+      <c r="W45" s="70"/>
+      <c r="X45" s="70"/>
+      <c r="Y45" s="90"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
+      <c r="BE45" s="1"/>
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="1"/>
+      <c r="BH45" s="1"/>
+      <c r="BI45" s="1"/>
+      <c r="BJ45" s="1"/>
+    </row>
+    <row r="46" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="128"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="77"/>
+      <c r="AX46" s="1"/>
+      <c r="AY46" s="1"/>
+      <c r="AZ46" s="1"/>
+      <c r="BA46" s="1"/>
+      <c r="BB46" s="1"/>
+      <c r="BC46" s="1"/>
+      <c r="BD46" s="1"/>
+      <c r="BE46" s="1"/>
+      <c r="BF46" s="1"/>
+      <c r="BG46" s="1"/>
+      <c r="BH46" s="1"/>
+      <c r="BI46" s="1"/>
+      <c r="BJ46" s="1"/>
+    </row>
+    <row r="47" spans="1:62" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="129"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="122"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="79"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="79"/>
+      <c r="O47" s="79"/>
+      <c r="P47" s="79"/>
+      <c r="Q47" s="79"/>
+      <c r="R47" s="79"/>
+      <c r="S47" s="79"/>
+      <c r="T47" s="79"/>
+      <c r="U47" s="79"/>
+      <c r="V47" s="79"/>
+      <c r="W47" s="79"/>
+      <c r="X47" s="79"/>
+      <c r="Y47" s="83"/>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="1"/>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="1"/>
+      <c r="BB47" s="1"/>
+      <c r="BC47" s="1"/>
+      <c r="BD47" s="1"/>
+      <c r="BE47" s="1"/>
+      <c r="BF47" s="1"/>
+      <c r="BG47" s="1"/>
+      <c r="BH47" s="1"/>
+      <c r="BI47" s="1"/>
+      <c r="BJ47" s="1"/>
+    </row>
+    <row r="48" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="35"/>
+      <c r="AE48" s="35"/>
+      <c r="AF48" s="35"/>
+      <c r="AG48" s="35"/>
+      <c r="AH48" s="35"/>
+      <c r="AI48" s="35"/>
+      <c r="AJ48" s="35"/>
+      <c r="AK48" s="35"/>
+      <c r="AL48" s="35"/>
+      <c r="AM48" s="35"/>
+    </row>
+    <row r="49" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="35"/>
+      <c r="AD49" s="35"/>
+      <c r="AE49" s="35"/>
+      <c r="AF49" s="35"/>
+      <c r="AG49" s="35"/>
+      <c r="AH49" s="35"/>
+      <c r="AI49" s="35"/>
+      <c r="AJ49" s="35"/>
+      <c r="AK49" s="35"/>
+      <c r="AL49" s="35"/>
+      <c r="AM49" s="35"/>
+      <c r="AX49" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY49" s="110"/>
+      <c r="AZ49" s="110"/>
+      <c r="BA49" s="110"/>
+      <c r="BB49" s="110"/>
+      <c r="BC49" s="110"/>
+      <c r="BD49" s="105"/>
+    </row>
+    <row r="50" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="35"/>
+      <c r="AB50" s="35"/>
+      <c r="AC50" s="35"/>
+      <c r="AD50" s="35"/>
+      <c r="AE50" s="35"/>
+      <c r="AF50" s="35"/>
+      <c r="AG50" s="35"/>
+      <c r="AH50" s="35"/>
+      <c r="AI50" s="35"/>
+      <c r="AJ50" s="35"/>
+      <c r="AK50" s="35"/>
+      <c r="AL50" s="35"/>
+      <c r="AM50" s="35"/>
+      <c r="AX50" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="AY45" s="69"/>
-      <c r="AZ45" s="69"/>
-      <c r="BA45" s="69"/>
-      <c r="BB45" s="69"/>
-      <c r="BC45" s="69"/>
-      <c r="BD45" s="70"/>
-    </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36"/>
-      <c r="W46" s="36"/>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="36"/>
-      <c r="Z46" s="36"/>
-      <c r="AA46" s="36"/>
-      <c r="AB46" s="36"/>
-      <c r="AC46" s="36"/>
-      <c r="AD46" s="36"/>
-      <c r="AE46" s="36"/>
-      <c r="AF46" s="36"/>
-      <c r="AG46" s="36"/>
-      <c r="AH46" s="36"/>
-      <c r="AI46" s="36"/>
-      <c r="AJ46" s="36"/>
-      <c r="AK46" s="36"/>
-      <c r="AL46" s="36"/>
-      <c r="AM46" s="36"/>
-    </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="36"/>
-      <c r="AB47" s="36"/>
-      <c r="AC47" s="36"/>
-      <c r="AD47" s="36"/>
-      <c r="AE47" s="36"/>
-      <c r="AF47" s="36"/>
-      <c r="AG47" s="36"/>
-      <c r="AH47" s="36"/>
-      <c r="AI47" s="36"/>
-      <c r="AJ47" s="36"/>
-      <c r="AK47" s="36"/>
-      <c r="AL47" s="36"/>
-      <c r="AM47" s="36"/>
-    </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="I49" t="s">
+      <c r="AY50" s="110"/>
+      <c r="AZ50" s="110"/>
+      <c r="BA50" s="110"/>
+      <c r="BB50" s="110"/>
+      <c r="BC50" s="110"/>
+      <c r="BD50" s="105"/>
+    </row>
+    <row r="51" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="35"/>
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
+      <c r="AB51" s="35"/>
+      <c r="AC51" s="35"/>
+      <c r="AD51" s="35"/>
+      <c r="AE51" s="35"/>
+      <c r="AF51" s="35"/>
+      <c r="AG51" s="35"/>
+      <c r="AH51" s="35"/>
+      <c r="AI51" s="35"/>
+      <c r="AJ51" s="35"/>
+      <c r="AK51" s="35"/>
+      <c r="AL51" s="35"/>
+      <c r="AM51" s="35"/>
+    </row>
+    <row r="52" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="35"/>
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
+      <c r="AB52" s="35"/>
+      <c r="AC52" s="35"/>
+      <c r="AD52" s="35"/>
+      <c r="AE52" s="35"/>
+      <c r="AF52" s="35"/>
+      <c r="AG52" s="35"/>
+      <c r="AH52" s="35"/>
+      <c r="AI52" s="35"/>
+      <c r="AJ52" s="35"/>
+      <c r="AK52" s="35"/>
+      <c r="AL52" s="35"/>
+      <c r="AM52" s="35"/>
+    </row>
+    <row r="53" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="J53" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="I54" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A50" s="39" t="s">
+    <row r="55" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A55" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="77" t="s">
+      <c r="B55" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="1">
+      <c r="C55" s="124"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="124"/>
+      <c r="F55" s="124"/>
+      <c r="G55" s="124"/>
+      <c r="H55" s="124"/>
+      <c r="I55" s="1">
         <v>1</v>
       </c>
-      <c r="J50" s="41">
+      <c r="J55" s="40">
         <v>2</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K55" s="1">
         <v>3</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L55" s="1">
         <v>4</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M55" s="1">
         <v>5</v>
       </c>
-      <c r="N50" s="1">
+      <c r="N55" s="1">
         <v>6</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O55" s="1">
         <v>7</v>
       </c>
-      <c r="P50" s="1">
+      <c r="P55" s="1">
         <v>8</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q55" s="1">
         <v>9</v>
       </c>
-      <c r="R50" s="1">
+      <c r="R55" s="1">
         <v>10</v>
       </c>
-      <c r="S50" s="1">
+      <c r="S55" s="1">
         <v>11</v>
       </c>
-      <c r="T50" s="1">
+      <c r="T55" s="1">
         <v>12</v>
       </c>
-      <c r="U50" s="1">
+      <c r="U55" s="1">
         <v>13</v>
       </c>
-      <c r="V50" s="1">
+      <c r="V55" s="1">
         <v>14</v>
       </c>
-      <c r="W50" s="1">
+      <c r="W55" s="1">
         <v>15</v>
       </c>
-      <c r="X50" s="1">
+      <c r="X55" s="1">
         <v>16</v>
       </c>
-      <c r="Y50" s="1">
+      <c r="Y55" s="1">
         <v>17</v>
       </c>
-      <c r="Z50" s="1">
+      <c r="Z55" s="1">
         <v>18</v>
       </c>
-      <c r="AA50" s="1">
+      <c r="AA55" s="1">
         <v>19</v>
       </c>
-      <c r="AB50" s="1">
+      <c r="AB55" s="1">
         <v>20</v>
       </c>
-      <c r="AC50" s="1">
+      <c r="AC55" s="1">
         <v>21</v>
       </c>
-      <c r="AD50" s="1">
+      <c r="AD55" s="1">
         <v>22</v>
       </c>
-      <c r="AE50" s="1">
+      <c r="AE55" s="1">
         <v>23</v>
       </c>
-      <c r="AF50" s="1">
+      <c r="AF55" s="1">
         <v>24</v>
       </c>
-      <c r="AG50" s="1">
+      <c r="AG55" s="40">
         <v>25</v>
       </c>
-      <c r="AH50" s="1">
+      <c r="AH55" s="1">
         <v>26</v>
       </c>
-      <c r="AI50" s="1">
+      <c r="AI55" s="1">
         <v>27</v>
       </c>
-      <c r="AJ50" s="1">
+      <c r="AJ55" s="1">
         <v>28</v>
       </c>
-      <c r="AK50" s="1">
+      <c r="AK55" s="1">
         <v>29</v>
       </c>
-      <c r="AL50" s="1">
+      <c r="AL55" s="1">
         <v>30</v>
       </c>
-      <c r="AM50" s="1">
+      <c r="AM55" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A51" s="71"/>
-      <c r="B51" s="71" t="s">
+    <row r="56" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A56" s="125" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
-      <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
-      <c r="AD51" s="1"/>
-      <c r="AE51" s="1"/>
-      <c r="AF51" s="1"/>
-      <c r="AG51" s="1"/>
-      <c r="AH51" s="1"/>
-      <c r="AI51" s="1"/>
-      <c r="AJ51" s="1"/>
-      <c r="AK51" s="1"/>
-      <c r="AL51" s="1"/>
-      <c r="AM51" s="1"/>
-    </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A52" s="71"/>
-      <c r="B52" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
-      <c r="AG52" s="1"/>
-      <c r="AH52" s="1"/>
-      <c r="AI52" s="1"/>
-      <c r="AJ52" s="1"/>
-      <c r="AK52" s="1"/>
-      <c r="AL52" s="1"/>
-      <c r="AM52" s="1"/>
-    </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A53" s="71"/>
-      <c r="B53" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="71"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
-      <c r="AB53" s="1"/>
-      <c r="AC53" s="1"/>
-      <c r="AD53" s="1"/>
-      <c r="AE53" s="1"/>
-      <c r="AF53" s="1"/>
-      <c r="AG53" s="1"/>
-      <c r="AH53" s="1"/>
-      <c r="AI53" s="1"/>
-      <c r="AJ53" s="1"/>
-      <c r="AK53" s="1"/>
-      <c r="AL53" s="1"/>
-      <c r="AM53" s="1"/>
-    </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A54" s="71"/>
-      <c r="B54" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
-      <c r="AF54" s="1"/>
-      <c r="AG54" s="1"/>
-      <c r="AH54" s="1"/>
-      <c r="AI54" s="1"/>
-      <c r="AJ54" s="1"/>
-      <c r="AK54" s="1"/>
-      <c r="AL54" s="1"/>
-      <c r="AM54" s="1"/>
-    </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A55" s="71"/>
-      <c r="B55" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="44"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-      <c r="AA55" s="1"/>
-      <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
-      <c r="AD55" s="1"/>
-      <c r="AE55" s="1"/>
-      <c r="AF55" s="1"/>
-      <c r="AG55" s="1"/>
-      <c r="AH55" s="1"/>
-      <c r="AI55" s="1"/>
-      <c r="AJ55" s="1"/>
-      <c r="AK55" s="1"/>
-      <c r="AL55" s="1"/>
-      <c r="AM55" s="1"/>
-    </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A56" s="71"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -3983,133 +4596,197 @@
       <c r="AL56" s="1"/>
       <c r="AM56" s="1"/>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="I59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A60" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" s="77"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="1">
-        <v>1</v>
-      </c>
-      <c r="J60" s="1">
-        <v>2</v>
-      </c>
-      <c r="K60" s="1">
-        <v>3</v>
-      </c>
-      <c r="L60" s="1">
-        <v>4</v>
-      </c>
-      <c r="M60" s="1">
-        <v>5</v>
-      </c>
-      <c r="N60" s="1">
-        <v>6</v>
-      </c>
-      <c r="O60" s="1">
-        <v>7</v>
-      </c>
-      <c r="P60" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q60" s="1">
-        <v>9</v>
-      </c>
-      <c r="R60" s="1">
-        <v>10</v>
-      </c>
-      <c r="S60" s="1">
-        <v>11</v>
-      </c>
-      <c r="T60" s="1">
-        <v>12</v>
-      </c>
-      <c r="U60" s="1">
-        <v>13</v>
-      </c>
-      <c r="V60" s="1">
-        <v>14</v>
-      </c>
-      <c r="W60" s="1">
-        <v>15</v>
-      </c>
-      <c r="X60" s="1">
-        <v>16</v>
-      </c>
-      <c r="Y60" s="1">
-        <v>17</v>
-      </c>
-      <c r="Z60" s="1">
-        <v>18</v>
-      </c>
-      <c r="AA60" s="1">
-        <v>19</v>
-      </c>
-      <c r="AB60" s="1">
-        <v>20</v>
-      </c>
-      <c r="AC60" s="1">
-        <v>21</v>
-      </c>
-      <c r="AD60" s="1">
-        <v>22</v>
-      </c>
-      <c r="AE60" s="1">
-        <v>23</v>
-      </c>
-      <c r="AF60" s="1">
-        <v>24</v>
-      </c>
-      <c r="AG60" s="1">
-        <v>25</v>
-      </c>
-      <c r="AH60" s="1">
-        <v>26</v>
-      </c>
-      <c r="AI60" s="1">
-        <v>27</v>
-      </c>
-      <c r="AJ60" s="1">
-        <v>28</v>
-      </c>
-      <c r="AK60" s="1">
-        <v>29</v>
-      </c>
-      <c r="AL60" s="1">
-        <v>30</v>
-      </c>
-      <c r="AM60" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A61" s="74"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="70"/>
+    <row r="57" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A57" s="108"/>
+      <c r="B57" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="1"/>
+      <c r="AM57" s="1"/>
+    </row>
+    <row r="58" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A58" s="126"/>
+      <c r="B58" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="106"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="39"/>
+      <c r="V58" s="39"/>
+      <c r="W58" s="39"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="1"/>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="1"/>
+      <c r="AL58" s="1"/>
+      <c r="AM58" s="1"/>
+    </row>
+    <row r="59" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A59" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="106" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="106"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="106"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="106"/>
+      <c r="I59" s="101"/>
+      <c r="J59" s="101"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="1"/>
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
+      <c r="AM59" s="1"/>
+    </row>
+    <row r="60" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A60" s="108"/>
+      <c r="B60" s="106" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="106"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="106"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
+      <c r="AM60" s="1"/>
+    </row>
+    <row r="61" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A61" s="108"/>
+      <c r="B61" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="106"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="106"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
@@ -4136,17 +4813,19 @@
       <c r="AL61" s="1"/>
       <c r="AM61" s="1"/>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A62" s="75"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+    <row r="62" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A62" s="108"/>
+      <c r="B62" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="106"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="106"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="71"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -4177,18 +4856,20 @@
       <c r="AL62" s="1"/>
       <c r="AM62" s="1"/>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A63" s="75"/>
-      <c r="B63" s="68"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="70"/>
+    <row r="63" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A63" s="108"/>
+      <c r="B63" s="106" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="106"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="106"/>
+      <c r="F63" s="106"/>
+      <c r="G63" s="106"/>
+      <c r="H63" s="106"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="71"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -4218,19 +4899,21 @@
       <c r="AL63" s="1"/>
       <c r="AM63" s="1"/>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A64" s="75"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="70"/>
+    <row r="64" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A64" s="108"/>
+      <c r="B64" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="106"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="106"/>
+      <c r="F64" s="106"/>
+      <c r="G64" s="106"/>
+      <c r="H64" s="106"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
+      <c r="J64" s="101"/>
+      <c r="K64" s="101"/>
+      <c r="L64" s="101"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -4260,14 +4943,14 @@
       <c r="AM64" s="1"/>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A65" s="75"/>
-      <c r="B65" s="68"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="70"/>
+      <c r="A65" s="108"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="106"/>
+      <c r="F65" s="106"/>
+      <c r="G65" s="106"/>
+      <c r="H65" s="106"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -4301,14 +4984,18 @@
       <c r="AM65" s="1"/>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A66" s="76"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="69"/>
-      <c r="G66" s="69"/>
-      <c r="H66" s="70"/>
+      <c r="A66" s="106" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="106"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="106"/>
+      <c r="F66" s="106"/>
+      <c r="G66" s="106"/>
+      <c r="H66" s="106"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -4341,127 +5028,183 @@
       <c r="AL66" s="1"/>
       <c r="AM66" s="1"/>
     </row>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A67" s="106"/>
+      <c r="B67" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="106"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="106"/>
+      <c r="F67" s="106"/>
+      <c r="G67" s="106"/>
+      <c r="H67" s="106"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+    </row>
+    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A68" s="106"/>
+      <c r="B68" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="106"/>
+      <c r="D68" s="106"/>
+      <c r="E68" s="106"/>
+      <c r="F68" s="106"/>
+      <c r="G68" s="106"/>
+      <c r="H68" s="106"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+    </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="I69" t="s">
-        <v>5</v>
-      </c>
+      <c r="A69" s="106"/>
+      <c r="B69" s="105"/>
+      <c r="C69" s="106"/>
+      <c r="D69" s="106"/>
+      <c r="E69" s="106"/>
+      <c r="F69" s="106"/>
+      <c r="G69" s="106"/>
+      <c r="H69" s="106"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A70" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B70" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" s="77"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="77"/>
-      <c r="G70" s="77"/>
-      <c r="H70" s="77"/>
-      <c r="I70" s="1">
-        <v>1</v>
-      </c>
-      <c r="J70" s="1">
-        <v>2</v>
-      </c>
-      <c r="K70" s="1">
-        <v>3</v>
-      </c>
-      <c r="L70" s="1">
-        <v>4</v>
-      </c>
-      <c r="M70" s="1">
-        <v>5</v>
-      </c>
-      <c r="N70" s="1">
-        <v>6</v>
-      </c>
-      <c r="O70" s="1">
-        <v>7</v>
-      </c>
-      <c r="P70" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>9</v>
-      </c>
-      <c r="R70" s="1">
-        <v>10</v>
-      </c>
-      <c r="S70" s="1">
-        <v>11</v>
-      </c>
-      <c r="T70" s="1">
-        <v>12</v>
-      </c>
-      <c r="U70" s="1">
-        <v>13</v>
-      </c>
-      <c r="V70" s="1">
-        <v>14</v>
-      </c>
-      <c r="W70" s="1">
-        <v>15</v>
-      </c>
-      <c r="X70" s="1">
-        <v>16</v>
-      </c>
-      <c r="Y70" s="1">
-        <v>17</v>
-      </c>
-      <c r="Z70" s="1">
-        <v>18</v>
-      </c>
-      <c r="AA70" s="1">
-        <v>19</v>
-      </c>
-      <c r="AB70" s="1">
-        <v>20</v>
-      </c>
-      <c r="AC70" s="1">
-        <v>21</v>
-      </c>
-      <c r="AD70" s="1">
-        <v>22</v>
-      </c>
-      <c r="AE70" s="1">
-        <v>23</v>
-      </c>
-      <c r="AF70" s="1">
-        <v>24</v>
-      </c>
-      <c r="AG70" s="1">
-        <v>25</v>
-      </c>
-      <c r="AH70" s="1">
-        <v>26</v>
-      </c>
-      <c r="AI70" s="1">
-        <v>27</v>
-      </c>
-      <c r="AJ70" s="1">
-        <v>28</v>
-      </c>
-      <c r="AK70" s="1">
-        <v>29</v>
-      </c>
-      <c r="AL70" s="1">
-        <v>30</v>
-      </c>
-      <c r="AM70" s="1">
-        <v>31</v>
-      </c>
+      <c r="A70" s="106"/>
+      <c r="B70" s="105"/>
+      <c r="C70" s="106"/>
+      <c r="D70" s="106"/>
+      <c r="E70" s="106"/>
+      <c r="F70" s="106"/>
+      <c r="G70" s="106"/>
+      <c r="H70" s="106"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A71" s="71"/>
-      <c r="B71" s="71"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="71"/>
+      <c r="A71" s="106"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="106"/>
+      <c r="D71" s="106"/>
+      <c r="E71" s="106"/>
+      <c r="F71" s="106"/>
+      <c r="G71" s="106"/>
+      <c r="H71" s="106"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -4495,270 +5238,1236 @@
       <c r="AM71" s="1"/>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A72" s="71"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
-      <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
-      <c r="AD72" s="1"/>
-      <c r="AE72" s="1"/>
-      <c r="AF72" s="1"/>
-      <c r="AG72" s="1"/>
-      <c r="AH72" s="1"/>
-      <c r="AI72" s="1"/>
-      <c r="AJ72" s="1"/>
-      <c r="AK72" s="1"/>
-      <c r="AL72" s="1"/>
-      <c r="AM72" s="1"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="35"/>
+      <c r="R72" s="35"/>
+      <c r="S72" s="35"/>
+      <c r="T72" s="35"/>
+      <c r="U72" s="35"/>
+      <c r="V72" s="35"/>
+      <c r="W72" s="35"/>
+      <c r="X72" s="35"/>
+      <c r="Y72" s="35"/>
+      <c r="Z72" s="35"/>
+      <c r="AA72" s="35"/>
+      <c r="AB72" s="35"/>
+      <c r="AC72" s="35"/>
+      <c r="AD72" s="35"/>
+      <c r="AE72" s="35"/>
+      <c r="AF72" s="35"/>
+      <c r="AG72" s="35"/>
+      <c r="AH72" s="35"/>
+      <c r="AI72" s="35"/>
+      <c r="AJ72" s="35"/>
+      <c r="AK72" s="35"/>
+      <c r="AL72" s="35"/>
+      <c r="AM72" s="35"/>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A73" s="71"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
-      <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
-      <c r="Z73" s="1"/>
-      <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
-      <c r="AD73" s="1"/>
-      <c r="AE73" s="1"/>
-      <c r="AF73" s="1"/>
-      <c r="AG73" s="1"/>
-      <c r="AH73" s="1"/>
-      <c r="AI73" s="1"/>
-      <c r="AJ73" s="1"/>
-      <c r="AK73" s="1"/>
-      <c r="AL73" s="1"/>
-      <c r="AM73" s="1"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="35"/>
+      <c r="T73" s="35"/>
+      <c r="U73" s="35"/>
+      <c r="V73" s="35"/>
+      <c r="W73" s="35"/>
+      <c r="X73" s="35"/>
+      <c r="Y73" s="35"/>
+      <c r="Z73" s="35"/>
+      <c r="AA73" s="35"/>
+      <c r="AB73" s="35"/>
+      <c r="AC73" s="35"/>
+      <c r="AD73" s="35"/>
+      <c r="AE73" s="35"/>
+      <c r="AF73" s="35"/>
+      <c r="AG73" s="35"/>
+      <c r="AH73" s="35"/>
+      <c r="AI73" s="35"/>
+      <c r="AJ73" s="35"/>
+      <c r="AK73" s="35"/>
+      <c r="AL73" s="35"/>
+      <c r="AM73" s="35"/>
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A74" s="71"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-      <c r="AA74" s="1"/>
-      <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
-      <c r="AD74" s="1"/>
-      <c r="AE74" s="1"/>
-      <c r="AF74" s="1"/>
-      <c r="AG74" s="1"/>
-      <c r="AH74" s="1"/>
-      <c r="AI74" s="1"/>
-      <c r="AJ74" s="1"/>
-      <c r="AK74" s="1"/>
-      <c r="AL74" s="1"/>
-      <c r="AM74" s="1"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="35"/>
+      <c r="S74" s="35"/>
+      <c r="T74" s="35"/>
+      <c r="U74" s="35"/>
+      <c r="V74" s="35"/>
+      <c r="W74" s="35"/>
+      <c r="X74" s="35"/>
+      <c r="Y74" s="35"/>
+      <c r="Z74" s="35"/>
+      <c r="AA74" s="35"/>
+      <c r="AB74" s="35"/>
+      <c r="AC74" s="35"/>
+      <c r="AD74" s="35"/>
+      <c r="AE74" s="35"/>
+      <c r="AF74" s="35"/>
+      <c r="AG74" s="35"/>
+      <c r="AH74" s="35"/>
+      <c r="AI74" s="35"/>
+      <c r="AJ74" s="35"/>
+      <c r="AK74" s="35"/>
+      <c r="AL74" s="35"/>
+      <c r="AM74" s="35"/>
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A75" s="71"/>
-      <c r="B75" s="71"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
-      <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
-      <c r="W75" s="1"/>
-      <c r="X75" s="1"/>
-      <c r="Y75" s="1"/>
-      <c r="Z75" s="1"/>
-      <c r="AA75" s="1"/>
-      <c r="AB75" s="1"/>
-      <c r="AC75" s="1"/>
-      <c r="AD75" s="1"/>
-      <c r="AE75" s="1"/>
-      <c r="AF75" s="1"/>
-      <c r="AG75" s="1"/>
-      <c r="AH75" s="1"/>
-      <c r="AI75" s="1"/>
-      <c r="AJ75" s="1"/>
-      <c r="AK75" s="1"/>
-      <c r="AL75" s="1"/>
-      <c r="AM75" s="1"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="35"/>
+      <c r="T75" s="35"/>
+      <c r="U75" s="35"/>
+      <c r="V75" s="35"/>
+      <c r="W75" s="35"/>
+      <c r="X75" s="35"/>
+      <c r="Y75" s="35"/>
+      <c r="Z75" s="35"/>
+      <c r="AA75" s="35"/>
+      <c r="AB75" s="35"/>
+      <c r="AC75" s="35"/>
+      <c r="AD75" s="35"/>
+      <c r="AE75" s="35"/>
+      <c r="AF75" s="35"/>
+      <c r="AG75" s="35"/>
+      <c r="AH75" s="35"/>
+      <c r="AI75" s="35"/>
+      <c r="AJ75" s="35"/>
+      <c r="AK75" s="35"/>
+      <c r="AL75" s="35"/>
+      <c r="AM75" s="35"/>
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A76" s="71"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
-      <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
-      <c r="W76" s="1"/>
-      <c r="X76" s="1"/>
-      <c r="Y76" s="1"/>
-      <c r="Z76" s="1"/>
-      <c r="AA76" s="1"/>
-      <c r="AB76" s="1"/>
-      <c r="AC76" s="1"/>
-      <c r="AD76" s="1"/>
-      <c r="AE76" s="1"/>
-      <c r="AF76" s="1"/>
-      <c r="AG76" s="1"/>
-      <c r="AH76" s="1"/>
-      <c r="AI76" s="1"/>
-      <c r="AJ76" s="1"/>
-      <c r="AK76" s="1"/>
-      <c r="AL76" s="1"/>
-      <c r="AM76" s="1"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
+      <c r="Q76" s="35"/>
+      <c r="R76" s="35"/>
+      <c r="S76" s="35"/>
+      <c r="T76" s="35"/>
+      <c r="U76" s="35"/>
+      <c r="V76" s="35"/>
+      <c r="W76" s="35"/>
+      <c r="X76" s="35"/>
+      <c r="Y76" s="35"/>
+      <c r="Z76" s="35"/>
+      <c r="AA76" s="35"/>
+      <c r="AB76" s="35"/>
+      <c r="AC76" s="35"/>
+      <c r="AD76" s="35"/>
+      <c r="AE76" s="35"/>
+      <c r="AF76" s="35"/>
+      <c r="AG76" s="35"/>
+      <c r="AH76" s="35"/>
+      <c r="AI76" s="35"/>
+      <c r="AJ76" s="35"/>
+      <c r="AK76" s="35"/>
+      <c r="AL76" s="35"/>
+      <c r="AM76" s="35"/>
+    </row>
+    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A77" s="34"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="35"/>
+      <c r="T77" s="35"/>
+      <c r="U77" s="35"/>
+      <c r="V77" s="35"/>
+      <c r="W77" s="35"/>
+      <c r="X77" s="35"/>
+      <c r="Y77" s="35"/>
+      <c r="Z77" s="35"/>
+      <c r="AA77" s="35"/>
+      <c r="AB77" s="35"/>
+      <c r="AC77" s="35"/>
+      <c r="AD77" s="35"/>
+      <c r="AE77" s="35"/>
+      <c r="AF77" s="35"/>
+      <c r="AG77" s="35"/>
+      <c r="AH77" s="35"/>
+      <c r="AI77" s="35"/>
+      <c r="AJ77" s="35"/>
+      <c r="AK77" s="35"/>
+      <c r="AL77" s="35"/>
+      <c r="AM77" s="35"/>
+    </row>
+    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="35"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="35"/>
+      <c r="R78" s="35"/>
+      <c r="S78" s="35"/>
+      <c r="T78" s="35"/>
+      <c r="U78" s="35"/>
+      <c r="V78" s="35"/>
+      <c r="W78" s="35"/>
+      <c r="X78" s="35"/>
+      <c r="Y78" s="35"/>
+      <c r="Z78" s="35"/>
+      <c r="AA78" s="35"/>
+      <c r="AB78" s="35"/>
+      <c r="AC78" s="35"/>
+      <c r="AD78" s="35"/>
+      <c r="AE78" s="35"/>
+      <c r="AF78" s="35"/>
+      <c r="AG78" s="35"/>
+      <c r="AH78" s="35"/>
+      <c r="AI78" s="35"/>
+      <c r="AJ78" s="35"/>
+      <c r="AK78" s="35"/>
+      <c r="AL78" s="35"/>
+      <c r="AM78" s="35"/>
+    </row>
+    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A79" s="34"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="35"/>
+      <c r="N79" s="35"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
+      <c r="Q79" s="35"/>
+      <c r="R79" s="35"/>
+      <c r="S79" s="35"/>
+      <c r="T79" s="35"/>
+      <c r="U79" s="35"/>
+      <c r="V79" s="35"/>
+      <c r="W79" s="35"/>
+      <c r="X79" s="35"/>
+      <c r="Y79" s="35"/>
+      <c r="Z79" s="35"/>
+      <c r="AA79" s="35"/>
+      <c r="AB79" s="35"/>
+      <c r="AC79" s="35"/>
+      <c r="AD79" s="35"/>
+      <c r="AE79" s="35"/>
+      <c r="AF79" s="35"/>
+      <c r="AG79" s="35"/>
+      <c r="AH79" s="35"/>
+      <c r="AI79" s="35"/>
+      <c r="AJ79" s="35"/>
+      <c r="AK79" s="35"/>
+      <c r="AL79" s="35"/>
+      <c r="AM79" s="35"/>
+    </row>
+    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A80" s="34"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="35"/>
+      <c r="U80" s="35"/>
+      <c r="V80" s="35"/>
+      <c r="W80" s="35"/>
+      <c r="X80" s="35"/>
+      <c r="Y80" s="35"/>
+      <c r="Z80" s="35"/>
+      <c r="AA80" s="35"/>
+      <c r="AB80" s="35"/>
+      <c r="AC80" s="35"/>
+      <c r="AD80" s="35"/>
+      <c r="AE80" s="35"/>
+      <c r="AF80" s="35"/>
+      <c r="AG80" s="35"/>
+      <c r="AH80" s="35"/>
+      <c r="AI80" s="35"/>
+      <c r="AJ80" s="35"/>
+      <c r="AK80" s="35"/>
+      <c r="AL80" s="35"/>
+      <c r="AM80" s="35"/>
+    </row>
+    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A81" s="34"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="35"/>
+      <c r="T81" s="35"/>
+      <c r="U81" s="35"/>
+      <c r="V81" s="35"/>
+      <c r="W81" s="35"/>
+      <c r="X81" s="35"/>
+      <c r="Y81" s="35"/>
+      <c r="Z81" s="35"/>
+      <c r="AA81" s="35"/>
+      <c r="AB81" s="35"/>
+      <c r="AC81" s="35"/>
+      <c r="AD81" s="35"/>
+      <c r="AE81" s="35"/>
+      <c r="AF81" s="35"/>
+      <c r="AG81" s="35"/>
+      <c r="AH81" s="35"/>
+      <c r="AI81" s="35"/>
+      <c r="AJ81" s="35"/>
+      <c r="AK81" s="35"/>
+      <c r="AL81" s="35"/>
+      <c r="AM81" s="35"/>
+    </row>
+    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A82" s="34"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="35"/>
+      <c r="U82" s="35"/>
+      <c r="V82" s="35"/>
+      <c r="W82" s="35"/>
+      <c r="X82" s="35"/>
+      <c r="Y82" s="35"/>
+      <c r="Z82" s="35"/>
+      <c r="AA82" s="35"/>
+      <c r="AB82" s="35"/>
+      <c r="AC82" s="35"/>
+      <c r="AD82" s="35"/>
+      <c r="AE82" s="35"/>
+      <c r="AF82" s="35"/>
+      <c r="AG82" s="35"/>
+      <c r="AH82" s="35"/>
+      <c r="AI82" s="35"/>
+      <c r="AJ82" s="35"/>
+      <c r="AK82" s="35"/>
+      <c r="AL82" s="35"/>
+      <c r="AM82" s="35"/>
+    </row>
+    <row r="85" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="I85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A86" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="124"/>
+      <c r="D86" s="124"/>
+      <c r="E86" s="124"/>
+      <c r="F86" s="124"/>
+      <c r="G86" s="124"/>
+      <c r="H86" s="124"/>
+      <c r="I86" s="1">
+        <v>1</v>
+      </c>
+      <c r="J86" s="1">
+        <v>2</v>
+      </c>
+      <c r="K86" s="1">
+        <v>3</v>
+      </c>
+      <c r="L86" s="1">
+        <v>4</v>
+      </c>
+      <c r="M86" s="1">
+        <v>5</v>
+      </c>
+      <c r="N86" s="1">
+        <v>6</v>
+      </c>
+      <c r="O86" s="1">
+        <v>7</v>
+      </c>
+      <c r="P86" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>9</v>
+      </c>
+      <c r="R86" s="1">
+        <v>10</v>
+      </c>
+      <c r="S86" s="1">
+        <v>11</v>
+      </c>
+      <c r="T86" s="1">
+        <v>12</v>
+      </c>
+      <c r="U86" s="1">
+        <v>13</v>
+      </c>
+      <c r="V86" s="1">
+        <v>14</v>
+      </c>
+      <c r="W86" s="1">
+        <v>15</v>
+      </c>
+      <c r="X86" s="1">
+        <v>16</v>
+      </c>
+      <c r="Y86" s="1">
+        <v>17</v>
+      </c>
+      <c r="Z86" s="1">
+        <v>18</v>
+      </c>
+      <c r="AA86" s="1">
+        <v>19</v>
+      </c>
+      <c r="AB86" s="1">
+        <v>20</v>
+      </c>
+      <c r="AC86" s="1">
+        <v>21</v>
+      </c>
+      <c r="AD86" s="1">
+        <v>22</v>
+      </c>
+      <c r="AE86" s="1">
+        <v>23</v>
+      </c>
+      <c r="AF86" s="1">
+        <v>24</v>
+      </c>
+      <c r="AG86" s="1">
+        <v>25</v>
+      </c>
+      <c r="AH86" s="1">
+        <v>26</v>
+      </c>
+      <c r="AI86" s="1">
+        <v>27</v>
+      </c>
+      <c r="AJ86" s="1">
+        <v>28</v>
+      </c>
+      <c r="AK86" s="1">
+        <v>29</v>
+      </c>
+      <c r="AL86" s="1">
+        <v>30</v>
+      </c>
+      <c r="AM86" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A87" s="125"/>
+      <c r="B87" s="109"/>
+      <c r="C87" s="110"/>
+      <c r="D87" s="110"/>
+      <c r="E87" s="110"/>
+      <c r="F87" s="110"/>
+      <c r="G87" s="110"/>
+      <c r="H87" s="105"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
+      <c r="AK87" s="1"/>
+      <c r="AL87" s="1"/>
+      <c r="AM87" s="1"/>
+    </row>
+    <row r="88" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A88" s="108"/>
+      <c r="B88" s="109"/>
+      <c r="C88" s="110"/>
+      <c r="D88" s="110"/>
+      <c r="E88" s="110"/>
+      <c r="F88" s="110"/>
+      <c r="G88" s="110"/>
+      <c r="H88" s="105"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+      <c r="AH88" s="1"/>
+      <c r="AI88" s="1"/>
+      <c r="AJ88" s="1"/>
+      <c r="AK88" s="1"/>
+      <c r="AL88" s="1"/>
+      <c r="AM88" s="1"/>
+    </row>
+    <row r="89" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A89" s="108"/>
+      <c r="B89" s="109"/>
+      <c r="C89" s="110"/>
+      <c r="D89" s="110"/>
+      <c r="E89" s="110"/>
+      <c r="F89" s="110"/>
+      <c r="G89" s="110"/>
+      <c r="H89" s="105"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="1"/>
+      <c r="AG89" s="1"/>
+      <c r="AH89" s="1"/>
+      <c r="AI89" s="1"/>
+      <c r="AJ89" s="1"/>
+      <c r="AK89" s="1"/>
+      <c r="AL89" s="1"/>
+      <c r="AM89" s="1"/>
+    </row>
+    <row r="90" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A90" s="108"/>
+      <c r="B90" s="109"/>
+      <c r="C90" s="110"/>
+      <c r="D90" s="110"/>
+      <c r="E90" s="110"/>
+      <c r="F90" s="110"/>
+      <c r="G90" s="110"/>
+      <c r="H90" s="105"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+      <c r="AH90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="1"/>
+      <c r="AK90" s="1"/>
+      <c r="AL90" s="1"/>
+      <c r="AM90" s="1"/>
+    </row>
+    <row r="91" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A91" s="108"/>
+      <c r="B91" s="109"/>
+      <c r="C91" s="110"/>
+      <c r="D91" s="110"/>
+      <c r="E91" s="110"/>
+      <c r="F91" s="110"/>
+      <c r="G91" s="110"/>
+      <c r="H91" s="105"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
+      <c r="AF91" s="1"/>
+      <c r="AG91" s="1"/>
+      <c r="AH91" s="1"/>
+      <c r="AI91" s="1"/>
+      <c r="AJ91" s="1"/>
+      <c r="AK91" s="1"/>
+      <c r="AL91" s="1"/>
+      <c r="AM91" s="1"/>
+    </row>
+    <row r="92" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A92" s="126"/>
+      <c r="B92" s="109"/>
+      <c r="C92" s="110"/>
+      <c r="D92" s="110"/>
+      <c r="E92" s="110"/>
+      <c r="F92" s="110"/>
+      <c r="G92" s="110"/>
+      <c r="H92" s="105"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="1"/>
+      <c r="AF92" s="1"/>
+      <c r="AG92" s="1"/>
+      <c r="AH92" s="1"/>
+      <c r="AI92" s="1"/>
+      <c r="AJ92" s="1"/>
+      <c r="AK92" s="1"/>
+      <c r="AL92" s="1"/>
+      <c r="AM92" s="1"/>
+    </row>
+    <row r="95" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="I95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A96" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="124"/>
+      <c r="D96" s="124"/>
+      <c r="E96" s="124"/>
+      <c r="F96" s="124"/>
+      <c r="G96" s="124"/>
+      <c r="H96" s="124"/>
+      <c r="I96" s="1">
+        <v>1</v>
+      </c>
+      <c r="J96" s="1">
+        <v>2</v>
+      </c>
+      <c r="K96" s="1">
+        <v>3</v>
+      </c>
+      <c r="L96" s="1">
+        <v>4</v>
+      </c>
+      <c r="M96" s="1">
+        <v>5</v>
+      </c>
+      <c r="N96" s="1">
+        <v>6</v>
+      </c>
+      <c r="O96" s="1">
+        <v>7</v>
+      </c>
+      <c r="P96" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>9</v>
+      </c>
+      <c r="R96" s="1">
+        <v>10</v>
+      </c>
+      <c r="S96" s="1">
+        <v>11</v>
+      </c>
+      <c r="T96" s="1">
+        <v>12</v>
+      </c>
+      <c r="U96" s="1">
+        <v>13</v>
+      </c>
+      <c r="V96" s="1">
+        <v>14</v>
+      </c>
+      <c r="W96" s="1">
+        <v>15</v>
+      </c>
+      <c r="X96" s="1">
+        <v>16</v>
+      </c>
+      <c r="Y96" s="1">
+        <v>17</v>
+      </c>
+      <c r="Z96" s="1">
+        <v>18</v>
+      </c>
+      <c r="AA96" s="1">
+        <v>19</v>
+      </c>
+      <c r="AB96" s="1">
+        <v>20</v>
+      </c>
+      <c r="AC96" s="1">
+        <v>21</v>
+      </c>
+      <c r="AD96" s="1">
+        <v>22</v>
+      </c>
+      <c r="AE96" s="1">
+        <v>23</v>
+      </c>
+      <c r="AF96" s="1">
+        <v>24</v>
+      </c>
+      <c r="AG96" s="1">
+        <v>25</v>
+      </c>
+      <c r="AH96" s="1">
+        <v>26</v>
+      </c>
+      <c r="AI96" s="1">
+        <v>27</v>
+      </c>
+      <c r="AJ96" s="1">
+        <v>28</v>
+      </c>
+      <c r="AK96" s="1">
+        <v>29</v>
+      </c>
+      <c r="AL96" s="1">
+        <v>30</v>
+      </c>
+      <c r="AM96" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A97" s="106"/>
+      <c r="B97" s="106"/>
+      <c r="C97" s="106"/>
+      <c r="D97" s="106"/>
+      <c r="E97" s="106"/>
+      <c r="F97" s="106"/>
+      <c r="G97" s="106"/>
+      <c r="H97" s="106"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="1"/>
+      <c r="AF97" s="1"/>
+      <c r="AG97" s="1"/>
+      <c r="AH97" s="1"/>
+      <c r="AI97" s="1"/>
+      <c r="AJ97" s="1"/>
+      <c r="AK97" s="1"/>
+      <c r="AL97" s="1"/>
+      <c r="AM97" s="1"/>
+    </row>
+    <row r="98" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A98" s="106"/>
+      <c r="B98" s="106"/>
+      <c r="C98" s="106"/>
+      <c r="D98" s="106"/>
+      <c r="E98" s="106"/>
+      <c r="F98" s="106"/>
+      <c r="G98" s="106"/>
+      <c r="H98" s="106"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="1"/>
+      <c r="AF98" s="1"/>
+      <c r="AG98" s="1"/>
+      <c r="AH98" s="1"/>
+      <c r="AI98" s="1"/>
+      <c r="AJ98" s="1"/>
+      <c r="AK98" s="1"/>
+      <c r="AL98" s="1"/>
+      <c r="AM98" s="1"/>
+    </row>
+    <row r="99" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A99" s="106"/>
+      <c r="B99" s="106"/>
+      <c r="C99" s="106"/>
+      <c r="D99" s="106"/>
+      <c r="E99" s="106"/>
+      <c r="F99" s="106"/>
+      <c r="G99" s="106"/>
+      <c r="H99" s="106"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="1"/>
+      <c r="AF99" s="1"/>
+      <c r="AG99" s="1"/>
+      <c r="AH99" s="1"/>
+      <c r="AI99" s="1"/>
+      <c r="AJ99" s="1"/>
+      <c r="AK99" s="1"/>
+      <c r="AL99" s="1"/>
+      <c r="AM99" s="1"/>
+    </row>
+    <row r="100" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A100" s="106"/>
+      <c r="B100" s="106"/>
+      <c r="C100" s="106"/>
+      <c r="D100" s="106"/>
+      <c r="E100" s="106"/>
+      <c r="F100" s="106"/>
+      <c r="G100" s="106"/>
+      <c r="H100" s="106"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
+      <c r="AC100" s="1"/>
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="1"/>
+      <c r="AF100" s="1"/>
+      <c r="AG100" s="1"/>
+      <c r="AH100" s="1"/>
+      <c r="AI100" s="1"/>
+      <c r="AJ100" s="1"/>
+      <c r="AK100" s="1"/>
+      <c r="AL100" s="1"/>
+      <c r="AM100" s="1"/>
+    </row>
+    <row r="101" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A101" s="106"/>
+      <c r="B101" s="106"/>
+      <c r="C101" s="106"/>
+      <c r="D101" s="106"/>
+      <c r="E101" s="106"/>
+      <c r="F101" s="106"/>
+      <c r="G101" s="106"/>
+      <c r="H101" s="106"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
+      <c r="AC101" s="1"/>
+      <c r="AD101" s="1"/>
+      <c r="AE101" s="1"/>
+      <c r="AF101" s="1"/>
+      <c r="AG101" s="1"/>
+      <c r="AH101" s="1"/>
+      <c r="AI101" s="1"/>
+      <c r="AJ101" s="1"/>
+      <c r="AK101" s="1"/>
+      <c r="AL101" s="1"/>
+      <c r="AM101" s="1"/>
+    </row>
+    <row r="102" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A102" s="106"/>
+      <c r="B102" s="106"/>
+      <c r="C102" s="106"/>
+      <c r="D102" s="106"/>
+      <c r="E102" s="106"/>
+      <c r="F102" s="106"/>
+      <c r="G102" s="106"/>
+      <c r="H102" s="106"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
+      <c r="AC102" s="1"/>
+      <c r="AD102" s="1"/>
+      <c r="AE102" s="1"/>
+      <c r="AF102" s="1"/>
+      <c r="AG102" s="1"/>
+      <c r="AH102" s="1"/>
+      <c r="AI102" s="1"/>
+      <c r="AJ102" s="1"/>
+      <c r="AK102" s="1"/>
+      <c r="AL102" s="1"/>
+      <c r="AM102" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="A30:A34"/>
+  <mergeCells count="84">
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
     <mergeCell ref="B30:H30"/>
     <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:H33"/>
     <mergeCell ref="B34:H34"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B96:H96"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="B98:H98"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="B100:H100"/>
+    <mergeCell ref="B101:H101"/>
+    <mergeCell ref="B102:H102"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B37:H37"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A23"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B9:H9"/>
     <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
     <mergeCell ref="B63:H63"/>
     <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="A61:A66"/>
-    <mergeCell ref="AX44:BD44"/>
-    <mergeCell ref="AX45:BD45"/>
+    <mergeCell ref="AX49:BD49"/>
+    <mergeCell ref="AX50:BD50"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B23:H23"/>
@@ -4768,6 +6477,19 @@
     <mergeCell ref="B20:H20"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:H60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4794,301 +6516,301 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88" t="s">
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88" t="s">
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88" t="s">
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88" t="s">
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88" t="s">
+      <c r="T2" s="147"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88" t="s">
+      <c r="X2" s="147"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88" t="s">
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="147"/>
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88" t="s">
+      <c r="AF2" s="147"/>
+      <c r="AG2" s="147"/>
+      <c r="AH2" s="147"/>
+      <c r="AI2" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88" t="s">
+      <c r="AJ2" s="147"/>
+      <c r="AK2" s="147"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="88"/>
-      <c r="AP2" s="88"/>
+      <c r="AN2" s="147"/>
+      <c r="AO2" s="147"/>
+      <c r="AP2" s="147"/>
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89" t="s">
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="89"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="89"/>
-      <c r="AH3" s="89"/>
-      <c r="AI3" s="89"/>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="89"/>
-      <c r="AL3" s="89"/>
-      <c r="AM3" s="89"/>
-      <c r="AN3" s="89"/>
-      <c r="AO3" s="89"/>
-      <c r="AP3" s="89"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="148"/>
+      <c r="AD3" s="148"/>
+      <c r="AE3" s="148"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="148"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="148"/>
+      <c r="AJ3" s="148"/>
+      <c r="AK3" s="148"/>
+      <c r="AL3" s="148"/>
+      <c r="AM3" s="148"/>
+      <c r="AN3" s="148"/>
+      <c r="AO3" s="148"/>
+      <c r="AP3" s="148"/>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="C4" s="11">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>2</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>3</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>4</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>2</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>3</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>4</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>1</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="11">
         <v>2</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="11">
         <v>3</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="11">
         <v>4</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="10">
         <v>1</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="11">
         <v>2</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="11">
         <v>3</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="11">
         <v>4</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="10">
         <v>1</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="11">
         <v>2</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="11">
         <v>3</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="11">
         <v>4</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="10">
         <v>1</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="11">
         <v>2</v>
       </c>
-      <c r="Y4" s="12">
+      <c r="Y4" s="11">
         <v>3</v>
       </c>
-      <c r="Z4" s="12">
+      <c r="Z4" s="11">
         <v>4</v>
       </c>
-      <c r="AA4" s="11">
+      <c r="AA4" s="10">
         <v>1</v>
       </c>
-      <c r="AB4" s="12">
+      <c r="AB4" s="11">
         <v>2</v>
       </c>
-      <c r="AC4" s="12">
+      <c r="AC4" s="11">
         <v>3</v>
       </c>
-      <c r="AD4" s="12">
+      <c r="AD4" s="11">
         <v>4</v>
       </c>
-      <c r="AE4" s="11">
+      <c r="AE4" s="10">
         <v>1</v>
       </c>
-      <c r="AF4" s="12">
+      <c r="AF4" s="11">
         <v>2</v>
       </c>
-      <c r="AG4" s="12">
+      <c r="AG4" s="11">
         <v>3</v>
       </c>
-      <c r="AH4" s="12">
+      <c r="AH4" s="11">
         <v>4</v>
       </c>
-      <c r="AI4" s="11">
+      <c r="AI4" s="10">
         <v>1</v>
       </c>
-      <c r="AJ4" s="12">
+      <c r="AJ4" s="11">
         <v>2</v>
       </c>
-      <c r="AK4" s="12">
+      <c r="AK4" s="11">
         <v>3</v>
       </c>
-      <c r="AL4" s="12">
+      <c r="AL4" s="11">
         <v>4</v>
       </c>
-      <c r="AM4" s="11">
+      <c r="AM4" s="10">
         <v>1</v>
       </c>
-      <c r="AN4" s="12">
+      <c r="AN4" s="11">
         <v>2</v>
       </c>
-      <c r="AO4" s="12">
+      <c r="AO4" s="11">
         <v>3</v>
       </c>
-      <c r="AP4" s="12">
+      <c r="AP4" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="13" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="95" t="s">
+      <c r="F5" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="27"/>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="27"/>
-      <c r="AL5" s="27"/>
-      <c r="AM5" s="27"/>
-      <c r="AN5" s="27"/>
-      <c r="AO5" s="27"/>
-      <c r="AP5" s="27"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="26"/>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B6" s="93"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="31" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -5124,17 +6846,17 @@
       <c r="AP6" s="3"/>
     </row>
     <row r="7" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B7" s="93"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="34" t="s">
+      <c r="F7" s="157"/>
+      <c r="G7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -5171,58 +6893,58 @@
       <c r="AP7" s="3"/>
     </row>
     <row r="8" spans="2:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="93"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="90" t="s">
+      <c r="B8" s="152"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="91"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B9" s="93"/>
+      <c r="B9" s="152"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -5260,10 +6982,10 @@
       <c r="AP9" s="3"/>
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B10" s="93"/>
+      <c r="B10" s="152"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="3"/>
@@ -5305,11 +7027,11 @@
       <c r="AP10" s="3"/>
     </row>
     <row r="11" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B11" s="93"/>
+      <c r="B11" s="152"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="27" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="3"/>
@@ -5350,7 +7072,7 @@
       <c r="AP11" s="3"/>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B12" s="93"/>
+      <c r="B12" s="152"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -5395,12 +7117,12 @@
       <c r="AP12" s="3"/>
     </row>
     <row r="13" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B13" s="93"/>
+      <c r="B13" s="152"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>31</v>
@@ -5442,7 +7164,7 @@
       <c r="AP13" s="3"/>
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B14" s="93"/>
+      <c r="B14" s="152"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
@@ -5489,14 +7211,14 @@
       <c r="AP14" s="3"/>
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B15" s="93"/>
+      <c r="B15" s="152"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="95" t="s">
+      <c r="F15" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="96"/>
+      <c r="G15" s="155"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -5534,7 +7256,7 @@
       <c r="AP15" s="3"/>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B16" s="93"/>
+      <c r="B16" s="152"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -5577,7 +7299,7 @@
       <c r="AP16" s="3"/>
     </row>
     <row r="17" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B17" s="94"/>
+      <c r="B17" s="153"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -5620,298 +7342,298 @@
       <c r="AP17" s="3"/>
     </row>
     <row r="20" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="C20" s="88" t="s">
+      <c r="C20" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88" t="s">
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88" t="s">
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88" t="s">
+      <c r="L20" s="147"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88" t="s">
+      <c r="P20" s="147"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="147"/>
+      <c r="S20" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="88"/>
-      <c r="U20" s="88"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="88" t="s">
+      <c r="T20" s="147"/>
+      <c r="U20" s="147"/>
+      <c r="V20" s="147"/>
+      <c r="W20" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="X20" s="88"/>
-      <c r="Y20" s="88"/>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="88" t="s">
+      <c r="X20" s="147"/>
+      <c r="Y20" s="147"/>
+      <c r="Z20" s="147"/>
+      <c r="AA20" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="AB20" s="88"/>
-      <c r="AC20" s="88"/>
-      <c r="AD20" s="88"/>
-      <c r="AE20" s="88" t="s">
+      <c r="AB20" s="147"/>
+      <c r="AC20" s="147"/>
+      <c r="AD20" s="147"/>
+      <c r="AE20" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="AF20" s="88"/>
-      <c r="AG20" s="88"/>
-      <c r="AH20" s="88"/>
-      <c r="AI20" s="88" t="s">
+      <c r="AF20" s="147"/>
+      <c r="AG20" s="147"/>
+      <c r="AH20" s="147"/>
+      <c r="AI20" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="AJ20" s="88"/>
-      <c r="AK20" s="88"/>
-      <c r="AL20" s="88"/>
-      <c r="AM20" s="88" t="s">
+      <c r="AJ20" s="147"/>
+      <c r="AK20" s="147"/>
+      <c r="AL20" s="147"/>
+      <c r="AM20" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="AN20" s="88"/>
-      <c r="AO20" s="88"/>
-      <c r="AP20" s="88"/>
+      <c r="AN20" s="147"/>
+      <c r="AO20" s="147"/>
+      <c r="AP20" s="147"/>
     </row>
     <row r="21" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89" t="s">
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="89"/>
-      <c r="AD21" s="89"/>
-      <c r="AE21" s="89"/>
-      <c r="AF21" s="89"/>
-      <c r="AG21" s="89"/>
-      <c r="AH21" s="89"/>
-      <c r="AI21" s="89"/>
-      <c r="AJ21" s="89"/>
-      <c r="AK21" s="89"/>
-      <c r="AL21" s="89"/>
-      <c r="AM21" s="89"/>
-      <c r="AN21" s="89"/>
-      <c r="AO21" s="89"/>
-      <c r="AP21" s="89"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="148"/>
+      <c r="S21" s="148"/>
+      <c r="T21" s="148"/>
+      <c r="U21" s="148"/>
+      <c r="V21" s="148"/>
+      <c r="W21" s="148"/>
+      <c r="X21" s="148"/>
+      <c r="Y21" s="148"/>
+      <c r="Z21" s="148"/>
+      <c r="AA21" s="148"/>
+      <c r="AB21" s="148"/>
+      <c r="AC21" s="148"/>
+      <c r="AD21" s="148"/>
+      <c r="AE21" s="148"/>
+      <c r="AF21" s="148"/>
+      <c r="AG21" s="148"/>
+      <c r="AH21" s="148"/>
+      <c r="AI21" s="148"/>
+      <c r="AJ21" s="148"/>
+      <c r="AK21" s="148"/>
+      <c r="AL21" s="148"/>
+      <c r="AM21" s="148"/>
+      <c r="AN21" s="148"/>
+      <c r="AO21" s="148"/>
+      <c r="AP21" s="148"/>
     </row>
     <row r="22" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B22" s="47"/>
-      <c r="C22" s="11">
+      <c r="B22" s="45"/>
+      <c r="C22" s="10">
         <v>1</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>2</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>3</v>
       </c>
-      <c r="F22" s="63">
+      <c r="F22" s="61">
         <v>4</v>
       </c>
-      <c r="G22" s="64">
+      <c r="G22" s="62">
         <v>1</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="11">
         <v>2</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="11">
         <v>3</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="11">
         <v>4</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="10">
         <v>1</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="11">
         <v>2</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="11">
         <v>3</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="11">
         <v>4</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="10">
         <v>1</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="11">
         <v>2</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="11">
         <v>3</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="11">
         <v>4</v>
       </c>
-      <c r="S22" s="11">
+      <c r="S22" s="10">
         <v>1</v>
       </c>
-      <c r="T22" s="12">
+      <c r="T22" s="11">
         <v>2</v>
       </c>
-      <c r="U22" s="12">
+      <c r="U22" s="11">
         <v>3</v>
       </c>
-      <c r="V22" s="12">
+      <c r="V22" s="11">
         <v>4</v>
       </c>
-      <c r="W22" s="11">
+      <c r="W22" s="10">
         <v>1</v>
       </c>
-      <c r="X22" s="12">
+      <c r="X22" s="11">
         <v>2</v>
       </c>
-      <c r="Y22" s="12">
+      <c r="Y22" s="11">
         <v>3</v>
       </c>
-      <c r="Z22" s="12">
+      <c r="Z22" s="11">
         <v>4</v>
       </c>
-      <c r="AA22" s="11">
+      <c r="AA22" s="10">
         <v>1</v>
       </c>
-      <c r="AB22" s="12">
+      <c r="AB22" s="11">
         <v>2</v>
       </c>
-      <c r="AC22" s="12">
+      <c r="AC22" s="11">
         <v>3</v>
       </c>
-      <c r="AD22" s="12">
+      <c r="AD22" s="11">
         <v>4</v>
       </c>
-      <c r="AE22" s="11">
+      <c r="AE22" s="10">
         <v>1</v>
       </c>
-      <c r="AF22" s="12">
+      <c r="AF22" s="11">
         <v>2</v>
       </c>
-      <c r="AG22" s="12">
+      <c r="AG22" s="11">
         <v>3</v>
       </c>
-      <c r="AH22" s="12">
+      <c r="AH22" s="11">
         <v>4</v>
       </c>
-      <c r="AI22" s="11">
+      <c r="AI22" s="10">
         <v>1</v>
       </c>
-      <c r="AJ22" s="12">
+      <c r="AJ22" s="11">
         <v>2</v>
       </c>
-      <c r="AK22" s="12">
+      <c r="AK22" s="11">
         <v>3</v>
       </c>
-      <c r="AL22" s="12">
+      <c r="AL22" s="11">
         <v>4</v>
       </c>
-      <c r="AM22" s="11">
+      <c r="AM22" s="10">
         <v>1</v>
       </c>
-      <c r="AN22" s="12">
+      <c r="AN22" s="11">
         <v>2</v>
       </c>
-      <c r="AO22" s="12">
+      <c r="AO22" s="11">
         <v>3</v>
       </c>
-      <c r="AP22" s="12">
+      <c r="AP22" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B23" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="59" t="s">
-        <v>83</v>
+      <c r="B23" s="142" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="57" t="s">
+        <v>80</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="27"/>
-      <c r="AK23" s="27"/>
-      <c r="AL23" s="27"/>
-      <c r="AM23" s="27"/>
-      <c r="AN23" s="27"/>
-      <c r="AO23" s="27"/>
-      <c r="AP23" s="27"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="26"/>
+      <c r="AP23" s="26"/>
     </row>
     <row r="24" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B24" s="83"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="82"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="7"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="140" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="141"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -5947,17 +7669,17 @@
       <c r="AP24" s="3"/>
     </row>
     <row r="25" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B25" s="83"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="53"/>
-      <c r="H25" s="31"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="51"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -5994,63 +7716,63 @@
       <c r="AP25" s="3"/>
     </row>
     <row r="26" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B26" s="83"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="56"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="6"/>
-      <c r="AJ26" s="6"/>
-      <c r="AK26" s="6"/>
-      <c r="AL26" s="6"/>
-      <c r="AM26" s="6"/>
-      <c r="AN26" s="6"/>
-      <c r="AO26" s="6"/>
-      <c r="AP26" s="6"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="54"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
     </row>
     <row r="27" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B27" s="83"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="57"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="55"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -6088,14 +7810,14 @@
       <c r="AP27" s="3"/>
     </row>
     <row r="28" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B28" s="83"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="87"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="145" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="146"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -6133,16 +7855,16 @@
       <c r="AP28" s="3"/>
     </row>
     <row r="29" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B29" s="83"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="85"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="143" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="144"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -6151,7 +7873,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="27"/>
+      <c r="P29" s="26"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -6180,12 +7902,12 @@
       <c r="AP29" s="3"/>
     </row>
     <row r="30" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B30" s="83"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="67" t="s">
-        <v>87</v>
+      <c r="B30" s="142"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="65" t="s">
+        <v>84</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -6224,12 +7946,12 @@
       <c r="AP30" s="3"/>
     </row>
     <row r="31" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B31" s="83"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -6267,16 +7989,16 @@
       <c r="AP31" s="3"/>
     </row>
     <row r="32" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B32" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
+      <c r="B32" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="49"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -6314,14 +8036,14 @@
       <c r="AP32" s="3"/>
     </row>
     <row r="33" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B33" s="71"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -6359,14 +8081,14 @@
       <c r="AP33" s="3"/>
     </row>
     <row r="34" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B34" s="71"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -6404,13 +8126,13 @@
       <c r="AP34" s="3"/>
     </row>
     <row r="35" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B35" s="71"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="52"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="50"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -6448,16 +8170,16 @@
       <c r="AP35" s="3"/>
     </row>
     <row r="36" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B36" s="71"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="52"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="50"/>
       <c r="E36" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="52"/>
+        <v>79</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="50"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -6495,12 +8217,12 @@
       <c r="AP36" s="3"/>
     </row>
     <row r="37" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B37" s="71"/>
-      <c r="C37" s="7"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="65" t="s">
-        <v>84</v>
+      <c r="F37" s="63" t="s">
+        <v>81</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -6523,12 +8245,12 @@
       <c r="Y37" s="3"/>
     </row>
     <row r="38" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B38" s="71"/>
-      <c r="C38" s="7"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="66" t="s">
-        <v>86</v>
+      <c r="F38" s="64" t="s">
+        <v>83</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -6551,14 +8273,14 @@
       <c r="Y38" s="3"/>
     </row>
     <row r="39" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B39" s="71"/>
-      <c r="C39" s="7"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -6581,12 +8303,12 @@
       <c r="Y39" s="3"/>
     </row>
     <row r="40" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B40" s="71"/>
-      <c r="C40" s="7"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="52" t="s">
-        <v>81</v>
+      <c r="F40" s="50" t="s">
+        <v>78</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -6690,26 +8412,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E3" s="99" t="s">
+      <c r="E3" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="99"/>
+      <c r="F3" s="158"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="26" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="25" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6717,7 +8439,7 @@
       <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>43546</v>
       </c>
     </row>
@@ -6725,7 +8447,7 @@
       <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>43553</v>
       </c>
     </row>
@@ -6733,31 +8455,31 @@
       <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>43556</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>43562</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>43562</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>43562</v>
       </c>
     </row>
@@ -6765,7 +8487,7 @@
       <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>43573</v>
       </c>
     </row>
@@ -6773,7 +8495,7 @@
       <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>43580</v>
       </c>
     </row>
@@ -6781,63 +8503,63 @@
       <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>43587</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>43592</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>43592</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>43592</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <v>43600</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <v>43600</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <v>43608</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <v>43624</v>
       </c>
     </row>

--- a/Document/일정.xlsx
+++ b/Document/일정.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\Gorilla-box\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\Golila-Box\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="캘린더 " sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="155">
   <si>
     <t>3月</t>
   </si>
@@ -266,10 +266,6 @@
   </si>
   <si>
     <t xml:space="preserve">이벤트 시스템 기획 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 조작 기획(강동민, 강일구)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -588,6 +584,42 @@
   </si>
   <si>
     <t>보스몬스터 패턴 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지 보스 몬스터 패턴 1,2 구현[강일구, 정성윤]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 이펙트 1,2패턴[강일구, 구여진, 박성혁]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 애니메이션 1,2패턴[강일구, 최다빈, 박성혁]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지 배경 제작[강일구, 허성훈, +a]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 멥핑[신명수]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 애니메이션(사다리, 점프, 벽타기)[최다빈, 강동민]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간 발표준비[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 조작 예외처리[강동민]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지 래벨[강동민,강일구]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,7 +797,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1494,6 +1526,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1503,7 +1548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1588,9 +1633,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1684,9 +1726,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1819,110 +1858,143 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1945,41 +2017,20 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2264,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CB102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:H69"/>
+    <sheetView showGridLines="0" topLeftCell="C46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z53" sqref="Z53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2276,12 +2327,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:80" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="43"/>
+      <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -2299,74 +2350,74 @@
       </c>
     </row>
     <row r="8" spans="1:80" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="86">
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="84">
         <v>15</v>
       </c>
-      <c r="J8" s="85">
+      <c r="J8" s="83">
         <v>16</v>
       </c>
-      <c r="K8" s="85">
+      <c r="K8" s="83">
         <v>17</v>
       </c>
-      <c r="L8" s="85">
+      <c r="L8" s="83">
         <v>18</v>
       </c>
-      <c r="M8" s="85">
+      <c r="M8" s="83">
         <v>19</v>
       </c>
-      <c r="N8" s="87">
+      <c r="N8" s="85">
         <v>20</v>
       </c>
-      <c r="O8" s="85">
+      <c r="O8" s="83">
         <v>21</v>
       </c>
-      <c r="P8" s="85">
+      <c r="P8" s="83">
         <v>22</v>
       </c>
-      <c r="Q8" s="85">
+      <c r="Q8" s="83">
         <v>23</v>
       </c>
-      <c r="R8" s="85">
+      <c r="R8" s="83">
         <v>24</v>
       </c>
-      <c r="S8" s="87">
+      <c r="S8" s="85">
         <v>25</v>
       </c>
-      <c r="T8" s="85">
+      <c r="T8" s="83">
         <v>26</v>
       </c>
-      <c r="U8" s="85">
+      <c r="U8" s="83">
         <v>27</v>
       </c>
-      <c r="V8" s="85">
+      <c r="V8" s="83">
         <v>28</v>
       </c>
-      <c r="W8" s="87">
+      <c r="W8" s="85">
         <v>29</v>
       </c>
-      <c r="X8" s="85">
+      <c r="X8" s="83">
         <v>30</v>
       </c>
-      <c r="Y8" s="88">
+      <c r="Y8" s="86">
         <v>31</v>
       </c>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="36" t="s">
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="AF8" s="34"/>
+      <c r="AF8" s="33"/>
       <c r="AX8" s="1">
         <v>1</v>
       </c>
@@ -2462,40 +2513,40 @@
       </c>
     </row>
     <row r="9" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A9" s="127" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="120" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="76"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="36" t="s">
+      <c r="A9" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="74"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="AF9" s="34"/>
+      <c r="AF9" s="33"/>
       <c r="AX9" s="1"/>
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
@@ -2529,22 +2580,22 @@
       <c r="CB9" s="1"/>
     </row>
     <row r="10" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A10" s="128"/>
-      <c r="B10" s="105" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="67"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="65"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -2555,10 +2606,10 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="77"/>
-      <c r="AB10" s="66"/>
+      <c r="Y10" s="75"/>
+      <c r="AB10" s="64"/>
       <c r="AC10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
@@ -2593,16 +2644,16 @@
       <c r="CB10" s="1"/>
     </row>
     <row r="11" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A11" s="128"/>
-      <c r="B11" s="113" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2613,13 +2664,13 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="77"/>
+      <c r="Y11" s="75"/>
       <c r="AX11" s="2"/>
       <c r="AY11" s="2"/>
       <c r="AZ11" s="2"/>
@@ -2653,33 +2704,33 @@
       <c r="CB11" s="1"/>
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A12" s="128"/>
-      <c r="B12" s="105" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="67"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="65"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="77"/>
+      <c r="Y12" s="75"/>
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
@@ -2713,33 +2764,33 @@
       <c r="CB12" s="1"/>
     </row>
     <row r="13" spans="1:80" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="129"/>
-      <c r="B13" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="83"/>
+      <c r="A13" s="105"/>
+      <c r="B13" s="112" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="81"/>
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
@@ -2773,35 +2824,35 @@
       <c r="CB13" s="1"/>
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="115" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="133" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="117" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="76"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="74"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
@@ -2835,33 +2886,33 @@
       <c r="CB14" s="1"/>
     </row>
     <row r="15" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A15" s="128"/>
-      <c r="B15" s="105" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="77"/>
+      <c r="Y15" s="75"/>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
@@ -2877,18 +2928,18 @@
       <c r="BJ15" s="1"/>
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A16" s="128"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="110"/>
       <c r="D16" s="110"/>
       <c r="E16" s="110"/>
       <c r="F16" s="110"/>
       <c r="G16" s="110"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
       <c r="M16" s="23"/>
@@ -2903,7 +2954,7 @@
       <c r="V16" s="23"/>
       <c r="W16" s="23"/>
       <c r="X16" s="23"/>
-      <c r="Y16" s="78"/>
+      <c r="Y16" s="76"/>
       <c r="AX16" s="23"/>
       <c r="AY16" s="23"/>
       <c r="AZ16" s="23"/>
@@ -2919,19 +2970,19 @@
       <c r="BJ16" s="23"/>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A17" s="128"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="110"/>
       <c r="D17" s="110"/>
       <c r="E17" s="110"/>
       <c r="F17" s="110"/>
       <c r="G17" s="110"/>
-      <c r="H17" s="115"/>
+      <c r="H17" s="121"/>
       <c r="I17" s="23"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
@@ -2945,12 +2996,12 @@
       <c r="V17" s="23"/>
       <c r="W17" s="23"/>
       <c r="X17" s="23"/>
-      <c r="Y17" s="78"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="70"/>
-      <c r="AE17" s="70"/>
-      <c r="AF17" s="70"/>
+      <c r="Y17" s="76"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="68"/>
+      <c r="AD17" s="68"/>
+      <c r="AE17" s="68"/>
+      <c r="AF17" s="68"/>
       <c r="AX17" s="23"/>
       <c r="AY17" s="23"/>
       <c r="AZ17" s="23"/>
@@ -2966,21 +3017,21 @@
       <c r="BJ17" s="23"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A18" s="128"/>
+      <c r="A18" s="104"/>
       <c r="B18" s="109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="110"/>
       <c r="D18" s="110"/>
       <c r="E18" s="110"/>
       <c r="F18" s="110"/>
       <c r="G18" s="110"/>
-      <c r="H18" s="115"/>
+      <c r="H18" s="121"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" s="23"/>
@@ -2992,7 +3043,7 @@
       <c r="V18" s="23"/>
       <c r="W18" s="23"/>
       <c r="X18" s="23"/>
-      <c r="Y18" s="78"/>
+      <c r="Y18" s="76"/>
       <c r="AX18" s="23"/>
       <c r="AY18" s="23"/>
       <c r="AZ18" s="23"/>
@@ -3008,23 +3059,23 @@
       <c r="BJ18" s="23"/>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A19" s="128"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="110"/>
       <c r="D19" s="110"/>
       <c r="E19" s="110"/>
       <c r="F19" s="110"/>
       <c r="G19" s="110"/>
-      <c r="H19" s="115"/>
+      <c r="H19" s="121"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
       <c r="P19" s="23"/>
       <c r="Q19" s="23"/>
       <c r="R19" s="23"/>
@@ -3034,7 +3085,7 @@
       <c r="V19" s="23"/>
       <c r="W19" s="23"/>
       <c r="X19" s="23"/>
-      <c r="Y19" s="78"/>
+      <c r="Y19" s="76"/>
       <c r="AX19" s="23"/>
       <c r="AY19" s="23"/>
       <c r="AZ19" s="23"/>
@@ -3050,33 +3101,33 @@
       <c r="BJ19" s="23"/>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A20" s="128"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="109" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" s="110"/>
       <c r="D20" s="110"/>
       <c r="E20" s="110"/>
       <c r="F20" s="110"/>
       <c r="G20" s="110"/>
-      <c r="H20" s="115"/>
+      <c r="H20" s="121"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
       <c r="S20" s="23"/>
       <c r="T20" s="23"/>
       <c r="U20" s="23"/>
       <c r="V20" s="23"/>
       <c r="W20" s="23"/>
       <c r="X20" s="23"/>
-      <c r="Y20" s="78"/>
+      <c r="Y20" s="76"/>
       <c r="AX20" s="23"/>
       <c r="AY20" s="23"/>
       <c r="AZ20" s="23"/>
@@ -3092,16 +3143,16 @@
       <c r="BJ20" s="23"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A21" s="128"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="110"/>
       <c r="D21" s="110"/>
       <c r="E21" s="110"/>
       <c r="F21" s="110"/>
       <c r="G21" s="110"/>
-      <c r="H21" s="115"/>
+      <c r="H21" s="121"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
@@ -3111,14 +3162,14 @@
       <c r="O21" s="23"/>
       <c r="P21" s="23"/>
       <c r="Q21" s="23"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
       <c r="V21" s="23"/>
       <c r="W21" s="23"/>
       <c r="X21" s="23"/>
-      <c r="Y21" s="78"/>
+      <c r="Y21" s="76"/>
       <c r="AX21" s="23"/>
       <c r="AY21" s="23"/>
       <c r="AZ21" s="23"/>
@@ -3134,16 +3185,16 @@
       <c r="BJ21" s="23"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A22" s="128"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="110"/>
       <c r="D22" s="110"/>
       <c r="E22" s="110"/>
       <c r="F22" s="110"/>
       <c r="G22" s="110"/>
-      <c r="H22" s="115"/>
+      <c r="H22" s="121"/>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
       <c r="K22" s="1"/>
@@ -3156,11 +3207,11 @@
       <c r="R22" s="23"/>
       <c r="S22" s="23"/>
       <c r="T22" s="23"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="78"/>
+      <c r="U22" s="68"/>
+      <c r="V22" s="68"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="68"/>
+      <c r="Y22" s="76"/>
       <c r="AX22" s="23"/>
       <c r="AY22" s="23"/>
       <c r="AZ22" s="23"/>
@@ -3176,16 +3227,16 @@
       <c r="BJ22" s="23"/>
     </row>
     <row r="23" spans="1:62" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="128"/>
-      <c r="B23" s="113" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="122" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -3198,11 +3249,11 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="94"/>
-      <c r="V23" s="94"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="94"/>
-      <c r="Y23" s="95"/>
+      <c r="U23" s="92"/>
+      <c r="V23" s="92"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="92"/>
+      <c r="Y23" s="93"/>
       <c r="AX23" s="1"/>
       <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
@@ -3218,35 +3269,35 @@
       <c r="BJ23" s="1"/>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A24" s="131" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="121" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="74"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
-      <c r="Y24" s="76"/>
+      <c r="A24" s="117" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="74"/>
       <c r="AX24" s="1"/>
       <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
@@ -3262,33 +3313,33 @@
       <c r="BJ24" s="1"/>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A25" s="132"/>
-      <c r="B25" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
+      <c r="A25" s="118"/>
+      <c r="B25" s="116" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="99"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="97"/>
       <c r="AX25" s="1"/>
       <c r="AY25" s="1"/>
       <c r="AZ25" s="1"/>
@@ -3304,16 +3355,16 @@
       <c r="BJ25" s="1"/>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A26" s="132"/>
-      <c r="B26" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="116" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -3325,12 +3376,12 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="99"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="97"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
@@ -3346,22 +3397,22 @@
       <c r="BJ26" s="1"/>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A27" s="132"/>
-      <c r="B27" s="106" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
+      <c r="A27" s="118"/>
+      <c r="B27" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -3371,8 +3422,8 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="99"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="97"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
@@ -3388,33 +3439,33 @@
       <c r="BJ27" s="1"/>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A28" s="132"/>
-      <c r="B28" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="116" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="67"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="99"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="97"/>
       <c r="AX28" s="1"/>
       <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
@@ -3430,16 +3481,16 @@
       <c r="BJ28" s="1"/>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A29" s="132"/>
-      <c r="B29" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
+      <c r="A29" s="118"/>
+      <c r="B29" s="116" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -3450,13 +3501,13 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="69"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="99"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="67"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="97"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
@@ -3472,22 +3523,22 @@
       <c r="BJ29" s="1"/>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A30" s="132"/>
-      <c r="B30" s="106" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -3497,8 +3548,8 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="99"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="97"/>
       <c r="AX30" s="1"/>
       <c r="AY30" s="1"/>
       <c r="AZ30" s="1"/>
@@ -3514,33 +3565,33 @@
       <c r="BJ30" s="1"/>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A31" s="132"/>
-      <c r="B31" s="106" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
+      <c r="A31" s="118"/>
+      <c r="B31" s="116" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="67"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="99"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="97"/>
       <c r="AX31" s="1"/>
       <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
@@ -3556,33 +3607,33 @@
       <c r="BJ31" s="1"/>
     </row>
     <row r="32" spans="1:62" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="133"/>
-      <c r="B32" s="123" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="123"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="79"/>
-      <c r="R32" s="79"/>
-      <c r="S32" s="98"/>
-      <c r="T32" s="98"/>
-      <c r="U32" s="98"/>
-      <c r="V32" s="98"/>
-      <c r="W32" s="98"/>
-      <c r="X32" s="89"/>
-      <c r="Y32" s="100"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="136" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="136"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="77"/>
+      <c r="S32" s="96"/>
+      <c r="T32" s="96"/>
+      <c r="U32" s="96"/>
+      <c r="V32" s="96"/>
+      <c r="W32" s="96"/>
+      <c r="X32" s="87"/>
+      <c r="Y32" s="98"/>
       <c r="AX32" s="1"/>
       <c r="AY32" s="1"/>
       <c r="AZ32" s="1"/>
@@ -3598,35 +3649,35 @@
       <c r="BJ32" s="1"/>
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A33" s="128" t="s">
+      <c r="A33" s="104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="137" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="73"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="73"/>
-      <c r="Y33" s="97"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="71"/>
+      <c r="Y33" s="95"/>
       <c r="AX33" s="1"/>
       <c r="AY33" s="1"/>
       <c r="AZ33" s="1"/>
@@ -3642,23 +3693,23 @@
       <c r="BJ33" s="1"/>
     </row>
     <row r="34" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A34" s="128"/>
+      <c r="A34" s="104"/>
       <c r="B34" s="109" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C34" s="110"/>
       <c r="D34" s="110"/>
       <c r="E34" s="110"/>
       <c r="F34" s="110"/>
       <c r="G34" s="110"/>
-      <c r="H34" s="105"/>
+      <c r="H34" s="111"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="101"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -3668,7 +3719,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
-      <c r="Y34" s="77"/>
+      <c r="Y34" s="75"/>
       <c r="AX34" s="1"/>
       <c r="AY34" s="1"/>
       <c r="AZ34" s="1"/>
@@ -3684,33 +3735,33 @@
       <c r="BJ34" s="1"/>
     </row>
     <row r="35" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A35" s="128"/>
+      <c r="A35" s="104"/>
       <c r="B35" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="110"/>
       <c r="D35" s="110"/>
       <c r="E35" s="110"/>
       <c r="F35" s="110"/>
       <c r="G35" s="110"/>
-      <c r="H35" s="105"/>
+      <c r="H35" s="111"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="101"/>
-      <c r="P35" s="101"/>
-      <c r="Q35" s="101"/>
-      <c r="R35" s="101"/>
-      <c r="S35" s="101"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="99"/>
+      <c r="S35" s="99"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="Y35" s="77"/>
+      <c r="Y35" s="75"/>
       <c r="AX35" s="1"/>
       <c r="AY35" s="1"/>
       <c r="AZ35" s="1"/>
@@ -3726,16 +3777,16 @@
       <c r="BJ35" s="1"/>
     </row>
     <row r="36" spans="1:62" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="128"/>
-      <c r="B36" s="113" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="136"/>
+      <c r="A36" s="104"/>
+      <c r="B36" s="122" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="124"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -3746,13 +3797,13 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="104"/>
-      <c r="T36" s="104"/>
-      <c r="U36" s="104"/>
-      <c r="V36" s="104"/>
-      <c r="W36" s="104"/>
+      <c r="S36" s="102"/>
+      <c r="T36" s="102"/>
+      <c r="U36" s="102"/>
+      <c r="V36" s="102"/>
+      <c r="W36" s="102"/>
       <c r="X36" s="2"/>
-      <c r="Y36" s="81"/>
+      <c r="Y36" s="79"/>
       <c r="AX36" s="1"/>
       <c r="AY36" s="1"/>
       <c r="AZ36" s="1"/>
@@ -3768,35 +3819,35 @@
       <c r="BJ36" s="1"/>
     </row>
     <row r="37" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A37" s="127" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="74"/>
-      <c r="U37" s="74"/>
-      <c r="V37" s="74"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="74"/>
-      <c r="Y37" s="76"/>
+      <c r="A37" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="108" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="72"/>
+      <c r="X37" s="72"/>
+      <c r="Y37" s="74"/>
       <c r="AX37" s="1"/>
       <c r="AY37" s="1"/>
       <c r="AZ37" s="1"/>
@@ -3812,23 +3863,23 @@
       <c r="BJ37" s="1"/>
     </row>
     <row r="38" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A38" s="128"/>
+      <c r="A38" s="104"/>
       <c r="B38" s="109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="110"/>
       <c r="D38" s="110"/>
       <c r="E38" s="110"/>
       <c r="F38" s="110"/>
       <c r="G38" s="110"/>
-      <c r="H38" s="105"/>
+      <c r="H38" s="111"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -3838,7 +3889,7 @@
       <c r="V38" s="2"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
-      <c r="Y38" s="77"/>
+      <c r="Y38" s="75"/>
       <c r="AX38" s="1"/>
       <c r="AY38" s="1"/>
       <c r="AZ38" s="1"/>
@@ -3854,16 +3905,16 @@
       <c r="BJ38" s="1"/>
     </row>
     <row r="39" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A39" s="128"/>
+      <c r="A39" s="104"/>
       <c r="B39" s="109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39" s="110"/>
       <c r="D39" s="110"/>
       <c r="E39" s="110"/>
       <c r="F39" s="110"/>
       <c r="G39" s="110"/>
-      <c r="H39" s="105"/>
+      <c r="H39" s="111"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3874,13 +3925,13 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
-      <c r="S39" s="101"/>
-      <c r="T39" s="101"/>
-      <c r="U39" s="101"/>
-      <c r="V39" s="101"/>
+      <c r="S39" s="99"/>
+      <c r="T39" s="99"/>
+      <c r="U39" s="99"/>
+      <c r="V39" s="99"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
-      <c r="Y39" s="77"/>
+      <c r="Y39" s="75"/>
       <c r="AX39" s="1"/>
       <c r="AY39" s="1"/>
       <c r="AZ39" s="1"/>
@@ -3896,33 +3947,33 @@
       <c r="BJ39" s="1"/>
     </row>
     <row r="40" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A40" s="128"/>
-      <c r="B40" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
+      <c r="A40" s="104"/>
+      <c r="B40" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="93"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="93"/>
-      <c r="R40" s="93"/>
-      <c r="S40" s="93"/>
+      <c r="O40" s="91"/>
+      <c r="P40" s="91"/>
+      <c r="Q40" s="91"/>
+      <c r="R40" s="91"/>
+      <c r="S40" s="91"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
-      <c r="Y40" s="81"/>
+      <c r="Y40" s="79"/>
       <c r="AX40" s="1"/>
       <c r="AY40" s="1"/>
       <c r="AZ40" s="1"/>
@@ -3938,16 +3989,16 @@
       <c r="BJ40" s="1"/>
     </row>
     <row r="41" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A41" s="128"/>
-      <c r="B41" s="105" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
+      <c r="A41" s="104"/>
+      <c r="B41" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="116"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -3958,13 +4009,13 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="93"/>
-      <c r="T41" s="93"/>
-      <c r="U41" s="93"/>
-      <c r="V41" s="93"/>
+      <c r="S41" s="91"/>
+      <c r="T41" s="91"/>
+      <c r="U41" s="91"/>
+      <c r="V41" s="91"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
-      <c r="Y41" s="81"/>
+      <c r="Y41" s="79"/>
       <c r="AX41" s="1"/>
       <c r="AY41" s="1"/>
       <c r="AZ41" s="1"/>
@@ -3980,16 +4031,16 @@
       <c r="BJ41" s="1"/>
     </row>
     <row r="42" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A42" s="128"/>
+      <c r="A42" s="104"/>
       <c r="B42" s="109" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" s="110"/>
       <c r="D42" s="110"/>
       <c r="E42" s="110"/>
       <c r="F42" s="110"/>
       <c r="G42" s="110"/>
-      <c r="H42" s="105"/>
+      <c r="H42" s="111"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -4003,10 +4054,10 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
-      <c r="V42" s="93"/>
-      <c r="W42" s="93"/>
-      <c r="X42" s="93"/>
-      <c r="Y42" s="93"/>
+      <c r="V42" s="91"/>
+      <c r="W42" s="91"/>
+      <c r="X42" s="91"/>
+      <c r="Y42" s="91"/>
       <c r="AX42" s="1"/>
       <c r="AY42" s="1"/>
       <c r="AZ42" s="1"/>
@@ -4022,33 +4073,33 @@
       <c r="BJ42" s="1"/>
     </row>
     <row r="43" spans="1:62" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="129"/>
-      <c r="B43" s="111" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="112"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="122"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="79"/>
-      <c r="P43" s="79"/>
-      <c r="Q43" s="79"/>
-      <c r="R43" s="79"/>
-      <c r="S43" s="79"/>
-      <c r="T43" s="79"/>
-      <c r="U43" s="79"/>
-      <c r="V43" s="79"/>
-      <c r="W43" s="79"/>
-      <c r="X43" s="79"/>
-      <c r="Y43" s="83"/>
+      <c r="A43" s="105"/>
+      <c r="B43" s="112" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="77"/>
+      <c r="R43" s="77"/>
+      <c r="S43" s="77"/>
+      <c r="T43" s="77"/>
+      <c r="U43" s="77"/>
+      <c r="V43" s="77"/>
+      <c r="W43" s="77"/>
+      <c r="X43" s="77"/>
+      <c r="Y43" s="81"/>
       <c r="AX43" s="1"/>
       <c r="AY43" s="1"/>
       <c r="AZ43" s="1"/>
@@ -4064,35 +4115,35 @@
       <c r="BJ43" s="1"/>
     </row>
     <row r="44" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44" s="134" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="135"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="135"/>
-      <c r="F44" s="135"/>
-      <c r="G44" s="135"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="75"/>
-      <c r="P44" s="75"/>
-      <c r="Q44" s="75"/>
-      <c r="R44" s="75"/>
-      <c r="S44" s="75"/>
-      <c r="T44" s="75"/>
-      <c r="U44" s="74"/>
-      <c r="V44" s="74"/>
-      <c r="W44" s="74"/>
-      <c r="X44" s="74"/>
-      <c r="Y44" s="76"/>
+      <c r="A44" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="107"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="73"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="72"/>
+      <c r="V44" s="72"/>
+      <c r="W44" s="72"/>
+      <c r="X44" s="72"/>
+      <c r="Y44" s="74"/>
       <c r="AX44" s="1"/>
       <c r="AY44" s="1"/>
       <c r="AZ44" s="1"/>
@@ -4108,19 +4159,19 @@
       <c r="BJ44" s="1"/>
     </row>
     <row r="45" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="128"/>
+      <c r="A45" s="104"/>
       <c r="B45" s="109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C45" s="110"/>
       <c r="D45" s="110"/>
       <c r="E45" s="110"/>
       <c r="F45" s="110"/>
       <c r="G45" s="110"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -4130,11 +4181,11 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
-      <c r="U45" s="70"/>
-      <c r="V45" s="70"/>
-      <c r="W45" s="70"/>
-      <c r="X45" s="70"/>
-      <c r="Y45" s="90"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="68"/>
+      <c r="X45" s="68"/>
+      <c r="Y45" s="88"/>
       <c r="AX45" s="1"/>
       <c r="AY45" s="1"/>
       <c r="AZ45" s="1"/>
@@ -4150,17 +4201,17 @@
       <c r="BJ45" s="1"/>
     </row>
     <row r="46" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="128"/>
+      <c r="A46" s="104"/>
       <c r="B46" s="109"/>
       <c r="C46" s="110"/>
       <c r="D46" s="110"/>
       <c r="E46" s="110"/>
       <c r="F46" s="110"/>
       <c r="G46" s="110"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -4174,7 +4225,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
-      <c r="Y46" s="77"/>
+      <c r="Y46" s="75"/>
       <c r="AX46" s="1"/>
       <c r="AY46" s="1"/>
       <c r="AZ46" s="1"/>
@@ -4190,31 +4241,31 @@
       <c r="BJ46" s="1"/>
     </row>
     <row r="47" spans="1:62" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="129"/>
-      <c r="B47" s="111"/>
-      <c r="C47" s="112"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="112"/>
-      <c r="H47" s="122"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="79"/>
-      <c r="M47" s="79"/>
-      <c r="N47" s="79"/>
-      <c r="O47" s="79"/>
-      <c r="P47" s="79"/>
-      <c r="Q47" s="79"/>
-      <c r="R47" s="79"/>
-      <c r="S47" s="79"/>
-      <c r="T47" s="79"/>
-      <c r="U47" s="79"/>
-      <c r="V47" s="79"/>
-      <c r="W47" s="79"/>
-      <c r="X47" s="79"/>
-      <c r="Y47" s="83"/>
+      <c r="A47" s="105"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="77"/>
+      <c r="N47" s="77"/>
+      <c r="O47" s="77"/>
+      <c r="P47" s="77"/>
+      <c r="Q47" s="77"/>
+      <c r="R47" s="77"/>
+      <c r="S47" s="77"/>
+      <c r="T47" s="77"/>
+      <c r="U47" s="77"/>
+      <c r="V47" s="77"/>
+      <c r="W47" s="77"/>
+      <c r="X47" s="77"/>
+      <c r="Y47" s="81"/>
       <c r="AX47" s="1"/>
       <c r="AY47" s="1"/>
       <c r="AZ47" s="1"/>
@@ -4230,120 +4281,120 @@
       <c r="BJ47" s="1"/>
     </row>
     <row r="48" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="35"/>
-      <c r="Y48" s="35"/>
-      <c r="Z48" s="35"/>
-      <c r="AA48" s="35"/>
-      <c r="AB48" s="35"/>
-      <c r="AC48" s="35"/>
-      <c r="AD48" s="35"/>
-      <c r="AE48" s="35"/>
-      <c r="AF48" s="35"/>
-      <c r="AG48" s="35"/>
-      <c r="AH48" s="35"/>
-      <c r="AI48" s="35"/>
-      <c r="AJ48" s="35"/>
-      <c r="AK48" s="35"/>
-      <c r="AL48" s="35"/>
-      <c r="AM48" s="35"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="34"/>
+      <c r="AD48" s="34"/>
+      <c r="AE48" s="34"/>
+      <c r="AF48" s="34"/>
+      <c r="AG48" s="34"/>
+      <c r="AH48" s="34"/>
+      <c r="AI48" s="34"/>
+      <c r="AJ48" s="34"/>
+      <c r="AK48" s="34"/>
+      <c r="AL48" s="34"/>
+      <c r="AM48" s="34"/>
     </row>
     <row r="49" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="35"/>
-      <c r="X49" s="35"/>
-      <c r="Y49" s="35"/>
-      <c r="Z49" s="35"/>
-      <c r="AA49" s="35"/>
-      <c r="AB49" s="35"/>
-      <c r="AC49" s="35"/>
-      <c r="AD49" s="35"/>
-      <c r="AE49" s="35"/>
-      <c r="AF49" s="35"/>
-      <c r="AG49" s="35"/>
-      <c r="AH49" s="35"/>
-      <c r="AI49" s="35"/>
-      <c r="AJ49" s="35"/>
-      <c r="AK49" s="35"/>
-      <c r="AL49" s="35"/>
-      <c r="AM49" s="35"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="34"/>
+      <c r="AD49" s="34"/>
+      <c r="AE49" s="34"/>
+      <c r="AF49" s="34"/>
+      <c r="AG49" s="34"/>
+      <c r="AH49" s="34"/>
+      <c r="AI49" s="34"/>
+      <c r="AJ49" s="34"/>
+      <c r="AK49" s="34"/>
+      <c r="AL49" s="34"/>
+      <c r="AM49" s="34"/>
       <c r="AX49" s="109" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AY49" s="110"/>
       <c r="AZ49" s="110"/>
       <c r="BA49" s="110"/>
       <c r="BB49" s="110"/>
       <c r="BC49" s="110"/>
-      <c r="BD49" s="105"/>
+      <c r="BD49" s="111"/>
     </row>
     <row r="50" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="35"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="35"/>
-      <c r="Y50" s="35"/>
-      <c r="Z50" s="35"/>
-      <c r="AA50" s="35"/>
-      <c r="AB50" s="35"/>
-      <c r="AC50" s="35"/>
-      <c r="AD50" s="35"/>
-      <c r="AE50" s="35"/>
-      <c r="AF50" s="35"/>
-      <c r="AG50" s="35"/>
-      <c r="AH50" s="35"/>
-      <c r="AI50" s="35"/>
-      <c r="AJ50" s="35"/>
-      <c r="AK50" s="35"/>
-      <c r="AL50" s="35"/>
-      <c r="AM50" s="35"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="34"/>
+      <c r="AC50" s="34"/>
+      <c r="AD50" s="34"/>
+      <c r="AE50" s="34"/>
+      <c r="AF50" s="34"/>
+      <c r="AG50" s="34"/>
+      <c r="AH50" s="34"/>
+      <c r="AI50" s="34"/>
+      <c r="AJ50" s="34"/>
+      <c r="AK50" s="34"/>
+      <c r="AL50" s="34"/>
+      <c r="AM50" s="34"/>
       <c r="AX50" s="109" t="s">
         <v>54</v>
       </c>
@@ -4352,91 +4403,91 @@
       <c r="BA50" s="110"/>
       <c r="BB50" s="110"/>
       <c r="BC50" s="110"/>
-      <c r="BD50" s="105"/>
+      <c r="BD50" s="111"/>
     </row>
     <row r="51" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="35"/>
-      <c r="Y51" s="35"/>
-      <c r="Z51" s="35"/>
-      <c r="AA51" s="35"/>
-      <c r="AB51" s="35"/>
-      <c r="AC51" s="35"/>
-      <c r="AD51" s="35"/>
-      <c r="AE51" s="35"/>
-      <c r="AF51" s="35"/>
-      <c r="AG51" s="35"/>
-      <c r="AH51" s="35"/>
-      <c r="AI51" s="35"/>
-      <c r="AJ51" s="35"/>
-      <c r="AK51" s="35"/>
-      <c r="AL51" s="35"/>
-      <c r="AM51" s="35"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
+      <c r="AB51" s="34"/>
+      <c r="AC51" s="34"/>
+      <c r="AD51" s="34"/>
+      <c r="AE51" s="34"/>
+      <c r="AF51" s="34"/>
+      <c r="AG51" s="34"/>
+      <c r="AH51" s="34"/>
+      <c r="AI51" s="34"/>
+      <c r="AJ51" s="34"/>
+      <c r="AK51" s="34"/>
+      <c r="AL51" s="34"/>
+      <c r="AM51" s="34"/>
     </row>
     <row r="52" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="35"/>
-      <c r="V52" s="35"/>
-      <c r="W52" s="35"/>
-      <c r="X52" s="35"/>
-      <c r="Y52" s="35"/>
-      <c r="Z52" s="35"/>
-      <c r="AA52" s="35"/>
-      <c r="AB52" s="35"/>
-      <c r="AC52" s="35"/>
-      <c r="AD52" s="35"/>
-      <c r="AE52" s="35"/>
-      <c r="AF52" s="35"/>
-      <c r="AG52" s="35"/>
-      <c r="AH52" s="35"/>
-      <c r="AI52" s="35"/>
-      <c r="AJ52" s="35"/>
-      <c r="AK52" s="35"/>
-      <c r="AL52" s="35"/>
-      <c r="AM52" s="35"/>
+      <c r="A52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="34"/>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34"/>
+      <c r="AA52" s="34"/>
+      <c r="AB52" s="34"/>
+      <c r="AC52" s="34"/>
+      <c r="AD52" s="34"/>
+      <c r="AE52" s="34"/>
+      <c r="AF52" s="34"/>
+      <c r="AG52" s="34"/>
+      <c r="AH52" s="34"/>
+      <c r="AI52" s="34"/>
+      <c r="AJ52" s="34"/>
+      <c r="AK52" s="34"/>
+      <c r="AL52" s="34"/>
+      <c r="AM52" s="34"/>
     </row>
     <row r="53" spans="1:56" x14ac:dyDescent="0.3">
       <c r="J53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:56" x14ac:dyDescent="0.3">
@@ -4445,22 +4496,22 @@
       </c>
     </row>
     <row r="55" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A55" s="38" t="s">
+      <c r="A55" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="124" t="s">
+      <c r="B55" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="124"/>
-      <c r="D55" s="124"/>
-      <c r="E55" s="124"/>
-      <c r="F55" s="124"/>
-      <c r="G55" s="124"/>
-      <c r="H55" s="124"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="131"/>
+      <c r="F55" s="131"/>
+      <c r="G55" s="131"/>
+      <c r="H55" s="131"/>
       <c r="I55" s="1">
         <v>1</v>
       </c>
-      <c r="J55" s="40">
+      <c r="J55" s="39">
         <v>2</v>
       </c>
       <c r="K55" s="1">
@@ -4529,7 +4580,7 @@
       <c r="AF55" s="1">
         <v>24</v>
       </c>
-      <c r="AG55" s="40">
+      <c r="AG55" s="39">
         <v>25</v>
       </c>
       <c r="AH55" s="1">
@@ -4552,20 +4603,20 @@
       </c>
     </row>
     <row r="56" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A56" s="125" t="s">
-        <v>132</v>
-      </c>
-      <c r="B56" s="106" t="s">
+      <c r="A56" s="128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="106"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="106"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -4597,19 +4648,19 @@
       <c r="AM56" s="1"/>
     </row>
     <row r="57" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A57" s="108"/>
-      <c r="B57" s="106" t="s">
+      <c r="A57" s="129"/>
+      <c r="B57" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="106"/>
-      <c r="D57" s="106"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="106"/>
-      <c r="G57" s="106"/>
-      <c r="H57" s="106"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -4640,31 +4691,31 @@
       <c r="AM57" s="1"/>
     </row>
     <row r="58" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A58" s="126"/>
-      <c r="B58" s="106" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" s="106"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="106"/>
-      <c r="F58" s="106"/>
-      <c r="G58" s="106"/>
-      <c r="H58" s="106"/>
+      <c r="A58" s="130"/>
+      <c r="B58" s="116" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="39"/>
-      <c r="U58" s="39"/>
-      <c r="V58" s="39"/>
-      <c r="W58" s="39"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="38"/>
+      <c r="T58" s="38"/>
+      <c r="U58" s="38"/>
+      <c r="V58" s="38"/>
+      <c r="W58" s="38"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
@@ -4683,20 +4734,20 @@
       <c r="AM58" s="1"/>
     </row>
     <row r="59" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A59" s="107" t="s">
-        <v>142</v>
-      </c>
-      <c r="B59" s="106" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59" s="106"/>
-      <c r="D59" s="106"/>
-      <c r="E59" s="106"/>
-      <c r="F59" s="106"/>
-      <c r="G59" s="106"/>
-      <c r="H59" s="106"/>
-      <c r="I59" s="101"/>
-      <c r="J59" s="101"/>
+      <c r="A59" s="137" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="116" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="116"/>
+      <c r="H59" s="116"/>
+      <c r="I59" s="99"/>
+      <c r="J59" s="99"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -4728,21 +4779,21 @@
       <c r="AM59" s="1"/>
     </row>
     <row r="60" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A60" s="108"/>
-      <c r="B60" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="106"/>
-      <c r="D60" s="106"/>
-      <c r="E60" s="106"/>
-      <c r="F60" s="106"/>
-      <c r="G60" s="106"/>
-      <c r="H60" s="106"/>
+      <c r="A60" s="129"/>
+      <c r="B60" s="116" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="116"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="116"/>
+      <c r="H60" s="116"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -4771,22 +4822,22 @@
       <c r="AM60" s="1"/>
     </row>
     <row r="61" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A61" s="108"/>
-      <c r="B61" s="106" t="s">
-        <v>139</v>
-      </c>
-      <c r="C61" s="106"/>
-      <c r="D61" s="106"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="106"/>
-      <c r="G61" s="106"/>
-      <c r="H61" s="106"/>
+      <c r="A61" s="129"/>
+      <c r="B61" s="116" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
+      <c r="E61" s="116"/>
+      <c r="F61" s="116"/>
+      <c r="G61" s="116"/>
+      <c r="H61" s="116"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="39"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
@@ -4814,18 +4865,18 @@
       <c r="AM61" s="1"/>
     </row>
     <row r="62" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A62" s="108"/>
-      <c r="B62" s="106" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="106"/>
-      <c r="D62" s="106"/>
-      <c r="E62" s="106"/>
-      <c r="F62" s="106"/>
-      <c r="G62" s="106"/>
-      <c r="H62" s="106"/>
-      <c r="I62" s="71"/>
-      <c r="J62" s="71"/>
+      <c r="A62" s="129"/>
+      <c r="B62" s="116" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
+      <c r="E62" s="116"/>
+      <c r="F62" s="116"/>
+      <c r="G62" s="116"/>
+      <c r="H62" s="116"/>
+      <c r="I62" s="69"/>
+      <c r="J62" s="69"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -4857,19 +4908,19 @@
       <c r="AM62" s="1"/>
     </row>
     <row r="63" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A63" s="108"/>
-      <c r="B63" s="106" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="106"/>
-      <c r="D63" s="106"/>
-      <c r="E63" s="106"/>
-      <c r="F63" s="106"/>
-      <c r="G63" s="106"/>
-      <c r="H63" s="106"/>
+      <c r="A63" s="129"/>
+      <c r="B63" s="116" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
+      <c r="E63" s="116"/>
+      <c r="F63" s="116"/>
+      <c r="G63" s="116"/>
+      <c r="H63" s="116"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="71"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="69"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -4900,20 +4951,20 @@
       <c r="AM63" s="1"/>
     </row>
     <row r="64" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A64" s="108"/>
-      <c r="B64" s="106" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" s="106"/>
-      <c r="D64" s="106"/>
-      <c r="E64" s="106"/>
-      <c r="F64" s="106"/>
-      <c r="G64" s="106"/>
-      <c r="H64" s="106"/>
+      <c r="A64" s="129"/>
+      <c r="B64" s="116" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
+      <c r="E64" s="116"/>
+      <c r="F64" s="116"/>
+      <c r="G64" s="116"/>
+      <c r="H64" s="116"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="101"/>
-      <c r="K64" s="101"/>
-      <c r="L64" s="101"/>
+      <c r="J64" s="99"/>
+      <c r="K64" s="99"/>
+      <c r="L64" s="99"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -4943,14 +4994,14 @@
       <c r="AM64" s="1"/>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A65" s="108"/>
-      <c r="B65" s="106"/>
-      <c r="C65" s="106"/>
-      <c r="D65" s="106"/>
-      <c r="E65" s="106"/>
-      <c r="F65" s="106"/>
-      <c r="G65" s="106"/>
-      <c r="H65" s="106"/>
+      <c r="A65" s="129"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="116"/>
+      <c r="E65" s="116"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="116"/>
+      <c r="H65" s="116"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -4984,18 +5035,18 @@
       <c r="AM65" s="1"/>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A66" s="106" t="s">
+      <c r="A66" s="116" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="B66" s="105" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="106"/>
-      <c r="D66" s="106"/>
-      <c r="E66" s="106"/>
-      <c r="F66" s="106"/>
-      <c r="G66" s="106"/>
-      <c r="H66" s="106"/>
+      <c r="C66" s="116"/>
+      <c r="D66" s="116"/>
+      <c r="E66" s="116"/>
+      <c r="F66" s="116"/>
+      <c r="G66" s="116"/>
+      <c r="H66" s="116"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -5029,16 +5080,16 @@
       <c r="AM66" s="1"/>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A67" s="106"/>
-      <c r="B67" s="105" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="106"/>
-      <c r="D67" s="106"/>
-      <c r="E67" s="106"/>
-      <c r="F67" s="106"/>
-      <c r="G67" s="106"/>
-      <c r="H67" s="106"/>
+      <c r="A67" s="116"/>
+      <c r="B67" s="111" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="116"/>
+      <c r="D67" s="116"/>
+      <c r="E67" s="116"/>
+      <c r="F67" s="116"/>
+      <c r="G67" s="116"/>
+      <c r="H67" s="116"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -5072,16 +5123,16 @@
       <c r="AM67" s="1"/>
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A68" s="106"/>
-      <c r="B68" s="105" t="s">
-        <v>146</v>
-      </c>
-      <c r="C68" s="106"/>
-      <c r="D68" s="106"/>
-      <c r="E68" s="106"/>
-      <c r="F68" s="106"/>
-      <c r="G68" s="106"/>
-      <c r="H68" s="106"/>
+      <c r="A68" s="116"/>
+      <c r="B68" s="111" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="116"/>
+      <c r="D68" s="116"/>
+      <c r="E68" s="116"/>
+      <c r="F68" s="116"/>
+      <c r="G68" s="116"/>
+      <c r="H68" s="116"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -5115,14 +5166,14 @@
       <c r="AM68" s="1"/>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A69" s="106"/>
-      <c r="B69" s="105"/>
-      <c r="C69" s="106"/>
-      <c r="D69" s="106"/>
-      <c r="E69" s="106"/>
-      <c r="F69" s="106"/>
-      <c r="G69" s="106"/>
-      <c r="H69" s="106"/>
+      <c r="A69" s="116"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="116"/>
+      <c r="D69" s="116"/>
+      <c r="E69" s="116"/>
+      <c r="F69" s="116"/>
+      <c r="G69" s="116"/>
+      <c r="H69" s="116"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -5156,14 +5207,14 @@
       <c r="AM69" s="1"/>
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A70" s="106"/>
-      <c r="B70" s="105"/>
-      <c r="C70" s="106"/>
-      <c r="D70" s="106"/>
-      <c r="E70" s="106"/>
-      <c r="F70" s="106"/>
-      <c r="G70" s="106"/>
-      <c r="H70" s="106"/>
+      <c r="A70" s="116"/>
+      <c r="B70" s="111"/>
+      <c r="C70" s="116"/>
+      <c r="D70" s="116"/>
+      <c r="E70" s="116"/>
+      <c r="F70" s="116"/>
+      <c r="G70" s="116"/>
+      <c r="H70" s="116"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -5197,14 +5248,14 @@
       <c r="AM70" s="1"/>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A71" s="106"/>
-      <c r="B71" s="105"/>
-      <c r="C71" s="106"/>
-      <c r="D71" s="106"/>
-      <c r="E71" s="106"/>
-      <c r="F71" s="106"/>
-      <c r="G71" s="106"/>
-      <c r="H71" s="106"/>
+      <c r="A71" s="116"/>
+      <c r="B71" s="111"/>
+      <c r="C71" s="116"/>
+      <c r="D71" s="116"/>
+      <c r="E71" s="116"/>
+      <c r="F71" s="116"/>
+      <c r="G71" s="116"/>
+      <c r="H71" s="116"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -5238,455 +5289,455 @@
       <c r="AM71" s="1"/>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A72" s="34"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="35"/>
-      <c r="S72" s="35"/>
-      <c r="T72" s="35"/>
-      <c r="U72" s="35"/>
-      <c r="V72" s="35"/>
-      <c r="W72" s="35"/>
-      <c r="X72" s="35"/>
-      <c r="Y72" s="35"/>
-      <c r="Z72" s="35"/>
-      <c r="AA72" s="35"/>
-      <c r="AB72" s="35"/>
-      <c r="AC72" s="35"/>
-      <c r="AD72" s="35"/>
-      <c r="AE72" s="35"/>
-      <c r="AF72" s="35"/>
-      <c r="AG72" s="35"/>
-      <c r="AH72" s="35"/>
-      <c r="AI72" s="35"/>
-      <c r="AJ72" s="35"/>
-      <c r="AK72" s="35"/>
-      <c r="AL72" s="35"/>
-      <c r="AM72" s="35"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="34"/>
+      <c r="N72" s="34"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
+      <c r="Q72" s="34"/>
+      <c r="R72" s="34"/>
+      <c r="S72" s="34"/>
+      <c r="T72" s="34"/>
+      <c r="U72" s="34"/>
+      <c r="V72" s="34"/>
+      <c r="W72" s="34"/>
+      <c r="X72" s="34"/>
+      <c r="Y72" s="34"/>
+      <c r="Z72" s="34"/>
+      <c r="AA72" s="34"/>
+      <c r="AB72" s="34"/>
+      <c r="AC72" s="34"/>
+      <c r="AD72" s="34"/>
+      <c r="AE72" s="34"/>
+      <c r="AF72" s="34"/>
+      <c r="AG72" s="34"/>
+      <c r="AH72" s="34"/>
+      <c r="AI72" s="34"/>
+      <c r="AJ72" s="34"/>
+      <c r="AK72" s="34"/>
+      <c r="AL72" s="34"/>
+      <c r="AM72" s="34"/>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A73" s="34"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35"/>
-      <c r="S73" s="35"/>
-      <c r="T73" s="35"/>
-      <c r="U73" s="35"/>
-      <c r="V73" s="35"/>
-      <c r="W73" s="35"/>
-      <c r="X73" s="35"/>
-      <c r="Y73" s="35"/>
-      <c r="Z73" s="35"/>
-      <c r="AA73" s="35"/>
-      <c r="AB73" s="35"/>
-      <c r="AC73" s="35"/>
-      <c r="AD73" s="35"/>
-      <c r="AE73" s="35"/>
-      <c r="AF73" s="35"/>
-      <c r="AG73" s="35"/>
-      <c r="AH73" s="35"/>
-      <c r="AI73" s="35"/>
-      <c r="AJ73" s="35"/>
-      <c r="AK73" s="35"/>
-      <c r="AL73" s="35"/>
-      <c r="AM73" s="35"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="34"/>
+      <c r="N73" s="34"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
+      <c r="Q73" s="34"/>
+      <c r="R73" s="34"/>
+      <c r="S73" s="34"/>
+      <c r="T73" s="34"/>
+      <c r="U73" s="34"/>
+      <c r="V73" s="34"/>
+      <c r="W73" s="34"/>
+      <c r="X73" s="34"/>
+      <c r="Y73" s="34"/>
+      <c r="Z73" s="34"/>
+      <c r="AA73" s="34"/>
+      <c r="AB73" s="34"/>
+      <c r="AC73" s="34"/>
+      <c r="AD73" s="34"/>
+      <c r="AE73" s="34"/>
+      <c r="AF73" s="34"/>
+      <c r="AG73" s="34"/>
+      <c r="AH73" s="34"/>
+      <c r="AI73" s="34"/>
+      <c r="AJ73" s="34"/>
+      <c r="AK73" s="34"/>
+      <c r="AL73" s="34"/>
+      <c r="AM73" s="34"/>
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A74" s="34"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
-      <c r="S74" s="35"/>
-      <c r="T74" s="35"/>
-      <c r="U74" s="35"/>
-      <c r="V74" s="35"/>
-      <c r="W74" s="35"/>
-      <c r="X74" s="35"/>
-      <c r="Y74" s="35"/>
-      <c r="Z74" s="35"/>
-      <c r="AA74" s="35"/>
-      <c r="AB74" s="35"/>
-      <c r="AC74" s="35"/>
-      <c r="AD74" s="35"/>
-      <c r="AE74" s="35"/>
-      <c r="AF74" s="35"/>
-      <c r="AG74" s="35"/>
-      <c r="AH74" s="35"/>
-      <c r="AI74" s="35"/>
-      <c r="AJ74" s="35"/>
-      <c r="AK74" s="35"/>
-      <c r="AL74" s="35"/>
-      <c r="AM74" s="35"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="34"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
+      <c r="Q74" s="34"/>
+      <c r="R74" s="34"/>
+      <c r="S74" s="34"/>
+      <c r="T74" s="34"/>
+      <c r="U74" s="34"/>
+      <c r="V74" s="34"/>
+      <c r="W74" s="34"/>
+      <c r="X74" s="34"/>
+      <c r="Y74" s="34"/>
+      <c r="Z74" s="34"/>
+      <c r="AA74" s="34"/>
+      <c r="AB74" s="34"/>
+      <c r="AC74" s="34"/>
+      <c r="AD74" s="34"/>
+      <c r="AE74" s="34"/>
+      <c r="AF74" s="34"/>
+      <c r="AG74" s="34"/>
+      <c r="AH74" s="34"/>
+      <c r="AI74" s="34"/>
+      <c r="AJ74" s="34"/>
+      <c r="AK74" s="34"/>
+      <c r="AL74" s="34"/>
+      <c r="AM74" s="34"/>
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A75" s="34"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="35"/>
-      <c r="N75" s="35"/>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
-      <c r="S75" s="35"/>
-      <c r="T75" s="35"/>
-      <c r="U75" s="35"/>
-      <c r="V75" s="35"/>
-      <c r="W75" s="35"/>
-      <c r="X75" s="35"/>
-      <c r="Y75" s="35"/>
-      <c r="Z75" s="35"/>
-      <c r="AA75" s="35"/>
-      <c r="AB75" s="35"/>
-      <c r="AC75" s="35"/>
-      <c r="AD75" s="35"/>
-      <c r="AE75" s="35"/>
-      <c r="AF75" s="35"/>
-      <c r="AG75" s="35"/>
-      <c r="AH75" s="35"/>
-      <c r="AI75" s="35"/>
-      <c r="AJ75" s="35"/>
-      <c r="AK75" s="35"/>
-      <c r="AL75" s="35"/>
-      <c r="AM75" s="35"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="34"/>
+      <c r="N75" s="34"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
+      <c r="Q75" s="34"/>
+      <c r="R75" s="34"/>
+      <c r="S75" s="34"/>
+      <c r="T75" s="34"/>
+      <c r="U75" s="34"/>
+      <c r="V75" s="34"/>
+      <c r="W75" s="34"/>
+      <c r="X75" s="34"/>
+      <c r="Y75" s="34"/>
+      <c r="Z75" s="34"/>
+      <c r="AA75" s="34"/>
+      <c r="AB75" s="34"/>
+      <c r="AC75" s="34"/>
+      <c r="AD75" s="34"/>
+      <c r="AE75" s="34"/>
+      <c r="AF75" s="34"/>
+      <c r="AG75" s="34"/>
+      <c r="AH75" s="34"/>
+      <c r="AI75" s="34"/>
+      <c r="AJ75" s="34"/>
+      <c r="AK75" s="34"/>
+      <c r="AL75" s="34"/>
+      <c r="AM75" s="34"/>
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A76" s="34"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="35"/>
-      <c r="N76" s="35"/>
-      <c r="O76" s="35"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="35"/>
-      <c r="R76" s="35"/>
-      <c r="S76" s="35"/>
-      <c r="T76" s="35"/>
-      <c r="U76" s="35"/>
-      <c r="V76" s="35"/>
-      <c r="W76" s="35"/>
-      <c r="X76" s="35"/>
-      <c r="Y76" s="35"/>
-      <c r="Z76" s="35"/>
-      <c r="AA76" s="35"/>
-      <c r="AB76" s="35"/>
-      <c r="AC76" s="35"/>
-      <c r="AD76" s="35"/>
-      <c r="AE76" s="35"/>
-      <c r="AF76" s="35"/>
-      <c r="AG76" s="35"/>
-      <c r="AH76" s="35"/>
-      <c r="AI76" s="35"/>
-      <c r="AJ76" s="35"/>
-      <c r="AK76" s="35"/>
-      <c r="AL76" s="35"/>
-      <c r="AM76" s="35"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="34"/>
+      <c r="N76" s="34"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="34"/>
+      <c r="Q76" s="34"/>
+      <c r="R76" s="34"/>
+      <c r="S76" s="34"/>
+      <c r="T76" s="34"/>
+      <c r="U76" s="34"/>
+      <c r="V76" s="34"/>
+      <c r="W76" s="34"/>
+      <c r="X76" s="34"/>
+      <c r="Y76" s="34"/>
+      <c r="Z76" s="34"/>
+      <c r="AA76" s="34"/>
+      <c r="AB76" s="34"/>
+      <c r="AC76" s="34"/>
+      <c r="AD76" s="34"/>
+      <c r="AE76" s="34"/>
+      <c r="AF76" s="34"/>
+      <c r="AG76" s="34"/>
+      <c r="AH76" s="34"/>
+      <c r="AI76" s="34"/>
+      <c r="AJ76" s="34"/>
+      <c r="AK76" s="34"/>
+      <c r="AL76" s="34"/>
+      <c r="AM76" s="34"/>
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A77" s="34"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="35"/>
-      <c r="N77" s="35"/>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
-      <c r="S77" s="35"/>
-      <c r="T77" s="35"/>
-      <c r="U77" s="35"/>
-      <c r="V77" s="35"/>
-      <c r="W77" s="35"/>
-      <c r="X77" s="35"/>
-      <c r="Y77" s="35"/>
-      <c r="Z77" s="35"/>
-      <c r="AA77" s="35"/>
-      <c r="AB77" s="35"/>
-      <c r="AC77" s="35"/>
-      <c r="AD77" s="35"/>
-      <c r="AE77" s="35"/>
-      <c r="AF77" s="35"/>
-      <c r="AG77" s="35"/>
-      <c r="AH77" s="35"/>
-      <c r="AI77" s="35"/>
-      <c r="AJ77" s="35"/>
-      <c r="AK77" s="35"/>
-      <c r="AL77" s="35"/>
-      <c r="AM77" s="35"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="34"/>
+      <c r="M77" s="34"/>
+      <c r="N77" s="34"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
+      <c r="Q77" s="34"/>
+      <c r="R77" s="34"/>
+      <c r="S77" s="34"/>
+      <c r="T77" s="34"/>
+      <c r="U77" s="34"/>
+      <c r="V77" s="34"/>
+      <c r="W77" s="34"/>
+      <c r="X77" s="34"/>
+      <c r="Y77" s="34"/>
+      <c r="Z77" s="34"/>
+      <c r="AA77" s="34"/>
+      <c r="AB77" s="34"/>
+      <c r="AC77" s="34"/>
+      <c r="AD77" s="34"/>
+      <c r="AE77" s="34"/>
+      <c r="AF77" s="34"/>
+      <c r="AG77" s="34"/>
+      <c r="AH77" s="34"/>
+      <c r="AI77" s="34"/>
+      <c r="AJ77" s="34"/>
+      <c r="AK77" s="34"/>
+      <c r="AL77" s="34"/>
+      <c r="AM77" s="34"/>
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A78" s="34"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="35"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="35"/>
-      <c r="N78" s="35"/>
-      <c r="O78" s="35"/>
-      <c r="P78" s="35"/>
-      <c r="Q78" s="35"/>
-      <c r="R78" s="35"/>
-      <c r="S78" s="35"/>
-      <c r="T78" s="35"/>
-      <c r="U78" s="35"/>
-      <c r="V78" s="35"/>
-      <c r="W78" s="35"/>
-      <c r="X78" s="35"/>
-      <c r="Y78" s="35"/>
-      <c r="Z78" s="35"/>
-      <c r="AA78" s="35"/>
-      <c r="AB78" s="35"/>
-      <c r="AC78" s="35"/>
-      <c r="AD78" s="35"/>
-      <c r="AE78" s="35"/>
-      <c r="AF78" s="35"/>
-      <c r="AG78" s="35"/>
-      <c r="AH78" s="35"/>
-      <c r="AI78" s="35"/>
-      <c r="AJ78" s="35"/>
-      <c r="AK78" s="35"/>
-      <c r="AL78" s="35"/>
-      <c r="AM78" s="35"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="34"/>
+      <c r="N78" s="34"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="34"/>
+      <c r="S78" s="34"/>
+      <c r="T78" s="34"/>
+      <c r="U78" s="34"/>
+      <c r="V78" s="34"/>
+      <c r="W78" s="34"/>
+      <c r="X78" s="34"/>
+      <c r="Y78" s="34"/>
+      <c r="Z78" s="34"/>
+      <c r="AA78" s="34"/>
+      <c r="AB78" s="34"/>
+      <c r="AC78" s="34"/>
+      <c r="AD78" s="34"/>
+      <c r="AE78" s="34"/>
+      <c r="AF78" s="34"/>
+      <c r="AG78" s="34"/>
+      <c r="AH78" s="34"/>
+      <c r="AI78" s="34"/>
+      <c r="AJ78" s="34"/>
+      <c r="AK78" s="34"/>
+      <c r="AL78" s="34"/>
+      <c r="AM78" s="34"/>
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A79" s="34"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="35"/>
-      <c r="K79" s="35"/>
-      <c r="L79" s="35"/>
-      <c r="M79" s="35"/>
-      <c r="N79" s="35"/>
-      <c r="O79" s="35"/>
-      <c r="P79" s="35"/>
-      <c r="Q79" s="35"/>
-      <c r="R79" s="35"/>
-      <c r="S79" s="35"/>
-      <c r="T79" s="35"/>
-      <c r="U79" s="35"/>
-      <c r="V79" s="35"/>
-      <c r="W79" s="35"/>
-      <c r="X79" s="35"/>
-      <c r="Y79" s="35"/>
-      <c r="Z79" s="35"/>
-      <c r="AA79" s="35"/>
-      <c r="AB79" s="35"/>
-      <c r="AC79" s="35"/>
-      <c r="AD79" s="35"/>
-      <c r="AE79" s="35"/>
-      <c r="AF79" s="35"/>
-      <c r="AG79" s="35"/>
-      <c r="AH79" s="35"/>
-      <c r="AI79" s="35"/>
-      <c r="AJ79" s="35"/>
-      <c r="AK79" s="35"/>
-      <c r="AL79" s="35"/>
-      <c r="AM79" s="35"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="34"/>
+      <c r="N79" s="34"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
+      <c r="Q79" s="34"/>
+      <c r="R79" s="34"/>
+      <c r="S79" s="34"/>
+      <c r="T79" s="34"/>
+      <c r="U79" s="34"/>
+      <c r="V79" s="34"/>
+      <c r="W79" s="34"/>
+      <c r="X79" s="34"/>
+      <c r="Y79" s="34"/>
+      <c r="Z79" s="34"/>
+      <c r="AA79" s="34"/>
+      <c r="AB79" s="34"/>
+      <c r="AC79" s="34"/>
+      <c r="AD79" s="34"/>
+      <c r="AE79" s="34"/>
+      <c r="AF79" s="34"/>
+      <c r="AG79" s="34"/>
+      <c r="AH79" s="34"/>
+      <c r="AI79" s="34"/>
+      <c r="AJ79" s="34"/>
+      <c r="AK79" s="34"/>
+      <c r="AL79" s="34"/>
+      <c r="AM79" s="34"/>
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A80" s="34"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="35"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="35"/>
-      <c r="M80" s="35"/>
-      <c r="N80" s="35"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
-      <c r="R80" s="35"/>
-      <c r="S80" s="35"/>
-      <c r="T80" s="35"/>
-      <c r="U80" s="35"/>
-      <c r="V80" s="35"/>
-      <c r="W80" s="35"/>
-      <c r="X80" s="35"/>
-      <c r="Y80" s="35"/>
-      <c r="Z80" s="35"/>
-      <c r="AA80" s="35"/>
-      <c r="AB80" s="35"/>
-      <c r="AC80" s="35"/>
-      <c r="AD80" s="35"/>
-      <c r="AE80" s="35"/>
-      <c r="AF80" s="35"/>
-      <c r="AG80" s="35"/>
-      <c r="AH80" s="35"/>
-      <c r="AI80" s="35"/>
-      <c r="AJ80" s="35"/>
-      <c r="AK80" s="35"/>
-      <c r="AL80" s="35"/>
-      <c r="AM80" s="35"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="34"/>
+      <c r="N80" s="34"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34"/>
+      <c r="Q80" s="34"/>
+      <c r="R80" s="34"/>
+      <c r="S80" s="34"/>
+      <c r="T80" s="34"/>
+      <c r="U80" s="34"/>
+      <c r="V80" s="34"/>
+      <c r="W80" s="34"/>
+      <c r="X80" s="34"/>
+      <c r="Y80" s="34"/>
+      <c r="Z80" s="34"/>
+      <c r="AA80" s="34"/>
+      <c r="AB80" s="34"/>
+      <c r="AC80" s="34"/>
+      <c r="AD80" s="34"/>
+      <c r="AE80" s="34"/>
+      <c r="AF80" s="34"/>
+      <c r="AG80" s="34"/>
+      <c r="AH80" s="34"/>
+      <c r="AI80" s="34"/>
+      <c r="AJ80" s="34"/>
+      <c r="AK80" s="34"/>
+      <c r="AL80" s="34"/>
+      <c r="AM80" s="34"/>
     </row>
     <row r="81" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A81" s="34"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="35"/>
-      <c r="K81" s="35"/>
-      <c r="L81" s="35"/>
-      <c r="M81" s="35"/>
-      <c r="N81" s="35"/>
-      <c r="O81" s="35"/>
-      <c r="P81" s="35"/>
-      <c r="Q81" s="35"/>
-      <c r="R81" s="35"/>
-      <c r="S81" s="35"/>
-      <c r="T81" s="35"/>
-      <c r="U81" s="35"/>
-      <c r="V81" s="35"/>
-      <c r="W81" s="35"/>
-      <c r="X81" s="35"/>
-      <c r="Y81" s="35"/>
-      <c r="Z81" s="35"/>
-      <c r="AA81" s="35"/>
-      <c r="AB81" s="35"/>
-      <c r="AC81" s="35"/>
-      <c r="AD81" s="35"/>
-      <c r="AE81" s="35"/>
-      <c r="AF81" s="35"/>
-      <c r="AG81" s="35"/>
-      <c r="AH81" s="35"/>
-      <c r="AI81" s="35"/>
-      <c r="AJ81" s="35"/>
-      <c r="AK81" s="35"/>
-      <c r="AL81" s="35"/>
-      <c r="AM81" s="35"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="34"/>
+      <c r="M81" s="34"/>
+      <c r="N81" s="34"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
+      <c r="Q81" s="34"/>
+      <c r="R81" s="34"/>
+      <c r="S81" s="34"/>
+      <c r="T81" s="34"/>
+      <c r="U81" s="34"/>
+      <c r="V81" s="34"/>
+      <c r="W81" s="34"/>
+      <c r="X81" s="34"/>
+      <c r="Y81" s="34"/>
+      <c r="Z81" s="34"/>
+      <c r="AA81" s="34"/>
+      <c r="AB81" s="34"/>
+      <c r="AC81" s="34"/>
+      <c r="AD81" s="34"/>
+      <c r="AE81" s="34"/>
+      <c r="AF81" s="34"/>
+      <c r="AG81" s="34"/>
+      <c r="AH81" s="34"/>
+      <c r="AI81" s="34"/>
+      <c r="AJ81" s="34"/>
+      <c r="AK81" s="34"/>
+      <c r="AL81" s="34"/>
+      <c r="AM81" s="34"/>
     </row>
     <row r="82" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A82" s="34"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="35"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="35"/>
-      <c r="Q82" s="35"/>
-      <c r="R82" s="35"/>
-      <c r="S82" s="35"/>
-      <c r="T82" s="35"/>
-      <c r="U82" s="35"/>
-      <c r="V82" s="35"/>
-      <c r="W82" s="35"/>
-      <c r="X82" s="35"/>
-      <c r="Y82" s="35"/>
-      <c r="Z82" s="35"/>
-      <c r="AA82" s="35"/>
-      <c r="AB82" s="35"/>
-      <c r="AC82" s="35"/>
-      <c r="AD82" s="35"/>
-      <c r="AE82" s="35"/>
-      <c r="AF82" s="35"/>
-      <c r="AG82" s="35"/>
-      <c r="AH82" s="35"/>
-      <c r="AI82" s="35"/>
-      <c r="AJ82" s="35"/>
-      <c r="AK82" s="35"/>
-      <c r="AL82" s="35"/>
-      <c r="AM82" s="35"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="34"/>
+      <c r="M82" s="34"/>
+      <c r="N82" s="34"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
+      <c r="Q82" s="34"/>
+      <c r="R82" s="34"/>
+      <c r="S82" s="34"/>
+      <c r="T82" s="34"/>
+      <c r="U82" s="34"/>
+      <c r="V82" s="34"/>
+      <c r="W82" s="34"/>
+      <c r="X82" s="34"/>
+      <c r="Y82" s="34"/>
+      <c r="Z82" s="34"/>
+      <c r="AA82" s="34"/>
+      <c r="AB82" s="34"/>
+      <c r="AC82" s="34"/>
+      <c r="AD82" s="34"/>
+      <c r="AE82" s="34"/>
+      <c r="AF82" s="34"/>
+      <c r="AG82" s="34"/>
+      <c r="AH82" s="34"/>
+      <c r="AI82" s="34"/>
+      <c r="AJ82" s="34"/>
+      <c r="AK82" s="34"/>
+      <c r="AL82" s="34"/>
+      <c r="AM82" s="34"/>
     </row>
     <row r="85" spans="1:39" x14ac:dyDescent="0.3">
       <c r="I85" t="s">
@@ -5694,18 +5745,18 @@
       </c>
     </row>
     <row r="86" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A86" s="38" t="s">
+      <c r="A86" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="124" t="s">
+      <c r="B86" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="C86" s="124"/>
-      <c r="D86" s="124"/>
-      <c r="E86" s="124"/>
-      <c r="F86" s="124"/>
-      <c r="G86" s="124"/>
-      <c r="H86" s="124"/>
+      <c r="C86" s="131"/>
+      <c r="D86" s="131"/>
+      <c r="E86" s="131"/>
+      <c r="F86" s="131"/>
+      <c r="G86" s="131"/>
+      <c r="H86" s="131"/>
       <c r="I86" s="1">
         <v>1</v>
       </c>
@@ -5801,14 +5852,14 @@
       </c>
     </row>
     <row r="87" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A87" s="125"/>
+      <c r="A87" s="128"/>
       <c r="B87" s="109"/>
       <c r="C87" s="110"/>
       <c r="D87" s="110"/>
       <c r="E87" s="110"/>
       <c r="F87" s="110"/>
       <c r="G87" s="110"/>
-      <c r="H87" s="105"/>
+      <c r="H87" s="111"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -5842,14 +5893,14 @@
       <c r="AM87" s="1"/>
     </row>
     <row r="88" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A88" s="108"/>
+      <c r="A88" s="129"/>
       <c r="B88" s="109"/>
       <c r="C88" s="110"/>
       <c r="D88" s="110"/>
       <c r="E88" s="110"/>
       <c r="F88" s="110"/>
       <c r="G88" s="110"/>
-      <c r="H88" s="105"/>
+      <c r="H88" s="111"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -5883,14 +5934,14 @@
       <c r="AM88" s="1"/>
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A89" s="108"/>
+      <c r="A89" s="129"/>
       <c r="B89" s="109"/>
       <c r="C89" s="110"/>
       <c r="D89" s="110"/>
       <c r="E89" s="110"/>
       <c r="F89" s="110"/>
       <c r="G89" s="110"/>
-      <c r="H89" s="105"/>
+      <c r="H89" s="111"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -5924,14 +5975,14 @@
       <c r="AM89" s="1"/>
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A90" s="108"/>
+      <c r="A90" s="129"/>
       <c r="B90" s="109"/>
       <c r="C90" s="110"/>
       <c r="D90" s="110"/>
       <c r="E90" s="110"/>
       <c r="F90" s="110"/>
       <c r="G90" s="110"/>
-      <c r="H90" s="105"/>
+      <c r="H90" s="111"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -5965,14 +6016,14 @@
       <c r="AM90" s="1"/>
     </row>
     <row r="91" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A91" s="108"/>
+      <c r="A91" s="129"/>
       <c r="B91" s="109"/>
       <c r="C91" s="110"/>
       <c r="D91" s="110"/>
       <c r="E91" s="110"/>
       <c r="F91" s="110"/>
       <c r="G91" s="110"/>
-      <c r="H91" s="105"/>
+      <c r="H91" s="111"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -6006,14 +6057,14 @@
       <c r="AM91" s="1"/>
     </row>
     <row r="92" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A92" s="126"/>
+      <c r="A92" s="130"/>
       <c r="B92" s="109"/>
       <c r="C92" s="110"/>
       <c r="D92" s="110"/>
       <c r="E92" s="110"/>
       <c r="F92" s="110"/>
       <c r="G92" s="110"/>
-      <c r="H92" s="105"/>
+      <c r="H92" s="111"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -6052,18 +6103,18 @@
       </c>
     </row>
     <row r="96" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A96" s="38" t="s">
+      <c r="A96" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B96" s="124" t="s">
+      <c r="B96" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="124"/>
-      <c r="D96" s="124"/>
-      <c r="E96" s="124"/>
-      <c r="F96" s="124"/>
-      <c r="G96" s="124"/>
-      <c r="H96" s="124"/>
+      <c r="C96" s="131"/>
+      <c r="D96" s="131"/>
+      <c r="E96" s="131"/>
+      <c r="F96" s="131"/>
+      <c r="G96" s="131"/>
+      <c r="H96" s="131"/>
       <c r="I96" s="1">
         <v>1</v>
       </c>
@@ -6159,14 +6210,14 @@
       </c>
     </row>
     <row r="97" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A97" s="106"/>
-      <c r="B97" s="106"/>
-      <c r="C97" s="106"/>
-      <c r="D97" s="106"/>
-      <c r="E97" s="106"/>
-      <c r="F97" s="106"/>
-      <c r="G97" s="106"/>
-      <c r="H97" s="106"/>
+      <c r="A97" s="116"/>
+      <c r="B97" s="116"/>
+      <c r="C97" s="116"/>
+      <c r="D97" s="116"/>
+      <c r="E97" s="116"/>
+      <c r="F97" s="116"/>
+      <c r="G97" s="116"/>
+      <c r="H97" s="116"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -6200,14 +6251,14 @@
       <c r="AM97" s="1"/>
     </row>
     <row r="98" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A98" s="106"/>
-      <c r="B98" s="106"/>
-      <c r="C98" s="106"/>
-      <c r="D98" s="106"/>
-      <c r="E98" s="106"/>
-      <c r="F98" s="106"/>
-      <c r="G98" s="106"/>
-      <c r="H98" s="106"/>
+      <c r="A98" s="116"/>
+      <c r="B98" s="116"/>
+      <c r="C98" s="116"/>
+      <c r="D98" s="116"/>
+      <c r="E98" s="116"/>
+      <c r="F98" s="116"/>
+      <c r="G98" s="116"/>
+      <c r="H98" s="116"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -6241,14 +6292,14 @@
       <c r="AM98" s="1"/>
     </row>
     <row r="99" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A99" s="106"/>
-      <c r="B99" s="106"/>
-      <c r="C99" s="106"/>
-      <c r="D99" s="106"/>
-      <c r="E99" s="106"/>
-      <c r="F99" s="106"/>
-      <c r="G99" s="106"/>
-      <c r="H99" s="106"/>
+      <c r="A99" s="116"/>
+      <c r="B99" s="116"/>
+      <c r="C99" s="116"/>
+      <c r="D99" s="116"/>
+      <c r="E99" s="116"/>
+      <c r="F99" s="116"/>
+      <c r="G99" s="116"/>
+      <c r="H99" s="116"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -6282,14 +6333,14 @@
       <c r="AM99" s="1"/>
     </row>
     <row r="100" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A100" s="106"/>
-      <c r="B100" s="106"/>
-      <c r="C100" s="106"/>
-      <c r="D100" s="106"/>
-      <c r="E100" s="106"/>
-      <c r="F100" s="106"/>
-      <c r="G100" s="106"/>
-      <c r="H100" s="106"/>
+      <c r="A100" s="116"/>
+      <c r="B100" s="116"/>
+      <c r="C100" s="116"/>
+      <c r="D100" s="116"/>
+      <c r="E100" s="116"/>
+      <c r="F100" s="116"/>
+      <c r="G100" s="116"/>
+      <c r="H100" s="116"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -6323,14 +6374,14 @@
       <c r="AM100" s="1"/>
     </row>
     <row r="101" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A101" s="106"/>
-      <c r="B101" s="106"/>
-      <c r="C101" s="106"/>
-      <c r="D101" s="106"/>
-      <c r="E101" s="106"/>
-      <c r="F101" s="106"/>
-      <c r="G101" s="106"/>
-      <c r="H101" s="106"/>
+      <c r="A101" s="116"/>
+      <c r="B101" s="116"/>
+      <c r="C101" s="116"/>
+      <c r="D101" s="116"/>
+      <c r="E101" s="116"/>
+      <c r="F101" s="116"/>
+      <c r="G101" s="116"/>
+      <c r="H101" s="116"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -6364,14 +6415,14 @@
       <c r="AM101" s="1"/>
     </row>
     <row r="102" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A102" s="106"/>
-      <c r="B102" s="106"/>
-      <c r="C102" s="106"/>
-      <c r="D102" s="106"/>
-      <c r="E102" s="106"/>
-      <c r="F102" s="106"/>
-      <c r="G102" s="106"/>
-      <c r="H102" s="106"/>
+      <c r="A102" s="116"/>
+      <c r="B102" s="116"/>
+      <c r="C102" s="116"/>
+      <c r="D102" s="116"/>
+      <c r="E102" s="116"/>
+      <c r="F102" s="116"/>
+      <c r="G102" s="116"/>
+      <c r="H102" s="116"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -6406,11 +6457,69 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="AX49:BD49"/>
+    <mergeCell ref="AX50:BD50"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="B98:H98"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="B100:H100"/>
+    <mergeCell ref="B101:H101"/>
+    <mergeCell ref="B102:H102"/>
+    <mergeCell ref="B96:H96"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:H60"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="A37:A43"/>
@@ -6427,69 +6536,11 @@
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="B34:H34"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B96:H96"/>
-    <mergeCell ref="B86:H86"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="B92:H92"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="B98:H98"/>
-    <mergeCell ref="B99:H99"/>
-    <mergeCell ref="B100:H100"/>
-    <mergeCell ref="B101:H101"/>
-    <mergeCell ref="B102:H102"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="AX49:BD49"/>
-    <mergeCell ref="AX50:BD50"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6501,8 +6552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AP43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6513,118 +6564,121 @@
     <col min="5" max="5" width="29.125" customWidth="1"/>
     <col min="6" max="6" width="38.25" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="8" max="8" width="25.375" customWidth="1"/>
+    <col min="9" max="9" width="27.75" customWidth="1"/>
+    <col min="10" max="23" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147" t="s">
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147" t="s">
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147" t="s">
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147" t="s">
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="147"/>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147" t="s">
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="147"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="147" t="s">
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="147"/>
-      <c r="AC2" s="147"/>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147" t="s">
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="143"/>
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="147"/>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="147" t="s">
+      <c r="AF2" s="143"/>
+      <c r="AG2" s="143"/>
+      <c r="AH2" s="143"/>
+      <c r="AI2" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="AJ2" s="147"/>
-      <c r="AK2" s="147"/>
-      <c r="AL2" s="147"/>
-      <c r="AM2" s="147" t="s">
+      <c r="AJ2" s="143"/>
+      <c r="AK2" s="143"/>
+      <c r="AL2" s="143"/>
+      <c r="AM2" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="AN2" s="147"/>
-      <c r="AO2" s="147"/>
-      <c r="AP2" s="147"/>
+      <c r="AN2" s="143"/>
+      <c r="AO2" s="143"/>
+      <c r="AP2" s="143"/>
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148" t="s">
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="148"/>
-      <c r="O3" s="148"/>
-      <c r="P3" s="148"/>
-      <c r="Q3" s="148"/>
-      <c r="R3" s="148"/>
-      <c r="S3" s="148"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="148"/>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="148"/>
-      <c r="AC3" s="148"/>
-      <c r="AD3" s="148"/>
-      <c r="AE3" s="148"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="148"/>
-      <c r="AH3" s="148"/>
-      <c r="AI3" s="148"/>
-      <c r="AJ3" s="148"/>
-      <c r="AK3" s="148"/>
-      <c r="AL3" s="148"/>
-      <c r="AM3" s="148"/>
-      <c r="AN3" s="148"/>
-      <c r="AO3" s="148"/>
-      <c r="AP3" s="148"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="144"/>
+      <c r="T3" s="144"/>
+      <c r="U3" s="144"/>
+      <c r="V3" s="144"/>
+      <c r="W3" s="144"/>
+      <c r="X3" s="144"/>
+      <c r="Y3" s="144"/>
+      <c r="Z3" s="144"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="144"/>
+      <c r="AC3" s="144"/>
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="144"/>
+      <c r="AF3" s="144"/>
+      <c r="AG3" s="144"/>
+      <c r="AH3" s="144"/>
+      <c r="AI3" s="144"/>
+      <c r="AJ3" s="144"/>
+      <c r="AK3" s="144"/>
+      <c r="AL3" s="144"/>
+      <c r="AM3" s="144"/>
+      <c r="AN3" s="144"/>
+      <c r="AO3" s="144"/>
+      <c r="AP3" s="144"/>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B4" s="9"/>
@@ -6750,7 +6804,7 @@
       </c>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="138" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="4"/>
@@ -6758,11 +6812,11 @@
       <c r="E5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="154" t="s">
+      <c r="F5" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="155"/>
-      <c r="H5" s="29"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
@@ -6799,18 +6853,20 @@
       <c r="AP5" s="26"/>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B6" s="152"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="6"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="6"/>
+      <c r="H6" s="157" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="158"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -6846,18 +6902,20 @@
       <c r="AP6" s="3"/>
     </row>
     <row r="7" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B7" s="152"/>
+      <c r="B7" s="139"/>
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="156" t="s">
+      <c r="E7" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="157"/>
-      <c r="G7" s="33" t="s">
+      <c r="F7" s="146"/>
+      <c r="G7" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="159" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" s="158"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -6893,17 +6951,19 @@
       <c r="AP7" s="3"/>
     </row>
     <row r="8" spans="2:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="152"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="7"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="149" t="s">
+      <c r="E8" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="150"/>
+      <c r="F8" s="148"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="H8" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="160"/>
+      <c r="J8" s="158"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -6938,16 +6998,18 @@
       <c r="AP8" s="5"/>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B9" s="152"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="H9" s="157" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="160"/>
+      <c r="J9" s="158"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -6982,7 +7044,7 @@
       <c r="AP9" s="3"/>
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B10" s="152"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="27" t="s">
@@ -6990,8 +7052,10 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="157" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="158"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -7027,7 +7091,7 @@
       <c r="AP10" s="3"/>
     </row>
     <row r="11" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B11" s="152"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -7035,8 +7099,10 @@
         <v>29</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="157" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" s="158"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -7072,7 +7138,7 @@
       <c r="AP11" s="3"/>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B12" s="152"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -7081,7 +7147,9 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -7117,7 +7185,7 @@
       <c r="AP12" s="3"/>
     </row>
     <row r="13" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B13" s="152"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -7127,8 +7195,8 @@
       <c r="G13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="158"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -7164,7 +7232,7 @@
       <c r="AP13" s="3"/>
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B14" s="152"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
@@ -7211,14 +7279,14 @@
       <c r="AP14" s="3"/>
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B15" s="152"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="154" t="s">
+      <c r="F15" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="155"/>
+      <c r="G15" s="142"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -7256,7 +7324,7 @@
       <c r="AP15" s="3"/>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B16" s="152"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -7299,7 +7367,7 @@
       <c r="AP16" s="3"/>
     </row>
     <row r="17" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B17" s="153"/>
+      <c r="B17" s="140"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -7342,118 +7410,118 @@
       <c r="AP17" s="3"/>
     </row>
     <row r="20" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="C20" s="147" t="s">
+      <c r="C20" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147" t="s">
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147" t="s">
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="147"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147"/>
-      <c r="O20" s="147" t="s">
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="P20" s="147"/>
-      <c r="Q20" s="147"/>
-      <c r="R20" s="147"/>
-      <c r="S20" s="147" t="s">
+      <c r="P20" s="143"/>
+      <c r="Q20" s="143"/>
+      <c r="R20" s="143"/>
+      <c r="S20" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="147"/>
-      <c r="U20" s="147"/>
-      <c r="V20" s="147"/>
-      <c r="W20" s="147" t="s">
+      <c r="T20" s="143"/>
+      <c r="U20" s="143"/>
+      <c r="V20" s="143"/>
+      <c r="W20" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="X20" s="147"/>
-      <c r="Y20" s="147"/>
-      <c r="Z20" s="147"/>
-      <c r="AA20" s="147" t="s">
+      <c r="X20" s="143"/>
+      <c r="Y20" s="143"/>
+      <c r="Z20" s="143"/>
+      <c r="AA20" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AB20" s="147"/>
-      <c r="AC20" s="147"/>
-      <c r="AD20" s="147"/>
-      <c r="AE20" s="147" t="s">
+      <c r="AB20" s="143"/>
+      <c r="AC20" s="143"/>
+      <c r="AD20" s="143"/>
+      <c r="AE20" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="AF20" s="147"/>
-      <c r="AG20" s="147"/>
-      <c r="AH20" s="147"/>
-      <c r="AI20" s="147" t="s">
+      <c r="AF20" s="143"/>
+      <c r="AG20" s="143"/>
+      <c r="AH20" s="143"/>
+      <c r="AI20" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="AJ20" s="147"/>
-      <c r="AK20" s="147"/>
-      <c r="AL20" s="147"/>
-      <c r="AM20" s="147" t="s">
+      <c r="AJ20" s="143"/>
+      <c r="AK20" s="143"/>
+      <c r="AL20" s="143"/>
+      <c r="AM20" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="AN20" s="147"/>
-      <c r="AO20" s="147"/>
-      <c r="AP20" s="147"/>
+      <c r="AN20" s="143"/>
+      <c r="AO20" s="143"/>
+      <c r="AP20" s="143"/>
     </row>
     <row r="21" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="148" t="s">
+      <c r="C21" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148" t="s">
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="148"/>
-      <c r="K21" s="148"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="148"/>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="148"/>
-      <c r="R21" s="148"/>
-      <c r="S21" s="148"/>
-      <c r="T21" s="148"/>
-      <c r="U21" s="148"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="148"/>
-      <c r="X21" s="148"/>
-      <c r="Y21" s="148"/>
-      <c r="Z21" s="148"/>
-      <c r="AA21" s="148"/>
-      <c r="AB21" s="148"/>
-      <c r="AC21" s="148"/>
-      <c r="AD21" s="148"/>
-      <c r="AE21" s="148"/>
-      <c r="AF21" s="148"/>
-      <c r="AG21" s="148"/>
-      <c r="AH21" s="148"/>
-      <c r="AI21" s="148"/>
-      <c r="AJ21" s="148"/>
-      <c r="AK21" s="148"/>
-      <c r="AL21" s="148"/>
-      <c r="AM21" s="148"/>
-      <c r="AN21" s="148"/>
-      <c r="AO21" s="148"/>
-      <c r="AP21" s="148"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="144"/>
+      <c r="N21" s="144"/>
+      <c r="O21" s="144"/>
+      <c r="P21" s="144"/>
+      <c r="Q21" s="144"/>
+      <c r="R21" s="144"/>
+      <c r="S21" s="144"/>
+      <c r="T21" s="144"/>
+      <c r="U21" s="144"/>
+      <c r="V21" s="144"/>
+      <c r="W21" s="144"/>
+      <c r="X21" s="144"/>
+      <c r="Y21" s="144"/>
+      <c r="Z21" s="144"/>
+      <c r="AA21" s="144"/>
+      <c r="AB21" s="144"/>
+      <c r="AC21" s="144"/>
+      <c r="AD21" s="144"/>
+      <c r="AE21" s="144"/>
+      <c r="AF21" s="144"/>
+      <c r="AG21" s="144"/>
+      <c r="AH21" s="144"/>
+      <c r="AI21" s="144"/>
+      <c r="AJ21" s="144"/>
+      <c r="AK21" s="144"/>
+      <c r="AL21" s="144"/>
+      <c r="AM21" s="144"/>
+      <c r="AN21" s="144"/>
+      <c r="AO21" s="144"/>
+      <c r="AP21" s="144"/>
     </row>
     <row r="22" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B22" s="45"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="10">
         <v>1</v>
       </c>
@@ -7463,10 +7531,10 @@
       <c r="E22" s="11">
         <v>3</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F22" s="59">
         <v>4</v>
       </c>
-      <c r="G22" s="62">
+      <c r="G22" s="60">
         <v>1</v>
       </c>
       <c r="H22" s="11">
@@ -7576,20 +7644,22 @@
       </c>
     </row>
     <row r="23" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="57" t="s">
-        <v>80</v>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="56" t="s">
+        <v>79</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="26"/>
+      <c r="H23" s="159" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="158"/>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
@@ -7624,16 +7694,18 @@
       <c r="AP23" s="26"/>
     </row>
     <row r="24" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B24" s="142"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="140" t="s">
+      <c r="B24" s="151"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="141"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="6"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="157" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="158"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -7669,17 +7741,15 @@
       <c r="AP24" s="3"/>
     </row>
     <row r="25" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B25" s="142"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="50" t="s">
+      <c r="B25" s="151"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="30"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="29"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -7716,16 +7786,16 @@
       <c r="AP25" s="3"/>
     </row>
     <row r="26" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B26" s="142"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="48" t="s">
+      <c r="B26" s="151"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="54"/>
+      <c r="F26" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="53"/>
       <c r="H26" s="7"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -7763,16 +7833,16 @@
       <c r="AP26" s="5"/>
     </row>
     <row r="27" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B27" s="142"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="65" t="s">
+      <c r="B27" s="151"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="55"/>
+      <c r="F27" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="54"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -7810,14 +7880,14 @@
       <c r="AP27" s="3"/>
     </row>
     <row r="28" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B28" s="142"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="145" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="146"/>
+      <c r="B28" s="151"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="154" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="155"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -7855,16 +7925,16 @@
       <c r="AP28" s="3"/>
     </row>
     <row r="29" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B29" s="142"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50" t="s">
+      <c r="B29" s="151"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="143" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="144"/>
+      <c r="G29" s="153"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -7902,12 +7972,12 @@
       <c r="AP29" s="3"/>
     </row>
     <row r="30" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B30" s="142"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="65" t="s">
-        <v>84</v>
+      <c r="B30" s="151"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="63" t="s">
+        <v>83</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -7946,12 +8016,12 @@
       <c r="AP30" s="3"/>
     </row>
     <row r="31" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B31" s="142"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -7989,16 +8059,16 @@
       <c r="AP31" s="3"/>
     </row>
     <row r="32" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B32" s="106" t="s">
+      <c r="B32" s="116" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -8036,14 +8106,14 @@
       <c r="AP32" s="3"/>
     </row>
     <row r="33" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B33" s="106"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -8081,14 +8151,14 @@
       <c r="AP33" s="3"/>
     </row>
     <row r="34" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B34" s="106"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -8126,13 +8196,13 @@
       <c r="AP34" s="3"/>
     </row>
     <row r="35" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B35" s="106"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="50"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="49"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -8170,16 +8240,16 @@
       <c r="AP35" s="3"/>
     </row>
     <row r="36" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B36" s="106"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="50"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
       <c r="E36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="G36" s="50"/>
+        <v>78</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="49"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -8217,12 +8287,12 @@
       <c r="AP36" s="3"/>
     </row>
     <row r="37" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B37" s="106"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="6"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="63" t="s">
-        <v>81</v>
+      <c r="F37" s="61" t="s">
+        <v>80</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -8245,12 +8315,12 @@
       <c r="Y37" s="3"/>
     </row>
     <row r="38" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B38" s="106"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="6"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="64" t="s">
-        <v>83</v>
+      <c r="F38" s="62" t="s">
+        <v>82</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -8273,14 +8343,14 @@
       <c r="Y38" s="3"/>
     </row>
     <row r="39" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B39" s="106"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="6"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -8303,12 +8373,12 @@
       <c r="Y39" s="3"/>
     </row>
     <row r="40" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B40" s="106"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="6"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="50" t="s">
-        <v>78</v>
+      <c r="F40" s="49" t="s">
+        <v>77</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -8336,7 +8406,50 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="59">
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="AM20:AP20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="AA21:AD21"/>
+    <mergeCell ref="AE21:AH21"/>
+    <mergeCell ref="AI21:AL21"/>
+    <mergeCell ref="AM21:AP21"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="AA20:AD20"/>
+    <mergeCell ref="AE20:AH20"/>
+    <mergeCell ref="AI20:AL20"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
     <mergeCell ref="B5:B17"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="AM2:AP2"/>
@@ -8353,40 +8466,6 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="S3:V3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="AM20:AP20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="AA21:AD21"/>
-    <mergeCell ref="AE21:AH21"/>
-    <mergeCell ref="AI21:AL21"/>
-    <mergeCell ref="AM21:AP21"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="AA20:AD20"/>
-    <mergeCell ref="AE20:AH20"/>
-    <mergeCell ref="AI20:AL20"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B32:B40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8399,7 +8478,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8417,10 +8496,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E3" s="158" t="s">
+      <c r="E3" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="158"/>
+      <c r="F3" s="156"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -8583,12 +8662,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100F643F22955DFBC4D9DD3A7624601EBD1" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="0a3e87a620d9dfab8666112917a1e9a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8050024c-c185-454c-b2be-1c9e4408ac71" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bedd63959bada6aad395817f67cc735" ns2:_="">
     <xsd:import namespace="8050024c-c185-454c-b2be-1c9e4408ac71"/>
@@ -8746,6 +8819,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9B6EF67-E46A-4BD9-A842-657BABAE3B69}">
   <ds:schemaRefs>
@@ -8755,15 +8834,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C348D16-EFBF-4432-B36C-14B4B5E99FDF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DF2E071-9A34-4668-8D45-8B2BF082AB1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8779,4 +8849,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C348D16-EFBF-4432-B36C-14B4B5E99FDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Document/일정.xlsx
+++ b/Document/일정.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="156">
   <si>
     <t>3月</t>
   </si>
@@ -587,15 +587,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1스테이지 보스 몬스터 패턴 1,2 구현[강일구, 정성윤]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 이펙트 1,2패턴[강일구, 구여진, 박성혁]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 애니메이션 1,2패턴[강일구, 최다빈, 박성혁]</t>
+    <t>캐릭터 멥핑[신명수]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 애니메이션(사다리, 점프, 벽타기)[최다빈, 강동민]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간 발표준비[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 조작 예외처리[강동민]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지 래벨[강동민,강일구]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -603,23 +611,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 멥핑[신명수]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 애니메이션(사다리, 점프, 벽타기)[최다빈, 강동민]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중간 발표준비[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 조작 예외처리[강동민]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1스테이지 래벨[강동민,강일구]</t>
+    <t>몬스터 emp 애니메이션[강동민, 최다빈, 박성혁]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지 기믹 구현[강일구, 정성윤]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 emp 이펙트  [강일구, 구여진, 박성혁]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도구 기획[강동민, 강일구]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1548,7 +1552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1858,6 +1862,72 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1867,101 +1937,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1978,59 +2027,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2353,15 +2363,15 @@
       <c r="A8" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
       <c r="I8" s="84">
         <v>15</v>
       </c>
@@ -2513,18 +2523,18 @@
       </c>
     </row>
     <row r="9" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="125" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="78"/>
       <c r="J9" s="78"/>
       <c r="K9" s="78"/>
@@ -2580,16 +2590,16 @@
       <c r="CB9" s="1"/>
     </row>
     <row r="10" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A10" s="104"/>
-      <c r="B10" s="111" t="s">
+      <c r="A10" s="126"/>
+      <c r="B10" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
       <c r="I10" s="66"/>
       <c r="J10" s="66"/>
       <c r="K10" s="66"/>
@@ -2644,16 +2654,16 @@
       <c r="CB10" s="1"/>
     </row>
     <row r="11" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A11" s="104"/>
-      <c r="B11" s="122" t="s">
+      <c r="A11" s="126"/>
+      <c r="B11" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2704,16 +2714,16 @@
       <c r="CB11" s="1"/>
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A12" s="104"/>
-      <c r="B12" s="111" t="s">
+      <c r="A12" s="126"/>
+      <c r="B12" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2764,16 +2774,16 @@
       <c r="CB12" s="1"/>
     </row>
     <row r="13" spans="1:80" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="105"/>
-      <c r="B13" s="112" t="s">
+      <c r="A13" s="127"/>
+      <c r="B13" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
       <c r="I13" s="80"/>
       <c r="J13" s="80"/>
       <c r="K13" s="80"/>
@@ -2824,18 +2834,18 @@
       <c r="CB13" s="1"/>
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="128" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="133" t="s">
+      <c r="B14" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="135"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="115"/>
       <c r="I14" s="72"/>
       <c r="J14" s="72"/>
       <c r="K14" s="73"/>
@@ -2886,16 +2896,16 @@
       <c r="CB14" s="1"/>
     </row>
     <row r="15" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A15" s="104"/>
-      <c r="B15" s="111" t="s">
+      <c r="A15" s="126"/>
+      <c r="B15" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="23"/>
@@ -2928,16 +2938,16 @@
       <c r="BJ15" s="1"/>
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A16" s="104"/>
-      <c r="B16" s="109" t="s">
+      <c r="A16" s="126"/>
+      <c r="B16" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="121"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="111"/>
       <c r="I16" s="68"/>
       <c r="J16" s="68"/>
       <c r="K16" s="23"/>
@@ -2970,16 +2980,16 @@
       <c r="BJ16" s="23"/>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A17" s="104"/>
-      <c r="B17" s="109" t="s">
+      <c r="A17" s="126"/>
+      <c r="B17" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="121"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="111"/>
       <c r="I17" s="23"/>
       <c r="J17" s="68"/>
       <c r="K17" s="68"/>
@@ -3017,16 +3027,16 @@
       <c r="BJ17" s="23"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A18" s="104"/>
-      <c r="B18" s="109" t="s">
+      <c r="A18" s="126"/>
+      <c r="B18" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="121"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="111"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="68"/>
@@ -3059,16 +3069,16 @@
       <c r="BJ18" s="23"/>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A19" s="104"/>
-      <c r="B19" s="109" t="s">
+      <c r="A19" s="126"/>
+      <c r="B19" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="121"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="111"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
@@ -3101,16 +3111,16 @@
       <c r="BJ19" s="23"/>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A20" s="104"/>
-      <c r="B20" s="109" t="s">
+      <c r="A20" s="126"/>
+      <c r="B20" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="121"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="111"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
@@ -3143,16 +3153,16 @@
       <c r="BJ20" s="23"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A21" s="104"/>
-      <c r="B21" s="109" t="s">
+      <c r="A21" s="126"/>
+      <c r="B21" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="121"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="111"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
@@ -3185,16 +3195,16 @@
       <c r="BJ21" s="23"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A22" s="104"/>
-      <c r="B22" s="109" t="s">
+      <c r="A22" s="126"/>
+      <c r="B22" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="121"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="111"/>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
       <c r="K22" s="1"/>
@@ -3227,16 +3237,16 @@
       <c r="BJ22" s="23"/>
     </row>
     <row r="23" spans="1:62" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="104"/>
-      <c r="B23" s="122" t="s">
+      <c r="A23" s="126"/>
+      <c r="B23" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -3269,18 +3279,18 @@
       <c r="BJ23" s="1"/>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A24" s="117" t="s">
+      <c r="A24" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="120" t="s">
+      <c r="B24" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
       <c r="I24" s="89"/>
       <c r="J24" s="89"/>
       <c r="K24" s="89"/>
@@ -3313,16 +3323,16 @@
       <c r="BJ24" s="1"/>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A25" s="118"/>
-      <c r="B25" s="116" t="s">
+      <c r="A25" s="130"/>
+      <c r="B25" s="106" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -3355,16 +3365,16 @@
       <c r="BJ25" s="1"/>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A26" s="118"/>
-      <c r="B26" s="116" t="s">
+      <c r="A26" s="130"/>
+      <c r="B26" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -3397,16 +3407,16 @@
       <c r="BJ26" s="1"/>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A27" s="118"/>
-      <c r="B27" s="116" t="s">
+      <c r="A27" s="130"/>
+      <c r="B27" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
       <c r="I27" s="67"/>
       <c r="J27" s="67"/>
       <c r="K27" s="67"/>
@@ -3439,16 +3449,16 @@
       <c r="BJ27" s="1"/>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A28" s="118"/>
-      <c r="B28" s="116" t="s">
+      <c r="A28" s="130"/>
+      <c r="B28" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3481,16 +3491,16 @@
       <c r="BJ28" s="1"/>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A29" s="118"/>
-      <c r="B29" s="116" t="s">
+      <c r="A29" s="130"/>
+      <c r="B29" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="116"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -3523,16 +3533,16 @@
       <c r="BJ29" s="1"/>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A30" s="118"/>
-      <c r="B30" s="116" t="s">
+      <c r="A30" s="130"/>
+      <c r="B30" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
       <c r="I30" s="67"/>
       <c r="J30" s="67"/>
       <c r="K30" s="67"/>
@@ -3565,16 +3575,16 @@
       <c r="BJ30" s="1"/>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A31" s="118"/>
-      <c r="B31" s="116" t="s">
+      <c r="A31" s="130"/>
+      <c r="B31" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -3607,16 +3617,16 @@
       <c r="BJ31" s="1"/>
     </row>
     <row r="32" spans="1:62" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="119"/>
-      <c r="B32" s="136" t="s">
+      <c r="A32" s="131"/>
+      <c r="B32" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="136"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
       <c r="I32" s="77"/>
       <c r="J32" s="77"/>
       <c r="K32" s="77"/>
@@ -3649,18 +3659,18 @@
       <c r="BJ32" s="1"/>
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A33" s="104" t="s">
+      <c r="A33" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="125" t="s">
+      <c r="B33" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="127"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="135"/>
       <c r="I33" s="100"/>
       <c r="J33" s="100"/>
       <c r="K33" s="101"/>
@@ -3693,16 +3703,16 @@
       <c r="BJ33" s="1"/>
     </row>
     <row r="34" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A34" s="104"/>
-      <c r="B34" s="109" t="s">
+      <c r="A34" s="126"/>
+      <c r="B34" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="111"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="105"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="99"/>
@@ -3735,16 +3745,16 @@
       <c r="BJ34" s="1"/>
     </row>
     <row r="35" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A35" s="104"/>
-      <c r="B35" s="109" t="s">
+      <c r="A35" s="126"/>
+      <c r="B35" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="111"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="105"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3777,16 +3787,16 @@
       <c r="BJ35" s="1"/>
     </row>
     <row r="36" spans="1:62" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="104"/>
-      <c r="B36" s="122" t="s">
+      <c r="A36" s="126"/>
+      <c r="B36" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="123"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="124"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="132"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -3819,18 +3829,18 @@
       <c r="BJ36" s="1"/>
     </row>
     <row r="37" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A37" s="103" t="s">
+      <c r="A37" s="125" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="108" t="s">
+      <c r="B37" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="120"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
       <c r="I37" s="90"/>
       <c r="J37" s="90"/>
       <c r="K37" s="90"/>
@@ -3863,16 +3873,16 @@
       <c r="BJ37" s="1"/>
     </row>
     <row r="38" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A38" s="104"/>
-      <c r="B38" s="109" t="s">
+      <c r="A38" s="126"/>
+      <c r="B38" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="111"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="105"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -3905,16 +3915,16 @@
       <c r="BJ38" s="1"/>
     </row>
     <row r="39" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A39" s="104"/>
-      <c r="B39" s="109" t="s">
+      <c r="A39" s="126"/>
+      <c r="B39" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="111"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="105"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3947,16 +3957,16 @@
       <c r="BJ39" s="1"/>
     </row>
     <row r="40" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A40" s="104"/>
-      <c r="B40" s="111" t="s">
+      <c r="A40" s="126"/>
+      <c r="B40" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -3989,16 +3999,16 @@
       <c r="BJ40" s="1"/>
     </row>
     <row r="41" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A41" s="104"/>
-      <c r="B41" s="111" t="s">
+      <c r="A41" s="126"/>
+      <c r="B41" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="116"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -4031,16 +4041,16 @@
       <c r="BJ41" s="1"/>
     </row>
     <row r="42" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A42" s="104"/>
-      <c r="B42" s="109" t="s">
+      <c r="A42" s="126"/>
+      <c r="B42" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="111"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="105"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -4073,16 +4083,16 @@
       <c r="BJ42" s="1"/>
     </row>
     <row r="43" spans="1:62" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="105"/>
-      <c r="B43" s="112" t="s">
+      <c r="A43" s="127"/>
+      <c r="B43" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="114"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="118"/>
       <c r="I43" s="87"/>
       <c r="J43" s="87"/>
       <c r="K43" s="87"/>
@@ -4115,18 +4125,18 @@
       <c r="BJ43" s="1"/>
     </row>
     <row r="44" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="103" t="s">
+      <c r="A44" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="106" t="s">
+      <c r="B44" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="107"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="108"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="137"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="116"/>
       <c r="I44" s="73"/>
       <c r="J44" s="73"/>
       <c r="K44" s="73"/>
@@ -4159,16 +4169,16 @@
       <c r="BJ44" s="1"/>
     </row>
     <row r="45" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="104"/>
-      <c r="B45" s="109" t="s">
+      <c r="A45" s="126"/>
+      <c r="B45" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="111"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="105"/>
       <c r="I45" s="36"/>
       <c r="J45" s="36"/>
       <c r="K45" s="36"/>
@@ -4201,14 +4211,14 @@
       <c r="BJ45" s="1"/>
     </row>
     <row r="46" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="104"/>
-      <c r="B46" s="109"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="111"/>
+      <c r="A46" s="126"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="105"/>
       <c r="I46" s="36"/>
       <c r="J46" s="36"/>
       <c r="K46" s="36"/>
@@ -4241,14 +4251,14 @@
       <c r="BJ46" s="1"/>
     </row>
     <row r="47" spans="1:62" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="105"/>
-      <c r="B47" s="112"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="114"/>
+      <c r="A47" s="127"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="118"/>
       <c r="I47" s="87"/>
       <c r="J47" s="87"/>
       <c r="K47" s="87"/>
@@ -4345,15 +4355,15 @@
       <c r="AK49" s="34"/>
       <c r="AL49" s="34"/>
       <c r="AM49" s="34"/>
-      <c r="AX49" s="109" t="s">
+      <c r="AX49" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="AY49" s="110"/>
-      <c r="AZ49" s="110"/>
-      <c r="BA49" s="110"/>
-      <c r="BB49" s="110"/>
-      <c r="BC49" s="110"/>
-      <c r="BD49" s="111"/>
+      <c r="AY49" s="104"/>
+      <c r="AZ49" s="104"/>
+      <c r="BA49" s="104"/>
+      <c r="BB49" s="104"/>
+      <c r="BC49" s="104"/>
+      <c r="BD49" s="105"/>
     </row>
     <row r="50" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A50" s="34"/>
@@ -4395,15 +4405,15 @@
       <c r="AK50" s="34"/>
       <c r="AL50" s="34"/>
       <c r="AM50" s="34"/>
-      <c r="AX50" s="109" t="s">
+      <c r="AX50" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="AY50" s="110"/>
-      <c r="AZ50" s="110"/>
-      <c r="BA50" s="110"/>
-      <c r="BB50" s="110"/>
-      <c r="BC50" s="110"/>
-      <c r="BD50" s="111"/>
+      <c r="AY50" s="104"/>
+      <c r="AZ50" s="104"/>
+      <c r="BA50" s="104"/>
+      <c r="BB50" s="104"/>
+      <c r="BC50" s="104"/>
+      <c r="BD50" s="105"/>
     </row>
     <row r="51" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A51" s="34"/>
@@ -4499,15 +4509,15 @@
       <c r="A55" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="131" t="s">
+      <c r="B55" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="131"/>
-      <c r="D55" s="131"/>
-      <c r="E55" s="131"/>
-      <c r="F55" s="131"/>
-      <c r="G55" s="131"/>
-      <c r="H55" s="131"/>
+      <c r="C55" s="120"/>
+      <c r="D55" s="120"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="120"/>
       <c r="I55" s="1">
         <v>1</v>
       </c>
@@ -4603,18 +4613,18 @@
       </c>
     </row>
     <row r="56" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A56" s="128" t="s">
+      <c r="A56" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="B56" s="116" t="s">
+      <c r="B56" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
-      <c r="E56" s="116"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="116"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
       <c r="I56" s="38"/>
       <c r="J56" s="38"/>
       <c r="K56" s="1"/>
@@ -4648,16 +4658,16 @@
       <c r="AM56" s="1"/>
     </row>
     <row r="57" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A57" s="129"/>
-      <c r="B57" s="116" t="s">
+      <c r="A57" s="122"/>
+      <c r="B57" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
-      <c r="E57" s="116"/>
-      <c r="F57" s="116"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="116"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
       <c r="I57" s="1"/>
       <c r="J57" s="38"/>
       <c r="K57" s="38"/>
@@ -4691,16 +4701,16 @@
       <c r="AM57" s="1"/>
     </row>
     <row r="58" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A58" s="130"/>
-      <c r="B58" s="116" t="s">
+      <c r="A58" s="123"/>
+      <c r="B58" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
-      <c r="E58" s="116"/>
-      <c r="F58" s="116"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="116"/>
+      <c r="C58" s="106"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="106"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="38"/>
@@ -4734,18 +4744,18 @@
       <c r="AM58" s="1"/>
     </row>
     <row r="59" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A59" s="137" t="s">
+      <c r="A59" s="124" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="116" t="s">
+      <c r="B59" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
-      <c r="E59" s="116"/>
-      <c r="F59" s="116"/>
-      <c r="G59" s="116"/>
-      <c r="H59" s="116"/>
+      <c r="C59" s="106"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="106"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="106"/>
       <c r="I59" s="99"/>
       <c r="J59" s="99"/>
       <c r="K59" s="1"/>
@@ -4779,16 +4789,16 @@
       <c r="AM59" s="1"/>
     </row>
     <row r="60" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A60" s="129"/>
-      <c r="B60" s="116" t="s">
+      <c r="A60" s="122"/>
+      <c r="B60" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="116"/>
-      <c r="F60" s="116"/>
-      <c r="G60" s="116"/>
-      <c r="H60" s="116"/>
+      <c r="C60" s="106"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="106"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="106"/>
       <c r="I60" s="1"/>
       <c r="J60" s="38"/>
       <c r="K60" s="38"/>
@@ -4822,16 +4832,16 @@
       <c r="AM60" s="1"/>
     </row>
     <row r="61" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A61" s="129"/>
-      <c r="B61" s="116" t="s">
+      <c r="A61" s="122"/>
+      <c r="B61" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
-      <c r="E61" s="116"/>
-      <c r="F61" s="116"/>
-      <c r="G61" s="116"/>
-      <c r="H61" s="116"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="106"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -4865,16 +4875,16 @@
       <c r="AM61" s="1"/>
     </row>
     <row r="62" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A62" s="129"/>
-      <c r="B62" s="116" t="s">
+      <c r="A62" s="122"/>
+      <c r="B62" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
-      <c r="E62" s="116"/>
-      <c r="F62" s="116"/>
-      <c r="G62" s="116"/>
-      <c r="H62" s="116"/>
+      <c r="C62" s="106"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="106"/>
       <c r="I62" s="69"/>
       <c r="J62" s="69"/>
       <c r="K62" s="1"/>
@@ -4908,16 +4918,16 @@
       <c r="AM62" s="1"/>
     </row>
     <row r="63" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A63" s="129"/>
-      <c r="B63" s="116" t="s">
+      <c r="A63" s="122"/>
+      <c r="B63" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="C63" s="116"/>
-      <c r="D63" s="116"/>
-      <c r="E63" s="116"/>
-      <c r="F63" s="116"/>
-      <c r="G63" s="116"/>
-      <c r="H63" s="116"/>
+      <c r="C63" s="106"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="106"/>
+      <c r="F63" s="106"/>
+      <c r="G63" s="106"/>
+      <c r="H63" s="106"/>
       <c r="I63" s="1"/>
       <c r="J63" s="69"/>
       <c r="K63" s="69"/>
@@ -4951,16 +4961,16 @@
       <c r="AM63" s="1"/>
     </row>
     <row r="64" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A64" s="129"/>
-      <c r="B64" s="116" t="s">
+      <c r="A64" s="122"/>
+      <c r="B64" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="C64" s="116"/>
-      <c r="D64" s="116"/>
-      <c r="E64" s="116"/>
-      <c r="F64" s="116"/>
-      <c r="G64" s="116"/>
-      <c r="H64" s="116"/>
+      <c r="C64" s="106"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="106"/>
+      <c r="F64" s="106"/>
+      <c r="G64" s="106"/>
+      <c r="H64" s="106"/>
       <c r="I64" s="1"/>
       <c r="J64" s="99"/>
       <c r="K64" s="99"/>
@@ -4994,14 +5004,14 @@
       <c r="AM64" s="1"/>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A65" s="129"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="116"/>
-      <c r="E65" s="116"/>
-      <c r="F65" s="116"/>
-      <c r="G65" s="116"/>
-      <c r="H65" s="116"/>
+      <c r="A65" s="122"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="106"/>
+      <c r="F65" s="106"/>
+      <c r="G65" s="106"/>
+      <c r="H65" s="106"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -5035,18 +5045,18 @@
       <c r="AM65" s="1"/>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A66" s="116" t="s">
+      <c r="A66" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="B66" s="111" t="s">
+      <c r="B66" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="C66" s="116"/>
-      <c r="D66" s="116"/>
-      <c r="E66" s="116"/>
-      <c r="F66" s="116"/>
-      <c r="G66" s="116"/>
-      <c r="H66" s="116"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="106"/>
+      <c r="F66" s="106"/>
+      <c r="G66" s="106"/>
+      <c r="H66" s="106"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -5080,16 +5090,16 @@
       <c r="AM66" s="1"/>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A67" s="116"/>
-      <c r="B67" s="111" t="s">
+      <c r="A67" s="106"/>
+      <c r="B67" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="C67" s="116"/>
-      <c r="D67" s="116"/>
-      <c r="E67" s="116"/>
-      <c r="F67" s="116"/>
-      <c r="G67" s="116"/>
-      <c r="H67" s="116"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="106"/>
+      <c r="F67" s="106"/>
+      <c r="G67" s="106"/>
+      <c r="H67" s="106"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -5123,16 +5133,16 @@
       <c r="AM67" s="1"/>
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A68" s="116"/>
-      <c r="B68" s="111" t="s">
+      <c r="A68" s="106"/>
+      <c r="B68" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="C68" s="116"/>
-      <c r="D68" s="116"/>
-      <c r="E68" s="116"/>
-      <c r="F68" s="116"/>
-      <c r="G68" s="116"/>
-      <c r="H68" s="116"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="106"/>
+      <c r="E68" s="106"/>
+      <c r="F68" s="106"/>
+      <c r="G68" s="106"/>
+      <c r="H68" s="106"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -5166,14 +5176,14 @@
       <c r="AM68" s="1"/>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A69" s="116"/>
-      <c r="B69" s="111"/>
-      <c r="C69" s="116"/>
-      <c r="D69" s="116"/>
-      <c r="E69" s="116"/>
-      <c r="F69" s="116"/>
-      <c r="G69" s="116"/>
-      <c r="H69" s="116"/>
+      <c r="A69" s="106"/>
+      <c r="B69" s="105"/>
+      <c r="C69" s="106"/>
+      <c r="D69" s="106"/>
+      <c r="E69" s="106"/>
+      <c r="F69" s="106"/>
+      <c r="G69" s="106"/>
+      <c r="H69" s="106"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -5207,14 +5217,14 @@
       <c r="AM69" s="1"/>
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A70" s="116"/>
-      <c r="B70" s="111"/>
-      <c r="C70" s="116"/>
-      <c r="D70" s="116"/>
-      <c r="E70" s="116"/>
-      <c r="F70" s="116"/>
-      <c r="G70" s="116"/>
-      <c r="H70" s="116"/>
+      <c r="A70" s="106"/>
+      <c r="B70" s="105"/>
+      <c r="C70" s="106"/>
+      <c r="D70" s="106"/>
+      <c r="E70" s="106"/>
+      <c r="F70" s="106"/>
+      <c r="G70" s="106"/>
+      <c r="H70" s="106"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -5248,14 +5258,14 @@
       <c r="AM70" s="1"/>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A71" s="116"/>
-      <c r="B71" s="111"/>
-      <c r="C71" s="116"/>
-      <c r="D71" s="116"/>
-      <c r="E71" s="116"/>
-      <c r="F71" s="116"/>
-      <c r="G71" s="116"/>
-      <c r="H71" s="116"/>
+      <c r="A71" s="106"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="106"/>
+      <c r="D71" s="106"/>
+      <c r="E71" s="106"/>
+      <c r="F71" s="106"/>
+      <c r="G71" s="106"/>
+      <c r="H71" s="106"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -5748,15 +5758,15 @@
       <c r="A86" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="131" t="s">
+      <c r="B86" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="C86" s="131"/>
-      <c r="D86" s="131"/>
-      <c r="E86" s="131"/>
-      <c r="F86" s="131"/>
-      <c r="G86" s="131"/>
-      <c r="H86" s="131"/>
+      <c r="C86" s="120"/>
+      <c r="D86" s="120"/>
+      <c r="E86" s="120"/>
+      <c r="F86" s="120"/>
+      <c r="G86" s="120"/>
+      <c r="H86" s="120"/>
       <c r="I86" s="1">
         <v>1</v>
       </c>
@@ -5852,14 +5862,14 @@
       </c>
     </row>
     <row r="87" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A87" s="128"/>
-      <c r="B87" s="109"/>
-      <c r="C87" s="110"/>
-      <c r="D87" s="110"/>
-      <c r="E87" s="110"/>
-      <c r="F87" s="110"/>
-      <c r="G87" s="110"/>
-      <c r="H87" s="111"/>
+      <c r="A87" s="121"/>
+      <c r="B87" s="103"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="104"/>
+      <c r="E87" s="104"/>
+      <c r="F87" s="104"/>
+      <c r="G87" s="104"/>
+      <c r="H87" s="105"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -5893,14 +5903,14 @@
       <c r="AM87" s="1"/>
     </row>
     <row r="88" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A88" s="129"/>
-      <c r="B88" s="109"/>
-      <c r="C88" s="110"/>
-      <c r="D88" s="110"/>
-      <c r="E88" s="110"/>
-      <c r="F88" s="110"/>
-      <c r="G88" s="110"/>
-      <c r="H88" s="111"/>
+      <c r="A88" s="122"/>
+      <c r="B88" s="103"/>
+      <c r="C88" s="104"/>
+      <c r="D88" s="104"/>
+      <c r="E88" s="104"/>
+      <c r="F88" s="104"/>
+      <c r="G88" s="104"/>
+      <c r="H88" s="105"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -5934,14 +5944,14 @@
       <c r="AM88" s="1"/>
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A89" s="129"/>
-      <c r="B89" s="109"/>
-      <c r="C89" s="110"/>
-      <c r="D89" s="110"/>
-      <c r="E89" s="110"/>
-      <c r="F89" s="110"/>
-      <c r="G89" s="110"/>
-      <c r="H89" s="111"/>
+      <c r="A89" s="122"/>
+      <c r="B89" s="103"/>
+      <c r="C89" s="104"/>
+      <c r="D89" s="104"/>
+      <c r="E89" s="104"/>
+      <c r="F89" s="104"/>
+      <c r="G89" s="104"/>
+      <c r="H89" s="105"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -5975,14 +5985,14 @@
       <c r="AM89" s="1"/>
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A90" s="129"/>
-      <c r="B90" s="109"/>
-      <c r="C90" s="110"/>
-      <c r="D90" s="110"/>
-      <c r="E90" s="110"/>
-      <c r="F90" s="110"/>
-      <c r="G90" s="110"/>
-      <c r="H90" s="111"/>
+      <c r="A90" s="122"/>
+      <c r="B90" s="103"/>
+      <c r="C90" s="104"/>
+      <c r="D90" s="104"/>
+      <c r="E90" s="104"/>
+      <c r="F90" s="104"/>
+      <c r="G90" s="104"/>
+      <c r="H90" s="105"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -6016,14 +6026,14 @@
       <c r="AM90" s="1"/>
     </row>
     <row r="91" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A91" s="129"/>
-      <c r="B91" s="109"/>
-      <c r="C91" s="110"/>
-      <c r="D91" s="110"/>
-      <c r="E91" s="110"/>
-      <c r="F91" s="110"/>
-      <c r="G91" s="110"/>
-      <c r="H91" s="111"/>
+      <c r="A91" s="122"/>
+      <c r="B91" s="103"/>
+      <c r="C91" s="104"/>
+      <c r="D91" s="104"/>
+      <c r="E91" s="104"/>
+      <c r="F91" s="104"/>
+      <c r="G91" s="104"/>
+      <c r="H91" s="105"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -6057,14 +6067,14 @@
       <c r="AM91" s="1"/>
     </row>
     <row r="92" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A92" s="130"/>
-      <c r="B92" s="109"/>
-      <c r="C92" s="110"/>
-      <c r="D92" s="110"/>
-      <c r="E92" s="110"/>
-      <c r="F92" s="110"/>
-      <c r="G92" s="110"/>
-      <c r="H92" s="111"/>
+      <c r="A92" s="123"/>
+      <c r="B92" s="103"/>
+      <c r="C92" s="104"/>
+      <c r="D92" s="104"/>
+      <c r="E92" s="104"/>
+      <c r="F92" s="104"/>
+      <c r="G92" s="104"/>
+      <c r="H92" s="105"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -6106,15 +6116,15 @@
       <c r="A96" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B96" s="131" t="s">
+      <c r="B96" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="131"/>
-      <c r="D96" s="131"/>
-      <c r="E96" s="131"/>
-      <c r="F96" s="131"/>
-      <c r="G96" s="131"/>
-      <c r="H96" s="131"/>
+      <c r="C96" s="120"/>
+      <c r="D96" s="120"/>
+      <c r="E96" s="120"/>
+      <c r="F96" s="120"/>
+      <c r="G96" s="120"/>
+      <c r="H96" s="120"/>
       <c r="I96" s="1">
         <v>1</v>
       </c>
@@ -6210,14 +6220,14 @@
       </c>
     </row>
     <row r="97" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A97" s="116"/>
-      <c r="B97" s="116"/>
-      <c r="C97" s="116"/>
-      <c r="D97" s="116"/>
-      <c r="E97" s="116"/>
-      <c r="F97" s="116"/>
-      <c r="G97" s="116"/>
-      <c r="H97" s="116"/>
+      <c r="A97" s="106"/>
+      <c r="B97" s="106"/>
+      <c r="C97" s="106"/>
+      <c r="D97" s="106"/>
+      <c r="E97" s="106"/>
+      <c r="F97" s="106"/>
+      <c r="G97" s="106"/>
+      <c r="H97" s="106"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -6251,14 +6261,14 @@
       <c r="AM97" s="1"/>
     </row>
     <row r="98" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A98" s="116"/>
-      <c r="B98" s="116"/>
-      <c r="C98" s="116"/>
-      <c r="D98" s="116"/>
-      <c r="E98" s="116"/>
-      <c r="F98" s="116"/>
-      <c r="G98" s="116"/>
-      <c r="H98" s="116"/>
+      <c r="A98" s="106"/>
+      <c r="B98" s="106"/>
+      <c r="C98" s="106"/>
+      <c r="D98" s="106"/>
+      <c r="E98" s="106"/>
+      <c r="F98" s="106"/>
+      <c r="G98" s="106"/>
+      <c r="H98" s="106"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -6292,14 +6302,14 @@
       <c r="AM98" s="1"/>
     </row>
     <row r="99" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A99" s="116"/>
-      <c r="B99" s="116"/>
-      <c r="C99" s="116"/>
-      <c r="D99" s="116"/>
-      <c r="E99" s="116"/>
-      <c r="F99" s="116"/>
-      <c r="G99" s="116"/>
-      <c r="H99" s="116"/>
+      <c r="A99" s="106"/>
+      <c r="B99" s="106"/>
+      <c r="C99" s="106"/>
+      <c r="D99" s="106"/>
+      <c r="E99" s="106"/>
+      <c r="F99" s="106"/>
+      <c r="G99" s="106"/>
+      <c r="H99" s="106"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -6333,14 +6343,14 @@
       <c r="AM99" s="1"/>
     </row>
     <row r="100" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A100" s="116"/>
-      <c r="B100" s="116"/>
-      <c r="C100" s="116"/>
-      <c r="D100" s="116"/>
-      <c r="E100" s="116"/>
-      <c r="F100" s="116"/>
-      <c r="G100" s="116"/>
-      <c r="H100" s="116"/>
+      <c r="A100" s="106"/>
+      <c r="B100" s="106"/>
+      <c r="C100" s="106"/>
+      <c r="D100" s="106"/>
+      <c r="E100" s="106"/>
+      <c r="F100" s="106"/>
+      <c r="G100" s="106"/>
+      <c r="H100" s="106"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -6374,14 +6384,14 @@
       <c r="AM100" s="1"/>
     </row>
     <row r="101" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A101" s="116"/>
-      <c r="B101" s="116"/>
-      <c r="C101" s="116"/>
-      <c r="D101" s="116"/>
-      <c r="E101" s="116"/>
-      <c r="F101" s="116"/>
-      <c r="G101" s="116"/>
-      <c r="H101" s="116"/>
+      <c r="A101" s="106"/>
+      <c r="B101" s="106"/>
+      <c r="C101" s="106"/>
+      <c r="D101" s="106"/>
+      <c r="E101" s="106"/>
+      <c r="F101" s="106"/>
+      <c r="G101" s="106"/>
+      <c r="H101" s="106"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -6415,14 +6425,14 @@
       <c r="AM101" s="1"/>
     </row>
     <row r="102" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A102" s="116"/>
-      <c r="B102" s="116"/>
-      <c r="C102" s="116"/>
-      <c r="D102" s="116"/>
-      <c r="E102" s="116"/>
-      <c r="F102" s="116"/>
-      <c r="G102" s="116"/>
-      <c r="H102" s="116"/>
+      <c r="A102" s="106"/>
+      <c r="B102" s="106"/>
+      <c r="C102" s="106"/>
+      <c r="D102" s="106"/>
+      <c r="E102" s="106"/>
+      <c r="F102" s="106"/>
+      <c r="G102" s="106"/>
+      <c r="H102" s="106"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -6457,6 +6467,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B96:H96"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="B98:H98"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="B100:H100"/>
+    <mergeCell ref="B101:H101"/>
+    <mergeCell ref="B102:H102"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B64:H64"/>
     <mergeCell ref="AX49:BD49"/>
     <mergeCell ref="AX50:BD50"/>
     <mergeCell ref="B12:H12"/>
@@ -6473,74 +6551,6 @@
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="B98:H98"/>
-    <mergeCell ref="B99:H99"/>
-    <mergeCell ref="B100:H100"/>
-    <mergeCell ref="B101:H101"/>
-    <mergeCell ref="B102:H102"/>
-    <mergeCell ref="B96:H96"/>
-    <mergeCell ref="B86:H86"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="B92:H92"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A23"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A24:A32"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6553,7 +6563,7 @@
   <dimension ref="B2:AP43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6570,115 +6580,115 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143" t="s">
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143" t="s">
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143" t="s">
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143" t="s">
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143" t="s">
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="143" t="s">
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="143"/>
-      <c r="AD2" s="143"/>
-      <c r="AE2" s="143" t="s">
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="143"/>
-      <c r="AG2" s="143"/>
-      <c r="AH2" s="143"/>
-      <c r="AI2" s="143" t="s">
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="149"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="AJ2" s="143"/>
-      <c r="AK2" s="143"/>
-      <c r="AL2" s="143"/>
-      <c r="AM2" s="143" t="s">
+      <c r="AJ2" s="149"/>
+      <c r="AK2" s="149"/>
+      <c r="AL2" s="149"/>
+      <c r="AM2" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="AN2" s="143"/>
-      <c r="AO2" s="143"/>
-      <c r="AP2" s="143"/>
+      <c r="AN2" s="149"/>
+      <c r="AO2" s="149"/>
+      <c r="AP2" s="149"/>
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144" t="s">
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="144"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="144"/>
-      <c r="AA3" s="144"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="144"/>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="144"/>
-      <c r="AG3" s="144"/>
-      <c r="AH3" s="144"/>
-      <c r="AI3" s="144"/>
-      <c r="AJ3" s="144"/>
-      <c r="AK3" s="144"/>
-      <c r="AL3" s="144"/>
-      <c r="AM3" s="144"/>
-      <c r="AN3" s="144"/>
-      <c r="AO3" s="144"/>
-      <c r="AP3" s="144"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="150"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="150"/>
+      <c r="AJ3" s="150"/>
+      <c r="AK3" s="150"/>
+      <c r="AL3" s="150"/>
+      <c r="AM3" s="150"/>
+      <c r="AN3" s="150"/>
+      <c r="AO3" s="150"/>
+      <c r="AP3" s="150"/>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B4" s="9"/>
@@ -6804,7 +6814,7 @@
       </c>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="153" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="4"/>
@@ -6812,10 +6822,10 @@
       <c r="E5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="141" t="s">
+      <c r="F5" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="142"/>
+      <c r="G5" s="157"/>
       <c r="H5" s="28"/>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
@@ -6853,7 +6863,7 @@
       <c r="AP5" s="26"/>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B6" s="139"/>
+      <c r="B6" s="154"/>
       <c r="C6" s="6"/>
       <c r="D6" s="3"/>
       <c r="E6" s="30" t="s">
@@ -6863,10 +6873,10 @@
       <c r="G6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="157" t="s">
-        <v>146</v>
-      </c>
-      <c r="I6" s="158"/>
+      <c r="H6" s="140" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="139"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -6902,21 +6912,21 @@
       <c r="AP6" s="3"/>
     </row>
     <row r="7" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B7" s="139"/>
+      <c r="B7" s="154"/>
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="145" t="s">
+      <c r="E7" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="146"/>
+      <c r="F7" s="159"/>
       <c r="G7" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="159" t="s">
-        <v>147</v>
-      </c>
-      <c r="I7" s="158"/>
-      <c r="J7" s="3"/>
+      <c r="H7" s="138" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" s="139"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -6951,20 +6961,20 @@
       <c r="AP7" s="3"/>
     </row>
     <row r="8" spans="2:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="139"/>
+      <c r="B8" s="154"/>
       <c r="C8" s="7"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="147" t="s">
+      <c r="E8" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="148"/>
+      <c r="F8" s="152"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="159" t="s">
-        <v>148</v>
-      </c>
-      <c r="I8" s="160"/>
-      <c r="J8" s="158"/>
-      <c r="K8" s="5"/>
+      <c r="H8" s="138" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" s="141"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -6998,18 +7008,18 @@
       <c r="AP8" s="5"/>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B9" s="139"/>
+      <c r="B9" s="154"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="157" t="s">
-        <v>149</v>
-      </c>
-      <c r="I9" s="160"/>
-      <c r="J9" s="158"/>
+      <c r="H9" s="140" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" s="141"/>
+      <c r="J9" s="161"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -7044,7 +7054,7 @@
       <c r="AP9" s="3"/>
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B10" s="139"/>
+      <c r="B10" s="154"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="27" t="s">
@@ -7052,10 +7062,10 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="157" t="s">
-        <v>150</v>
-      </c>
-      <c r="I10" s="158"/>
+      <c r="H10" s="140" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" s="139"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -7091,7 +7101,7 @@
       <c r="AP10" s="3"/>
     </row>
     <row r="11" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B11" s="139"/>
+      <c r="B11" s="154"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -7099,10 +7109,10 @@
         <v>29</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="157" t="s">
-        <v>151</v>
-      </c>
-      <c r="I11" s="158"/>
+      <c r="H11" s="140" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="139"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -7138,7 +7148,7 @@
       <c r="AP11" s="3"/>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B12" s="139"/>
+      <c r="B12" s="154"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -7148,7 +7158,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -7185,7 +7195,7 @@
       <c r="AP12" s="3"/>
     </row>
     <row r="13" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B13" s="139"/>
+      <c r="B13" s="154"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -7195,8 +7205,10 @@
       <c r="G13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="157"/>
-      <c r="I13" s="158"/>
+      <c r="H13" s="140" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" s="139"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -7232,7 +7244,7 @@
       <c r="AP13" s="3"/>
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B14" s="139"/>
+      <c r="B14" s="154"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
@@ -7279,14 +7291,14 @@
       <c r="AP14" s="3"/>
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B15" s="139"/>
+      <c r="B15" s="154"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="141" t="s">
+      <c r="F15" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="142"/>
+      <c r="G15" s="157"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -7324,7 +7336,7 @@
       <c r="AP15" s="3"/>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B16" s="139"/>
+      <c r="B16" s="154"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -7367,7 +7379,7 @@
       <c r="AP16" s="3"/>
     </row>
     <row r="17" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B17" s="140"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -7410,115 +7422,115 @@
       <c r="AP17" s="3"/>
     </row>
     <row r="20" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143" t="s">
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143" t="s">
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="149"/>
+      <c r="K20" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="143"/>
-      <c r="O20" s="143" t="s">
+      <c r="L20" s="149"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="149"/>
+      <c r="O20" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="P20" s="143"/>
-      <c r="Q20" s="143"/>
-      <c r="R20" s="143"/>
-      <c r="S20" s="143" t="s">
+      <c r="P20" s="149"/>
+      <c r="Q20" s="149"/>
+      <c r="R20" s="149"/>
+      <c r="S20" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="143"/>
-      <c r="U20" s="143"/>
-      <c r="V20" s="143"/>
-      <c r="W20" s="143" t="s">
+      <c r="T20" s="149"/>
+      <c r="U20" s="149"/>
+      <c r="V20" s="149"/>
+      <c r="W20" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X20" s="143"/>
-      <c r="Y20" s="143"/>
-      <c r="Z20" s="143"/>
-      <c r="AA20" s="143" t="s">
+      <c r="X20" s="149"/>
+      <c r="Y20" s="149"/>
+      <c r="Z20" s="149"/>
+      <c r="AA20" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="AB20" s="143"/>
-      <c r="AC20" s="143"/>
-      <c r="AD20" s="143"/>
-      <c r="AE20" s="143" t="s">
+      <c r="AB20" s="149"/>
+      <c r="AC20" s="149"/>
+      <c r="AD20" s="149"/>
+      <c r="AE20" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="AF20" s="143"/>
-      <c r="AG20" s="143"/>
-      <c r="AH20" s="143"/>
-      <c r="AI20" s="143" t="s">
+      <c r="AF20" s="149"/>
+      <c r="AG20" s="149"/>
+      <c r="AH20" s="149"/>
+      <c r="AI20" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="AJ20" s="143"/>
-      <c r="AK20" s="143"/>
-      <c r="AL20" s="143"/>
-      <c r="AM20" s="143" t="s">
+      <c r="AJ20" s="149"/>
+      <c r="AK20" s="149"/>
+      <c r="AL20" s="149"/>
+      <c r="AM20" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="AN20" s="143"/>
-      <c r="AO20" s="143"/>
-      <c r="AP20" s="143"/>
+      <c r="AN20" s="149"/>
+      <c r="AO20" s="149"/>
+      <c r="AP20" s="149"/>
     </row>
     <row r="21" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="144" t="s">
+      <c r="C21" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144" t="s">
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="144"/>
-      <c r="N21" s="144"/>
-      <c r="O21" s="144"/>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="144"/>
-      <c r="R21" s="144"/>
-      <c r="S21" s="144"/>
-      <c r="T21" s="144"/>
-      <c r="U21" s="144"/>
-      <c r="V21" s="144"/>
-      <c r="W21" s="144"/>
-      <c r="X21" s="144"/>
-      <c r="Y21" s="144"/>
-      <c r="Z21" s="144"/>
-      <c r="AA21" s="144"/>
-      <c r="AB21" s="144"/>
-      <c r="AC21" s="144"/>
-      <c r="AD21" s="144"/>
-      <c r="AE21" s="144"/>
-      <c r="AF21" s="144"/>
-      <c r="AG21" s="144"/>
-      <c r="AH21" s="144"/>
-      <c r="AI21" s="144"/>
-      <c r="AJ21" s="144"/>
-      <c r="AK21" s="144"/>
-      <c r="AL21" s="144"/>
-      <c r="AM21" s="144"/>
-      <c r="AN21" s="144"/>
-      <c r="AO21" s="144"/>
-      <c r="AP21" s="144"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="150"/>
+      <c r="L21" s="150"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="150"/>
+      <c r="Q21" s="150"/>
+      <c r="R21" s="150"/>
+      <c r="S21" s="150"/>
+      <c r="T21" s="150"/>
+      <c r="U21" s="150"/>
+      <c r="V21" s="150"/>
+      <c r="W21" s="150"/>
+      <c r="X21" s="150"/>
+      <c r="Y21" s="150"/>
+      <c r="Z21" s="150"/>
+      <c r="AA21" s="150"/>
+      <c r="AB21" s="150"/>
+      <c r="AC21" s="150"/>
+      <c r="AD21" s="150"/>
+      <c r="AE21" s="150"/>
+      <c r="AF21" s="150"/>
+      <c r="AG21" s="150"/>
+      <c r="AH21" s="150"/>
+      <c r="AI21" s="150"/>
+      <c r="AJ21" s="150"/>
+      <c r="AK21" s="150"/>
+      <c r="AL21" s="150"/>
+      <c r="AM21" s="150"/>
+      <c r="AN21" s="150"/>
+      <c r="AO21" s="150"/>
+      <c r="AP21" s="150"/>
     </row>
     <row r="22" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B22" s="44"/>
@@ -7644,7 +7656,7 @@
       </c>
     </row>
     <row r="23" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="144" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="45"/>
@@ -7656,10 +7668,10 @@
         <v>67</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="159" t="s">
-        <v>153</v>
-      </c>
-      <c r="I23" s="158"/>
+      <c r="H23" s="138" t="s">
+        <v>149</v>
+      </c>
+      <c r="I23" s="139"/>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
@@ -7694,18 +7706,18 @@
       <c r="AP23" s="26"/>
     </row>
     <row r="24" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B24" s="151"/>
+      <c r="B24" s="144"/>
       <c r="C24" s="48"/>
       <c r="D24" s="49"/>
       <c r="E24" s="52"/>
-      <c r="F24" s="149" t="s">
+      <c r="F24" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="150"/>
-      <c r="H24" s="157" t="s">
-        <v>154</v>
-      </c>
-      <c r="I24" s="158"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="140" t="s">
+        <v>150</v>
+      </c>
+      <c r="I24" s="139"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -7741,7 +7753,7 @@
       <c r="AP24" s="3"/>
     </row>
     <row r="25" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B25" s="151"/>
+      <c r="B25" s="144"/>
       <c r="C25" s="48"/>
       <c r="D25" s="55"/>
       <c r="E25" s="56"/>
@@ -7786,7 +7798,7 @@
       <c r="AP25" s="3"/>
     </row>
     <row r="26" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B26" s="151"/>
+      <c r="B26" s="144"/>
       <c r="C26" s="51"/>
       <c r="D26" s="58"/>
       <c r="E26" s="47" t="s">
@@ -7833,7 +7845,7 @@
       <c r="AP26" s="5"/>
     </row>
     <row r="27" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B27" s="151"/>
+      <c r="B27" s="144"/>
       <c r="C27" s="48"/>
       <c r="D27" s="49"/>
       <c r="E27" s="54" t="s">
@@ -7880,14 +7892,14 @@
       <c r="AP27" s="3"/>
     </row>
     <row r="28" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B28" s="151"/>
+      <c r="B28" s="144"/>
       <c r="C28" s="48"/>
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
-      <c r="F28" s="154" t="s">
+      <c r="F28" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="155"/>
+      <c r="G28" s="148"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -7925,16 +7937,16 @@
       <c r="AP28" s="3"/>
     </row>
     <row r="29" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B29" s="151"/>
+      <c r="B29" s="144"/>
       <c r="C29" s="48"/>
       <c r="D29" s="49"/>
       <c r="E29" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="152" t="s">
+      <c r="F29" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="G29" s="153"/>
+      <c r="G29" s="146"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -7972,7 +7984,7 @@
       <c r="AP29" s="3"/>
     </row>
     <row r="30" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B30" s="151"/>
+      <c r="B30" s="144"/>
       <c r="C30" s="48"/>
       <c r="D30" s="49"/>
       <c r="E30" s="49"/>
@@ -8016,7 +8028,7 @@
       <c r="AP30" s="3"/>
     </row>
     <row r="31" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B31" s="151"/>
+      <c r="B31" s="144"/>
       <c r="C31" s="48"/>
       <c r="D31" s="49"/>
       <c r="E31" s="49"/>
@@ -8059,7 +8071,7 @@
       <c r="AP31" s="3"/>
     </row>
     <row r="32" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B32" s="116" t="s">
+      <c r="B32" s="106" t="s">
         <v>74</v>
       </c>
       <c r="C32" s="48"/>
@@ -8106,7 +8118,7 @@
       <c r="AP32" s="3"/>
     </row>
     <row r="33" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B33" s="116"/>
+      <c r="B33" s="106"/>
       <c r="C33" s="48"/>
       <c r="D33" s="49"/>
       <c r="E33" s="49" t="s">
@@ -8151,7 +8163,7 @@
       <c r="AP33" s="3"/>
     </row>
     <row r="34" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B34" s="116"/>
+      <c r="B34" s="106"/>
       <c r="C34" s="48"/>
       <c r="D34" s="49"/>
       <c r="E34" s="49" t="s">
@@ -8196,7 +8208,7 @@
       <c r="AP34" s="3"/>
     </row>
     <row r="35" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B35" s="116"/>
+      <c r="B35" s="106"/>
       <c r="C35" s="48"/>
       <c r="D35" s="49"/>
       <c r="E35" s="49" t="s">
@@ -8240,7 +8252,7 @@
       <c r="AP35" s="3"/>
     </row>
     <row r="36" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B36" s="116"/>
+      <c r="B36" s="106"/>
       <c r="C36" s="48"/>
       <c r="D36" s="49"/>
       <c r="E36" t="s">
@@ -8287,7 +8299,7 @@
       <c r="AP36" s="3"/>
     </row>
     <row r="37" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B37" s="116"/>
+      <c r="B37" s="106"/>
       <c r="C37" s="6"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -8315,7 +8327,7 @@
       <c r="Y37" s="3"/>
     </row>
     <row r="38" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B38" s="116"/>
+      <c r="B38" s="106"/>
       <c r="C38" s="6"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -8343,7 +8355,7 @@
       <c r="Y38" s="3"/>
     </row>
     <row r="39" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B39" s="116"/>
+      <c r="B39" s="106"/>
       <c r="C39" s="6"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
@@ -8373,7 +8385,7 @@
       <c r="Y39" s="3"/>
     </row>
     <row r="40" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B40" s="116"/>
+      <c r="B40" s="106"/>
       <c r="C40" s="6"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -8407,17 +8419,39 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="B5:B17"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AI3:AL3"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="AM20:AP20"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="G21:J21"/>
@@ -8434,38 +8468,16 @@
     <mergeCell ref="AA20:AD20"/>
     <mergeCell ref="AE20:AH20"/>
     <mergeCell ref="AI20:AL20"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B5:B17"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AM3:AP3"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AE3:AH3"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AI3:AL3"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:J9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8496,10 +8508,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E3" s="156" t="s">
+      <c r="E3" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="156"/>
+      <c r="F3" s="160"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -8653,12 +8665,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8820,15 +8829,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9B6EF67-E46A-4BD9-A842-657BABAE3B69}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C348D16-EFBF-4432-B36C-14B4B5E99FDF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8852,10 +8865,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C348D16-EFBF-4432-B36C-14B4B5E99FDF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9B6EF67-E46A-4BD9-A842-657BABAE3B69}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>